--- a/output_for_paper/supplementary_table_s4.xlsx
+++ b/output_for_paper/supplementary_table_s4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="462">
   <si>
     <t xml:space="preserve">Data_set</t>
   </si>
@@ -1091,6 +1091,30 @@
     <t xml:space="preserve">SBS96E (False Positive) (SBS40 0.781)</t>
   </si>
   <si>
+    <t xml:space="preserve">hdp.9 (False Positive) (SBS7a 0.832), hdp.14 (False Positive) (SBS1 0.232), hdp.27 (False Positive) (SBS44 0.83)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS6, SBS7a, SBS16, SBS30, SBS35, SBS38, SBS39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdp.21 (False Positive) (SBS7a 0.847), hdp.25 (False Positive) (SBS44 0.825), hdp.28 (False Positive) (SBS1 0.234), hdp.29 (False Positive) (SBS36 0.774)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS6, SBS7a, SBS7b, SBS30, SBS35, SBS38, SBS39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdp.7 (False Positive) (SBS1 0.969), hdp.10 (False Positive) (SBS7a 0.841), hdp.14 (False Positive) (SBS44 0.827), hdp.28 (False Positive) (SBS1 0.232), hdp.29 (False Positive) (SBS7b 0.494), hdp.32 (False Positive) (SBS2 0.992)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS6, SBS7a, SBS30, SBS35, SBS38, SBS39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdp.9 (False Positive) (SBS7a 0.847), hdp.23 (False Positive) (SBS1 0.232), hdp.26 (False Positive) (SBS44 0.829), hdp.29 (False Positive) (SBS7b 0.493)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdp.17 (False Positive) (SBS7a 0.846), hdp.26 (False Positive) (SBS44 0.828), hdp.28 (False Positive) (SBS7b 0.498), hdp.29 (False Positive) (SBS1 0.232)</t>
+  </si>
+  <si>
     <t xml:space="preserve">hdp.24 (False Positive) (SBS6 0.839), hdp.26 (False Positive) (SBS5 0.806), hdp.28 (False Positive) (SBS7a 0.857)</t>
   </si>
   <si>
@@ -1136,9 +1160,6 @@
     <t xml:space="preserve">hdp.24 (False Positive) (SBS6 0.85), hdp.26 (False Positive) (SBS30 0.883), hdp.27 (False Positive) (SBS1 0.234)</t>
   </si>
   <si>
-    <t xml:space="preserve">SBS6, SBS7a, SBS7b, SBS30, SBS35, SBS38, SBS39</t>
-  </si>
-  <si>
     <t xml:space="preserve">hdp.13 (False Positive) (SBS7a 0.842), hdp.20 (False Positive) (SBS1 0.234), hdp.26 (False Positive) (SBS6 0.855), hdp.29 (False Positive) (SBS30 0.896)</t>
   </si>
   <si>
@@ -1146,9 +1167,6 @@
   </si>
   <si>
     <t xml:space="preserve">hdp.9 (False Positive) (SBS7a 0.875), hdp.27 (False Positive) (SBS6 0.852), hdp.28 (False Positive) (SBS1 0.234), hdp.29 (False Positive) (SBS30 0.878)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS6, SBS7a, SBS16, SBS30, SBS35, SBS38, SBS39</t>
   </si>
   <si>
     <t xml:space="preserve">sens_SBS35_5_728</t>
@@ -13978,7 +13996,7 @@
         <v>24</v>
       </c>
       <c r="C300" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D300" t="s">
         <v>16</v>
@@ -13990,10 +14008,10 @@
         <v>0.78125</v>
       </c>
       <c r="G300" t="n">
-        <v>0.993628902482487</v>
+        <v>0.993953010259836</v>
       </c>
       <c r="H300" t="n">
-        <v>2.66773604533963</v>
+        <v>2.66806015311698</v>
       </c>
       <c r="I300" t="n">
         <v>28</v>
@@ -14019,31 +14037,31 @@
         <v>24</v>
       </c>
       <c r="C301" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D301" t="s">
         <v>18</v>
       </c>
       <c r="E301" t="n">
-        <v>0.888888888888889</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="F301" t="n">
-        <v>0.75</v>
+        <v>0.78125</v>
       </c>
       <c r="G301" t="n">
-        <v>0.994137385498832</v>
+        <v>0.993202782851473</v>
       </c>
       <c r="H301" t="n">
-        <v>2.63302627438772</v>
+        <v>2.63652174836871</v>
       </c>
       <c r="I301" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J301" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K301" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L301" t="s">
         <v>361</v>
@@ -14060,37 +14078,37 @@
         <v>24</v>
       </c>
       <c r="C302" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D302" t="s">
         <v>19</v>
       </c>
       <c r="E302" t="n">
-        <v>0.892857142857143</v>
+        <v>0.8125</v>
       </c>
       <c r="F302" t="n">
-        <v>0.78125</v>
+        <v>0.8125</v>
       </c>
       <c r="G302" t="n">
-        <v>0.993057289739249</v>
+        <v>0.991780996037339</v>
       </c>
       <c r="H302" t="n">
-        <v>2.66716443259639</v>
+        <v>2.61678099603734</v>
       </c>
       <c r="I302" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J302" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K302" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L302" t="s">
         <v>363</v>
       </c>
       <c r="M302" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="303">
@@ -14101,37 +14119,37 @@
         <v>24</v>
       </c>
       <c r="C303" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D303" t="s">
         <v>20</v>
       </c>
       <c r="E303" t="n">
-        <v>0.925925925925926</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="F303" t="n">
         <v>0.78125</v>
       </c>
       <c r="G303" t="n">
-        <v>0.99360483642153</v>
+        <v>0.993021971337012</v>
       </c>
       <c r="H303" t="n">
-        <v>2.70078076234746</v>
+        <v>2.63634093685425</v>
       </c>
       <c r="I303" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J303" t="n">
         <v>7</v>
       </c>
       <c r="K303" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L303" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M303" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="304">
@@ -14142,34 +14160,34 @@
         <v>24</v>
       </c>
       <c r="C304" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D304" t="s">
         <v>21</v>
       </c>
       <c r="E304" t="n">
-        <v>0.892857142857143</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="F304" t="n">
         <v>0.78125</v>
       </c>
       <c r="G304" t="n">
-        <v>0.993521283744589</v>
+        <v>0.993544134943552</v>
       </c>
       <c r="H304" t="n">
-        <v>2.66762842660173</v>
+        <v>2.63686310046079</v>
       </c>
       <c r="I304" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J304" t="n">
         <v>7</v>
       </c>
       <c r="K304" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L304" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M304" t="s">
         <v>360</v>
@@ -14183,7 +14201,7 @@
         <v>24</v>
       </c>
       <c r="C305" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D305" t="s">
         <v>16</v>
@@ -14195,10 +14213,10 @@
         <v>0.78125</v>
       </c>
       <c r="G305" t="n">
-        <v>0.991736056332528</v>
+        <v>0.993628902482487</v>
       </c>
       <c r="H305" t="n">
-        <v>2.66584319918967</v>
+        <v>2.66773604533963</v>
       </c>
       <c r="I305" t="n">
         <v>28</v>
@@ -14210,10 +14228,10 @@
         <v>3</v>
       </c>
       <c r="L305" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M305" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="306">
@@ -14224,37 +14242,37 @@
         <v>24</v>
       </c>
       <c r="C306" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D306" t="s">
         <v>18</v>
       </c>
       <c r="E306" t="n">
-        <v>0.925925925925926</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="F306" t="n">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="G306" t="n">
-        <v>0.992657970915991</v>
+        <v>0.994137385498832</v>
       </c>
       <c r="H306" t="n">
-        <v>2.69983389684192</v>
+        <v>2.63302627438772</v>
       </c>
       <c r="I306" t="n">
         <v>27</v>
       </c>
       <c r="J306" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K306" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L306" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M306" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="307">
@@ -14265,37 +14283,37 @@
         <v>24</v>
       </c>
       <c r="C307" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D307" t="s">
         <v>19</v>
       </c>
       <c r="E307" t="n">
-        <v>0.862068965517241</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="F307" t="n">
         <v>0.78125</v>
       </c>
       <c r="G307" t="n">
-        <v>0.992250121615821</v>
+        <v>0.993057289739249</v>
       </c>
       <c r="H307" t="n">
-        <v>2.63556908713306</v>
+        <v>2.66716443259639</v>
       </c>
       <c r="I307" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J307" t="n">
         <v>7</v>
       </c>
       <c r="K307" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L307" t="s">
+        <v>371</v>
+      </c>
+      <c r="M307" t="s">
         <v>368</v>
-      </c>
-      <c r="M307" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="308">
@@ -14306,37 +14324,37 @@
         <v>24</v>
       </c>
       <c r="C308" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D308" t="s">
         <v>20</v>
       </c>
       <c r="E308" t="n">
-        <v>0.923076923076923</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="F308" t="n">
-        <v>0.75</v>
+        <v>0.78125</v>
       </c>
       <c r="G308" t="n">
-        <v>0.992382695936197</v>
+        <v>0.99360483642153</v>
       </c>
       <c r="H308" t="n">
-        <v>2.66545961901312</v>
+        <v>2.70078076234746</v>
       </c>
       <c r="I308" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J308" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K308" t="n">
         <v>2</v>
       </c>
       <c r="L308" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M308" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="309">
@@ -14347,7 +14365,7 @@
         <v>24</v>
       </c>
       <c r="C309" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D309" t="s">
         <v>21</v>
@@ -14359,10 +14377,10 @@
         <v>0.78125</v>
       </c>
       <c r="G309" t="n">
-        <v>0.99170260402899</v>
+        <v>0.993521283744589</v>
       </c>
       <c r="H309" t="n">
-        <v>2.66580974688613</v>
+        <v>2.66762842660173</v>
       </c>
       <c r="I309" t="n">
         <v>28</v>
@@ -14374,10 +14392,10 @@
         <v>3</v>
       </c>
       <c r="L309" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M309" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="310">
@@ -14388,37 +14406,37 @@
         <v>24</v>
       </c>
       <c r="C310" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D310" t="s">
         <v>16</v>
       </c>
       <c r="E310" t="n">
-        <v>0.923076923076923</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="F310" t="n">
-        <v>0.75</v>
+        <v>0.78125</v>
       </c>
       <c r="G310" t="n">
-        <v>0.991799988837732</v>
+        <v>0.991736056332528</v>
       </c>
       <c r="H310" t="n">
-        <v>2.66487691191465</v>
+        <v>2.66584319918967</v>
       </c>
       <c r="I310" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J310" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K310" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L310" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M310" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="311">
@@ -14429,37 +14447,37 @@
         <v>24</v>
       </c>
       <c r="C311" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D311" t="s">
         <v>18</v>
       </c>
       <c r="E311" t="n">
-        <v>0.866666666666667</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="F311" t="n">
-        <v>0.8125</v>
+        <v>0.78125</v>
       </c>
       <c r="G311" t="n">
-        <v>0.993394276711359</v>
+        <v>0.992657970915991</v>
       </c>
       <c r="H311" t="n">
-        <v>2.67256094337803</v>
+        <v>2.69983389684192</v>
       </c>
       <c r="I311" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J311" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K311" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L311" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M311" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
     </row>
     <row r="312">
@@ -14470,37 +14488,37 @@
         <v>24</v>
       </c>
       <c r="C312" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D312" t="s">
         <v>19</v>
       </c>
       <c r="E312" t="n">
-        <v>0.892857142857143</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="F312" t="n">
         <v>0.78125</v>
       </c>
       <c r="G312" t="n">
-        <v>0.99463625042665</v>
+        <v>0.992250121615821</v>
       </c>
       <c r="H312" t="n">
-        <v>2.66874339328379</v>
+        <v>2.63556908713306</v>
       </c>
       <c r="I312" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J312" t="n">
         <v>7</v>
       </c>
       <c r="K312" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L312" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M312" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="313">
@@ -14511,37 +14529,37 @@
         <v>24</v>
       </c>
       <c r="C313" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D313" t="s">
         <v>20</v>
       </c>
       <c r="E313" t="n">
-        <v>0.862068965517241</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="F313" t="n">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="G313" t="n">
-        <v>0.994075352660748</v>
+        <v>0.992382695936197</v>
       </c>
       <c r="H313" t="n">
-        <v>2.63739431817799</v>
+        <v>2.66545961901312</v>
       </c>
       <c r="I313" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J313" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K313" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L313" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M313" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="314">
@@ -14552,854 +14570,854 @@
         <v>24</v>
       </c>
       <c r="C314" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D314" t="s">
         <v>21</v>
       </c>
       <c r="E314" t="n">
-        <v>0.862068965517241</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="F314" t="n">
         <v>0.78125</v>
       </c>
       <c r="G314" t="n">
-        <v>0.994890228634678</v>
+        <v>0.99170260402899</v>
       </c>
       <c r="H314" t="n">
-        <v>2.63820919415192</v>
+        <v>2.66580974688613</v>
       </c>
       <c r="I314" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J314" t="n">
         <v>7</v>
       </c>
       <c r="K314" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L314" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M314" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="B315" t="s">
         <v>24</v>
       </c>
       <c r="C315" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D315" t="s">
         <v>16</v>
       </c>
       <c r="E315" t="n">
-        <v>1</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="F315" t="n">
-        <v>0.956521739130435</v>
+        <v>0.75</v>
       </c>
       <c r="G315" t="n">
-        <v>0.991694126481954</v>
+        <v>0.991799988837732</v>
       </c>
       <c r="H315" t="n">
-        <v>2.94821586561239</v>
+        <v>2.66487691191465</v>
       </c>
       <c r="I315" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J315" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L315" t="s">
-        <v>17</v>
+        <v>379</v>
       </c>
       <c r="M315" t="s">
-        <v>197</v>
+        <v>370</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="B316" t="s">
         <v>24</v>
       </c>
       <c r="C316" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D316" t="s">
         <v>18</v>
       </c>
       <c r="E316" t="n">
-        <v>1</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="F316" t="n">
-        <v>0.91304347826087</v>
+        <v>0.8125</v>
       </c>
       <c r="G316" t="n">
-        <v>0.992546888817938</v>
+        <v>0.993394276711359</v>
       </c>
       <c r="H316" t="n">
-        <v>2.90559036707881</v>
+        <v>2.67256094337803</v>
       </c>
       <c r="I316" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J316" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K316" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L316" t="s">
-        <v>17</v>
+        <v>380</v>
       </c>
       <c r="M316" t="s">
-        <v>380</v>
+        <v>314</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="B317" t="s">
         <v>24</v>
       </c>
       <c r="C317" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D317" t="s">
         <v>19</v>
       </c>
       <c r="E317" t="n">
-        <v>1</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="F317" t="n">
-        <v>0.956521739130435</v>
+        <v>0.78125</v>
       </c>
       <c r="G317" t="n">
-        <v>0.991634820206093</v>
+        <v>0.99463625042665</v>
       </c>
       <c r="H317" t="n">
-        <v>2.94815655933653</v>
+        <v>2.66874339328379</v>
       </c>
       <c r="I317" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J317" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K317" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L317" t="s">
-        <v>17</v>
+        <v>381</v>
       </c>
       <c r="M317" t="s">
-        <v>197</v>
+        <v>362</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="B318" t="s">
         <v>24</v>
       </c>
       <c r="C318" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D318" t="s">
         <v>20</v>
       </c>
       <c r="E318" t="n">
-        <v>1</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="F318" t="n">
-        <v>0.956521739130435</v>
+        <v>0.78125</v>
       </c>
       <c r="G318" t="n">
-        <v>0.992060885426315</v>
+        <v>0.994075352660748</v>
       </c>
       <c r="H318" t="n">
-        <v>2.94858262455675</v>
+        <v>2.63739431817799</v>
       </c>
       <c r="I318" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J318" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K318" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L318" t="s">
-        <v>17</v>
+        <v>382</v>
       </c>
       <c r="M318" t="s">
-        <v>197</v>
+        <v>383</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="B319" t="s">
         <v>24</v>
       </c>
       <c r="C319" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D319" t="s">
         <v>21</v>
       </c>
       <c r="E319" t="n">
-        <v>1</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="F319" t="n">
-        <v>0.956521739130435</v>
+        <v>0.78125</v>
       </c>
       <c r="G319" t="n">
-        <v>0.991142588447679</v>
+        <v>0.994890228634678</v>
       </c>
       <c r="H319" t="n">
-        <v>2.94766432757811</v>
+        <v>2.63820919415192</v>
       </c>
       <c r="I319" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J319" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K319" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L319" t="s">
-        <v>17</v>
+        <v>384</v>
       </c>
       <c r="M319" t="s">
-        <v>197</v>
+        <v>360</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B320" t="s">
         <v>24</v>
       </c>
       <c r="C320" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D320" t="s">
         <v>16</v>
       </c>
       <c r="E320" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F320" t="n">
-        <v>0.695652173913043</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G320" t="n">
-        <v>0.974095492207302</v>
+        <v>0.991694126481954</v>
       </c>
       <c r="H320" t="n">
-        <v>2.61092413670858</v>
+        <v>2.94821586561239</v>
       </c>
       <c r="I320" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J320" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L320" t="s">
-        <v>381</v>
+        <v>17</v>
       </c>
       <c r="M320" t="s">
-        <v>270</v>
+        <v>197</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B321" t="s">
         <v>24</v>
       </c>
       <c r="C321" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D321" t="s">
         <v>18</v>
       </c>
       <c r="E321" t="n">
-        <v>0.888888888888889</v>
+        <v>1</v>
       </c>
       <c r="F321" t="n">
-        <v>0.695652173913043</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G321" t="n">
-        <v>0.972295101375642</v>
+        <v>0.992546888817938</v>
       </c>
       <c r="H321" t="n">
-        <v>2.55683616417757</v>
+        <v>2.90559036707881</v>
       </c>
       <c r="I321" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J321" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L321" t="s">
-        <v>382</v>
+        <v>17</v>
       </c>
       <c r="M321" t="s">
-        <v>270</v>
+        <v>386</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B322" t="s">
         <v>24</v>
       </c>
       <c r="C322" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D322" t="s">
         <v>19</v>
       </c>
       <c r="E322" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F322" t="n">
-        <v>0.695652173913043</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G322" t="n">
-        <v>0.974334553113992</v>
+        <v>0.991634820206093</v>
       </c>
       <c r="H322" t="n">
-        <v>2.61116319761527</v>
+        <v>2.94815655933653</v>
       </c>
       <c r="I322" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J322" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L322" t="s">
-        <v>287</v>
+        <v>17</v>
       </c>
       <c r="M322" t="s">
-        <v>270</v>
+        <v>197</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B323" t="s">
         <v>24</v>
       </c>
       <c r="C323" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D323" t="s">
         <v>20</v>
       </c>
       <c r="E323" t="n">
-        <v>0.8125</v>
+        <v>1</v>
       </c>
       <c r="F323" t="n">
-        <v>0.565217391304348</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G323" t="n">
-        <v>0.982977285217662</v>
+        <v>0.992060885426315</v>
       </c>
       <c r="H323" t="n">
-        <v>2.36069467652201</v>
+        <v>2.94858262455675</v>
       </c>
       <c r="I323" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J323" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L323" t="s">
-        <v>383</v>
+        <v>17</v>
       </c>
       <c r="M323" t="s">
-        <v>384</v>
+        <v>197</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B324" t="s">
         <v>24</v>
       </c>
       <c r="C324" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D324" t="s">
         <v>21</v>
       </c>
       <c r="E324" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F324" t="n">
-        <v>0.695652173913043</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G324" t="n">
-        <v>0.974986350984775</v>
+        <v>0.991142588447679</v>
       </c>
       <c r="H324" t="n">
-        <v>2.61181499548605</v>
+        <v>2.94766432757811</v>
       </c>
       <c r="I324" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J324" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L324" t="s">
-        <v>385</v>
+        <v>17</v>
       </c>
       <c r="M324" t="s">
-        <v>270</v>
+        <v>197</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B325" t="s">
         <v>24</v>
       </c>
       <c r="C325" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D325" t="s">
         <v>16</v>
       </c>
       <c r="E325" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F325" t="n">
-        <v>0.869565217391304</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G325" t="n">
-        <v>0.992618553305693</v>
+        <v>0.974095492207302</v>
       </c>
       <c r="H325" t="n">
-        <v>2.862183770697</v>
+        <v>2.61092413670858</v>
       </c>
       <c r="I325" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J325" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L325" t="s">
-        <v>17</v>
+        <v>387</v>
       </c>
       <c r="M325" t="s">
-        <v>387</v>
+        <v>270</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B326" t="s">
         <v>24</v>
       </c>
       <c r="C326" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D326" t="s">
         <v>18</v>
       </c>
       <c r="E326" t="n">
-        <v>1</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="F326" t="n">
-        <v>0.956521739130435</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G326" t="n">
-        <v>0.992061945920591</v>
+        <v>0.972295101375642</v>
       </c>
       <c r="H326" t="n">
-        <v>2.94858368505103</v>
+        <v>2.55683616417757</v>
       </c>
       <c r="I326" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J326" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L326" t="s">
-        <v>17</v>
+        <v>388</v>
       </c>
       <c r="M326" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B327" t="s">
         <v>24</v>
       </c>
       <c r="C327" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D327" t="s">
         <v>19</v>
       </c>
       <c r="E327" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F327" t="n">
-        <v>0.91304347826087</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G327" t="n">
-        <v>0.992532800065759</v>
+        <v>0.974334553113992</v>
       </c>
       <c r="H327" t="n">
-        <v>2.90557627832663</v>
+        <v>2.61116319761527</v>
       </c>
       <c r="I327" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J327" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L327" t="s">
-        <v>17</v>
+        <v>287</v>
       </c>
       <c r="M327" t="s">
-        <v>380</v>
+        <v>270</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B328" t="s">
         <v>24</v>
       </c>
       <c r="C328" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D328" t="s">
         <v>20</v>
       </c>
       <c r="E328" t="n">
-        <v>1</v>
+        <v>0.8125</v>
       </c>
       <c r="F328" t="n">
-        <v>0.956521739130435</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="G328" t="n">
-        <v>0.990038038360213</v>
+        <v>0.982977285217662</v>
       </c>
       <c r="H328" t="n">
-        <v>2.94655977749065</v>
+        <v>2.36069467652201</v>
       </c>
       <c r="I328" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J328" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K328" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L328" t="s">
-        <v>17</v>
+        <v>389</v>
       </c>
       <c r="M328" t="s">
-        <v>197</v>
+        <v>390</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B329" t="s">
         <v>24</v>
       </c>
       <c r="C329" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D329" t="s">
         <v>21</v>
       </c>
       <c r="E329" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F329" t="n">
-        <v>0.91304347826087</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G329" t="n">
-        <v>0.991063116244006</v>
+        <v>0.974986350984775</v>
       </c>
       <c r="H329" t="n">
-        <v>2.90410659450488</v>
+        <v>2.61181499548605</v>
       </c>
       <c r="I329" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J329" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L329" t="s">
-        <v>17</v>
+        <v>391</v>
       </c>
       <c r="M329" t="s">
-        <v>388</v>
+        <v>270</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B330" t="s">
         <v>24</v>
       </c>
       <c r="C330" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D330" t="s">
         <v>16</v>
       </c>
       <c r="E330" t="n">
-        <v>0.8125</v>
+        <v>1</v>
       </c>
       <c r="F330" t="n">
-        <v>0.565217391304348</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G330" t="n">
-        <v>0.981582264143665</v>
+        <v>0.992618553305693</v>
       </c>
       <c r="H330" t="n">
-        <v>2.35929965544801</v>
+        <v>2.862183770697</v>
       </c>
       <c r="I330" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J330" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L330" t="s">
-        <v>389</v>
+        <v>17</v>
       </c>
       <c r="M330" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B331" t="s">
         <v>24</v>
       </c>
       <c r="C331" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D331" t="s">
         <v>18</v>
       </c>
       <c r="E331" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F331" t="n">
-        <v>0.652173913043478</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G331" t="n">
-        <v>0.975156001348464</v>
+        <v>0.992061945920591</v>
       </c>
       <c r="H331" t="n">
-        <v>2.50968285556841</v>
+        <v>2.94858368505103</v>
       </c>
       <c r="I331" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J331" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L331" t="s">
-        <v>390</v>
+        <v>17</v>
       </c>
       <c r="M331" t="s">
-        <v>271</v>
+        <v>197</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B332" t="s">
         <v>24</v>
       </c>
       <c r="C332" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D332" t="s">
         <v>19</v>
       </c>
       <c r="E332" t="n">
-        <v>0.8125</v>
+        <v>1</v>
       </c>
       <c r="F332" t="n">
-        <v>0.565217391304348</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G332" t="n">
-        <v>0.980540422200839</v>
+        <v>0.992532800065759</v>
       </c>
       <c r="H332" t="n">
-        <v>2.35825781350519</v>
+        <v>2.90557627832663</v>
       </c>
       <c r="I332" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J332" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L332" t="s">
-        <v>391</v>
+        <v>17</v>
       </c>
       <c r="M332" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B333" t="s">
         <v>24</v>
       </c>
       <c r="C333" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D333" t="s">
         <v>20</v>
       </c>
       <c r="E333" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F333" t="n">
-        <v>0.695652173913043</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G333" t="n">
-        <v>0.974272237099035</v>
+        <v>0.990038038360213</v>
       </c>
       <c r="H333" t="n">
-        <v>2.61110088160031</v>
+        <v>2.94655977749065</v>
       </c>
       <c r="I333" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J333" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L333" t="s">
-        <v>392</v>
+        <v>17</v>
       </c>
       <c r="M333" t="s">
-        <v>270</v>
+        <v>197</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B334" t="s">
         <v>24</v>
       </c>
       <c r="C334" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D334" t="s">
         <v>21</v>
       </c>
       <c r="E334" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="F334" t="n">
-        <v>0.608695652173913</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G334" t="n">
-        <v>0.973788614790885</v>
+        <v>0.991063116244006</v>
       </c>
       <c r="H334" t="n">
-        <v>2.4574842669648</v>
+        <v>2.90410659450488</v>
       </c>
       <c r="I334" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J334" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L334" t="s">
-        <v>393</v>
+        <v>17</v>
       </c>
       <c r="M334" t="s">
         <v>394</v>
@@ -15407,1232 +15425,1232 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B335" t="s">
         <v>24</v>
       </c>
       <c r="C335" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D335" t="s">
         <v>16</v>
       </c>
       <c r="E335" t="n">
-        <v>0.956521739130435</v>
+        <v>0.8125</v>
       </c>
       <c r="F335" t="n">
-        <v>0.956521739130435</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="G335" t="n">
-        <v>0.991110434085147</v>
+        <v>0.981582264143665</v>
       </c>
       <c r="H335" t="n">
-        <v>2.90415391234602</v>
+        <v>2.35929965544801</v>
       </c>
       <c r="I335" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J335" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K335" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L335" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M335" t="s">
-        <v>197</v>
+        <v>390</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B336" t="s">
         <v>24</v>
       </c>
       <c r="C336" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D336" t="s">
         <v>18</v>
       </c>
       <c r="E336" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F336" t="n">
-        <v>0.956521739130435</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G336" t="n">
-        <v>0.991235297350773</v>
+        <v>0.975156001348464</v>
       </c>
       <c r="H336" t="n">
-        <v>2.94775703648121</v>
+        <v>2.50968285556841</v>
       </c>
       <c r="I336" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J336" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L336" t="s">
-        <v>17</v>
+        <v>396</v>
       </c>
       <c r="M336" t="s">
-        <v>197</v>
+        <v>271</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B337" t="s">
         <v>24</v>
       </c>
       <c r="C337" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D337" t="s">
         <v>19</v>
       </c>
       <c r="E337" t="n">
-        <v>1</v>
+        <v>0.8125</v>
       </c>
       <c r="F337" t="n">
-        <v>0.869565217391304</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="G337" t="n">
-        <v>0.992667112422782</v>
+        <v>0.980540422200839</v>
       </c>
       <c r="H337" t="n">
-        <v>2.86223232981409</v>
+        <v>2.35825781350519</v>
       </c>
       <c r="I337" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J337" t="n">
+        <v>10</v>
+      </c>
+      <c r="K337" t="n">
         <v>3</v>
       </c>
-      <c r="K337" t="n">
-        <v>0</v>
-      </c>
       <c r="L337" t="s">
-        <v>17</v>
+        <v>397</v>
       </c>
       <c r="M337" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B338" t="s">
         <v>24</v>
       </c>
       <c r="C338" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D338" t="s">
         <v>20</v>
       </c>
       <c r="E338" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F338" t="n">
-        <v>0.956521739130435</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G338" t="n">
-        <v>0.991612160712581</v>
+        <v>0.974272237099035</v>
       </c>
       <c r="H338" t="n">
-        <v>2.94813389984302</v>
+        <v>2.61110088160031</v>
       </c>
       <c r="I338" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J338" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L338" t="s">
-        <v>17</v>
+        <v>398</v>
       </c>
       <c r="M338" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B339" t="s">
         <v>24</v>
       </c>
       <c r="C339" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D339" t="s">
         <v>21</v>
       </c>
       <c r="E339" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="F339" t="n">
-        <v>0.956521739130435</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="G339" t="n">
-        <v>0.990779396373095</v>
+        <v>0.973788614790885</v>
       </c>
       <c r="H339" t="n">
-        <v>2.94730113550353</v>
+        <v>2.4574842669648</v>
       </c>
       <c r="I339" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J339" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L339" t="s">
-        <v>17</v>
+        <v>399</v>
       </c>
       <c r="M339" t="s">
-        <v>197</v>
+        <v>400</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B340" t="s">
         <v>24</v>
       </c>
       <c r="C340" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D340" t="s">
         <v>16</v>
       </c>
       <c r="E340" t="n">
-        <v>0.8125</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="F340" t="n">
-        <v>0.565217391304348</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G340" t="n">
-        <v>0.982455205730869</v>
+        <v>0.991110434085147</v>
       </c>
       <c r="H340" t="n">
-        <v>2.36017259703522</v>
+        <v>2.90415391234602</v>
       </c>
       <c r="I340" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J340" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K340" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L340" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="M340" t="s">
-        <v>384</v>
+        <v>197</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B341" t="s">
         <v>24</v>
       </c>
       <c r="C341" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D341" t="s">
         <v>18</v>
       </c>
       <c r="E341" t="n">
-        <v>0.823529411764706</v>
+        <v>1</v>
       </c>
       <c r="F341" t="n">
-        <v>0.608695652173913</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G341" t="n">
-        <v>0.980836158765712</v>
+        <v>0.991235297350773</v>
       </c>
       <c r="H341" t="n">
-        <v>2.41306122270433</v>
+        <v>2.94775703648121</v>
       </c>
       <c r="I341" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J341" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L341" t="s">
-        <v>398</v>
+        <v>17</v>
       </c>
       <c r="M341" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B342" t="s">
         <v>24</v>
       </c>
       <c r="C342" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D342" t="s">
         <v>19</v>
       </c>
       <c r="E342" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F342" t="n">
-        <v>0.652173913043478</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G342" t="n">
-        <v>0.975625922882146</v>
+        <v>0.992667112422782</v>
       </c>
       <c r="H342" t="n">
-        <v>2.5101527771021</v>
+        <v>2.86223232981409</v>
       </c>
       <c r="I342" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J342" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L342" t="s">
-        <v>399</v>
+        <v>17</v>
       </c>
       <c r="M342" t="s">
-        <v>271</v>
+        <v>393</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B343" t="s">
         <v>24</v>
       </c>
       <c r="C343" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D343" t="s">
         <v>20</v>
       </c>
       <c r="E343" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F343" t="n">
-        <v>0.695652173913043</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G343" t="n">
-        <v>0.973389374053376</v>
+        <v>0.991612160712581</v>
       </c>
       <c r="H343" t="n">
-        <v>2.61021801855465</v>
+        <v>2.94813389984302</v>
       </c>
       <c r="I343" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J343" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L343" t="s">
-        <v>400</v>
+        <v>17</v>
       </c>
       <c r="M343" t="s">
-        <v>270</v>
+        <v>197</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B344" t="s">
         <v>24</v>
       </c>
       <c r="C344" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D344" t="s">
         <v>21</v>
       </c>
       <c r="E344" t="n">
-        <v>0.823529411764706</v>
+        <v>1</v>
       </c>
       <c r="F344" t="n">
-        <v>0.608695652173913</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G344" t="n">
-        <v>0.98052757780659</v>
+        <v>0.990779396373095</v>
       </c>
       <c r="H344" t="n">
-        <v>2.41275264174521</v>
+        <v>2.94730113550353</v>
       </c>
       <c r="I344" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J344" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L344" t="s">
-        <v>401</v>
+        <v>17</v>
       </c>
       <c r="M344" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B345" t="s">
         <v>24</v>
       </c>
       <c r="C345" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D345" t="s">
         <v>16</v>
       </c>
       <c r="E345" t="n">
-        <v>1</v>
+        <v>0.8125</v>
       </c>
       <c r="F345" t="n">
-        <v>0.956521739130435</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="G345" t="n">
-        <v>0.991393511860473</v>
+        <v>0.982455205730869</v>
       </c>
       <c r="H345" t="n">
-        <v>2.94791525099091</v>
+        <v>2.36017259703522</v>
       </c>
       <c r="I345" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J345" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K345" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L345" t="s">
-        <v>17</v>
+        <v>403</v>
       </c>
       <c r="M345" t="s">
-        <v>197</v>
+        <v>390</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B346" t="s">
         <v>24</v>
       </c>
       <c r="C346" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D346" t="s">
         <v>18</v>
       </c>
       <c r="E346" t="n">
-        <v>1</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="F346" t="n">
-        <v>0.869565217391304</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="G346" t="n">
-        <v>0.993241595299258</v>
+        <v>0.980836158765712</v>
       </c>
       <c r="H346" t="n">
-        <v>2.86280681269056</v>
+        <v>2.41306122270433</v>
       </c>
       <c r="I346" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J346" t="n">
+        <v>9</v>
+      </c>
+      <c r="K346" t="n">
         <v>3</v>
       </c>
-      <c r="K346" t="n">
-        <v>0</v>
-      </c>
       <c r="L346" t="s">
-        <v>17</v>
+        <v>404</v>
       </c>
       <c r="M346" t="s">
-        <v>403</v>
+        <v>266</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B347" t="s">
         <v>24</v>
       </c>
       <c r="C347" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D347" t="s">
         <v>19</v>
       </c>
       <c r="E347" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F347" t="n">
-        <v>0.869565217391304</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G347" t="n">
-        <v>0.992924058046528</v>
+        <v>0.975625922882146</v>
       </c>
       <c r="H347" t="n">
-        <v>2.86248927543783</v>
+        <v>2.5101527771021</v>
       </c>
       <c r="I347" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J347" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L347" t="s">
-        <v>17</v>
+        <v>405</v>
       </c>
       <c r="M347" t="s">
-        <v>387</v>
+        <v>271</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B348" t="s">
         <v>24</v>
       </c>
       <c r="C348" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D348" t="s">
         <v>20</v>
       </c>
       <c r="E348" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F348" t="n">
-        <v>0.956521739130435</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G348" t="n">
-        <v>0.991691797521705</v>
+        <v>0.973389374053376</v>
       </c>
       <c r="H348" t="n">
-        <v>2.94821353665214</v>
+        <v>2.61021801855465</v>
       </c>
       <c r="I348" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J348" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L348" t="s">
-        <v>17</v>
+        <v>406</v>
       </c>
       <c r="M348" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B349" t="s">
         <v>24</v>
       </c>
       <c r="C349" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D349" t="s">
         <v>21</v>
       </c>
       <c r="E349" t="n">
-        <v>1</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="F349" t="n">
-        <v>0.956521739130435</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="G349" t="n">
-        <v>0.992100441492916</v>
+        <v>0.98052757780659</v>
       </c>
       <c r="H349" t="n">
-        <v>2.94862218062335</v>
+        <v>2.41275264174521</v>
       </c>
       <c r="I349" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J349" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K349" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L349" t="s">
-        <v>17</v>
+        <v>407</v>
       </c>
       <c r="M349" t="s">
-        <v>197</v>
+        <v>266</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B350" t="s">
         <v>24</v>
       </c>
       <c r="C350" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D350" t="s">
         <v>16</v>
       </c>
       <c r="E350" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F350" t="n">
-        <v>0.652173913043478</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G350" t="n">
-        <v>0.976296268907424</v>
+        <v>0.991393511860473</v>
       </c>
       <c r="H350" t="n">
-        <v>2.51082312312737</v>
+        <v>2.94791525099091</v>
       </c>
       <c r="I350" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J350" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L350" t="s">
-        <v>404</v>
+        <v>17</v>
       </c>
       <c r="M350" t="s">
-        <v>405</v>
+        <v>197</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B351" t="s">
         <v>24</v>
       </c>
       <c r="C351" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D351" t="s">
         <v>18</v>
       </c>
       <c r="E351" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F351" t="n">
-        <v>0.652173913043478</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G351" t="n">
-        <v>0.977360398600061</v>
+        <v>0.993241595299258</v>
       </c>
       <c r="H351" t="n">
-        <v>2.51188725282001</v>
+        <v>2.86280681269056</v>
       </c>
       <c r="I351" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J351" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L351" t="s">
-        <v>406</v>
+        <v>17</v>
       </c>
       <c r="M351" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B352" t="s">
         <v>24</v>
       </c>
       <c r="C352" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D352" t="s">
         <v>19</v>
       </c>
       <c r="E352" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F352" t="n">
-        <v>0.652173913043478</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G352" t="n">
-        <v>0.97657398148873</v>
+        <v>0.992924058046528</v>
       </c>
       <c r="H352" t="n">
-        <v>2.51110083570868</v>
+        <v>2.86248927543783</v>
       </c>
       <c r="I352" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J352" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L352" t="s">
-        <v>407</v>
+        <v>17</v>
       </c>
       <c r="M352" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B353" t="s">
         <v>24</v>
       </c>
       <c r="C353" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D353" t="s">
         <v>20</v>
       </c>
       <c r="E353" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F353" t="n">
-        <v>0.652173913043478</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G353" t="n">
-        <v>0.976936325427171</v>
+        <v>0.991691797521705</v>
       </c>
       <c r="H353" t="n">
-        <v>2.51146317964712</v>
+        <v>2.94821353665214</v>
       </c>
       <c r="I353" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J353" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L353" t="s">
-        <v>408</v>
+        <v>17</v>
       </c>
       <c r="M353" t="s">
-        <v>405</v>
+        <v>197</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B354" t="s">
         <v>24</v>
       </c>
       <c r="C354" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D354" t="s">
         <v>21</v>
       </c>
       <c r="E354" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="F354" t="n">
-        <v>0.652173913043478</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G354" t="n">
-        <v>0.968893405053583</v>
+        <v>0.992100441492916</v>
       </c>
       <c r="H354" t="n">
-        <v>2.55856731809706</v>
+        <v>2.94862218062335</v>
       </c>
       <c r="I354" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J354" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L354" t="s">
-        <v>409</v>
+        <v>17</v>
       </c>
       <c r="M354" t="s">
-        <v>405</v>
+        <v>197</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B355" t="s">
         <v>24</v>
       </c>
       <c r="C355" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D355" t="s">
         <v>16</v>
       </c>
       <c r="E355" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F355" t="n">
-        <v>0.956521739130435</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G355" t="n">
-        <v>0.990597277201894</v>
+        <v>0.976296268907424</v>
       </c>
       <c r="H355" t="n">
-        <v>2.94711901633233</v>
+        <v>2.51082312312737</v>
       </c>
       <c r="I355" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J355" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L355" t="s">
-        <v>17</v>
+        <v>410</v>
       </c>
       <c r="M355" t="s">
-        <v>197</v>
+        <v>411</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B356" t="s">
         <v>24</v>
       </c>
       <c r="C356" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D356" t="s">
         <v>18</v>
       </c>
       <c r="E356" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F356" t="n">
-        <v>0.956521739130435</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G356" t="n">
-        <v>0.991046107218368</v>
+        <v>0.977360398600061</v>
       </c>
       <c r="H356" t="n">
-        <v>2.9475678463488</v>
+        <v>2.51188725282001</v>
       </c>
       <c r="I356" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J356" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L356" t="s">
-        <v>17</v>
+        <v>412</v>
       </c>
       <c r="M356" t="s">
-        <v>197</v>
+        <v>411</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B357" t="s">
         <v>24</v>
       </c>
       <c r="C357" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D357" t="s">
         <v>19</v>
       </c>
       <c r="E357" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F357" t="n">
-        <v>0.91304347826087</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G357" t="n">
-        <v>0.991403655417583</v>
+        <v>0.97657398148873</v>
       </c>
       <c r="H357" t="n">
-        <v>2.90444713367845</v>
+        <v>2.51110083570868</v>
       </c>
       <c r="I357" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J357" t="n">
+        <v>8</v>
+      </c>
+      <c r="K357" t="n">
         <v>2</v>
       </c>
-      <c r="K357" t="n">
-        <v>0</v>
-      </c>
       <c r="L357" t="s">
-        <v>17</v>
+        <v>413</v>
       </c>
       <c r="M357" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B358" t="s">
         <v>24</v>
       </c>
       <c r="C358" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D358" t="s">
         <v>20</v>
       </c>
       <c r="E358" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F358" t="n">
-        <v>0.91304347826087</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G358" t="n">
-        <v>0.99099454526807</v>
+        <v>0.976936325427171</v>
       </c>
       <c r="H358" t="n">
-        <v>2.90403802352894</v>
+        <v>2.51146317964712</v>
       </c>
       <c r="I358" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J358" t="n">
+        <v>8</v>
+      </c>
+      <c r="K358" t="n">
         <v>2</v>
       </c>
-      <c r="K358" t="n">
-        <v>0</v>
-      </c>
       <c r="L358" t="s">
-        <v>17</v>
+        <v>414</v>
       </c>
       <c r="M358" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B359" t="s">
         <v>24</v>
       </c>
       <c r="C359" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D359" t="s">
         <v>21</v>
       </c>
       <c r="E359" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="F359" t="n">
-        <v>0.956521739130435</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G359" t="n">
-        <v>0.991133602097193</v>
+        <v>0.968893405053583</v>
       </c>
       <c r="H359" t="n">
-        <v>2.94765534122763</v>
+        <v>2.55856731809706</v>
       </c>
       <c r="I359" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J359" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L359" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
       <c r="M359" t="s">
-        <v>197</v>
+        <v>411</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B360" t="s">
         <v>24</v>
       </c>
       <c r="C360" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D360" t="s">
         <v>16</v>
       </c>
       <c r="E360" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F360" t="n">
-        <v>0.695652173913043</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G360" t="n">
-        <v>0.976487109891372</v>
+        <v>0.990597277201894</v>
       </c>
       <c r="H360" t="n">
-        <v>2.61331575439265</v>
+        <v>2.94711901633233</v>
       </c>
       <c r="I360" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J360" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L360" t="s">
-        <v>411</v>
+        <v>17</v>
       </c>
       <c r="M360" t="s">
-        <v>412</v>
+        <v>197</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B361" t="s">
         <v>24</v>
       </c>
       <c r="C361" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D361" t="s">
         <v>18</v>
       </c>
       <c r="E361" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="F361" t="n">
-        <v>0.652173913043478</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G361" t="n">
-        <v>0.9779183688069</v>
+        <v>0.991046107218368</v>
       </c>
       <c r="H361" t="n">
-        <v>2.56759228185038</v>
+        <v>2.9475678463488</v>
       </c>
       <c r="I361" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J361" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L361" t="s">
-        <v>413</v>
+        <v>17</v>
       </c>
       <c r="M361" t="s">
-        <v>405</v>
+        <v>197</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B362" t="s">
         <v>24</v>
       </c>
       <c r="C362" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D362" t="s">
         <v>19</v>
       </c>
       <c r="E362" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F362" t="n">
-        <v>0.695652173913043</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G362" t="n">
-        <v>0.975483357083556</v>
+        <v>0.991403655417583</v>
       </c>
       <c r="H362" t="n">
-        <v>2.61231200158483</v>
+        <v>2.90444713367845</v>
       </c>
       <c r="I362" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J362" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L362" t="s">
-        <v>414</v>
+        <v>17</v>
       </c>
       <c r="M362" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B363" t="s">
         <v>24</v>
       </c>
       <c r="C363" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D363" t="s">
         <v>20</v>
       </c>
       <c r="E363" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F363" t="n">
-        <v>0.695652173913043</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G363" t="n">
-        <v>0.976351562118241</v>
+        <v>0.99099454526807</v>
       </c>
       <c r="H363" t="n">
-        <v>2.61318020661952</v>
+        <v>2.90403802352894</v>
       </c>
       <c r="I363" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J363" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L363" t="s">
-        <v>409</v>
+        <v>17</v>
       </c>
       <c r="M363" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B364" t="s">
         <v>24</v>
       </c>
       <c r="C364" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D364" t="s">
         <v>21</v>
       </c>
       <c r="E364" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="F364" t="n">
-        <v>0.652173913043478</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G364" t="n">
-        <v>0.973421610883566</v>
+        <v>0.991133602097193</v>
       </c>
       <c r="H364" t="n">
-        <v>2.56309552392704</v>
+        <v>2.94765534122763</v>
       </c>
       <c r="I364" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J364" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L364" t="s">
-        <v>415</v>
+        <v>17</v>
       </c>
       <c r="M364" t="s">
-        <v>405</v>
+        <v>197</v>
       </c>
     </row>
     <row r="365">
@@ -16643,28 +16661,28 @@
         <v>24</v>
       </c>
       <c r="C365" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D365" t="s">
         <v>16</v>
       </c>
       <c r="E365" t="n">
-        <v>0.954545454545455</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F365" t="n">
-        <v>0.91304347826087</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G365" t="n">
-        <v>0.993845091788137</v>
+        <v>0.976487109891372</v>
       </c>
       <c r="H365" t="n">
-        <v>2.86143402459446</v>
+        <v>2.61331575439265</v>
       </c>
       <c r="I365" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J365" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K365" t="n">
         <v>1</v>
@@ -16673,7 +16691,7 @@
         <v>417</v>
       </c>
       <c r="M365" t="s">
-        <v>229</v>
+        <v>418</v>
       </c>
     </row>
     <row r="366">
@@ -16684,37 +16702,37 @@
         <v>24</v>
       </c>
       <c r="C366" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D366" t="s">
         <v>18</v>
       </c>
       <c r="E366" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="F366" t="n">
-        <v>0.91304347826087</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G366" t="n">
-        <v>0.993879546234839</v>
+        <v>0.9779183688069</v>
       </c>
       <c r="H366" t="n">
-        <v>2.90692302449571</v>
+        <v>2.56759228185038</v>
       </c>
       <c r="I366" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J366" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L366" t="s">
-        <v>17</v>
+        <v>419</v>
       </c>
       <c r="M366" t="s">
-        <v>229</v>
+        <v>411</v>
       </c>
     </row>
     <row r="367">
@@ -16725,37 +16743,37 @@
         <v>24</v>
       </c>
       <c r="C367" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D367" t="s">
         <v>19</v>
       </c>
       <c r="E367" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F367" t="n">
-        <v>0.869565217391304</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G367" t="n">
-        <v>0.993201272707718</v>
+        <v>0.975483357083556</v>
       </c>
       <c r="H367" t="n">
-        <v>2.86276649009902</v>
+        <v>2.61231200158483</v>
       </c>
       <c r="I367" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J367" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L367" t="s">
-        <v>17</v>
+        <v>420</v>
       </c>
       <c r="M367" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
     </row>
     <row r="368">
@@ -16766,37 +16784,37 @@
         <v>24</v>
       </c>
       <c r="C368" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D368" t="s">
         <v>20</v>
       </c>
       <c r="E368" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F368" t="n">
-        <v>0.869565217391304</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G368" t="n">
-        <v>0.993087666116515</v>
+        <v>0.976351562118241</v>
       </c>
       <c r="H368" t="n">
-        <v>2.86265288350782</v>
+        <v>2.61318020661952</v>
       </c>
       <c r="I368" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J368" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L368" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
       <c r="M368" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
     </row>
     <row r="369">
@@ -16807,1472 +16825,1472 @@
         <v>24</v>
       </c>
       <c r="C369" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D369" t="s">
         <v>21</v>
       </c>
       <c r="E369" t="n">
-        <v>0.952380952380952</v>
+        <v>0.9375</v>
       </c>
       <c r="F369" t="n">
-        <v>0.869565217391304</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G369" t="n">
-        <v>0.99308143289372</v>
+        <v>0.973421610883566</v>
       </c>
       <c r="H369" t="n">
-        <v>2.81502760266598</v>
+        <v>2.56309552392704</v>
       </c>
       <c r="I369" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J369" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K369" t="n">
         <v>1</v>
       </c>
       <c r="L369" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M369" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B370" t="s">
         <v>24</v>
       </c>
       <c r="C370" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D370" t="s">
         <v>16</v>
       </c>
       <c r="E370" t="n">
-        <v>0.882352941176471</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="F370" t="n">
-        <v>0.652173913043478</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G370" t="n">
-        <v>0.981401992201469</v>
+        <v>0.993845091788137</v>
       </c>
       <c r="H370" t="n">
-        <v>2.51592884642142</v>
+        <v>2.86143402459446</v>
       </c>
       <c r="I370" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J370" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L370" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="M370" t="s">
-        <v>405</v>
+        <v>229</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B371" t="s">
         <v>24</v>
       </c>
       <c r="C371" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D371" t="s">
         <v>18</v>
       </c>
       <c r="E371" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="F371" t="n">
-        <v>0.652173913043478</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G371" t="n">
-        <v>0.97771723458661</v>
+        <v>0.993879546234839</v>
       </c>
       <c r="H371" t="n">
-        <v>2.56739114763009</v>
+        <v>2.90692302449571</v>
       </c>
       <c r="I371" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J371" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L371" t="s">
-        <v>409</v>
+        <v>17</v>
       </c>
       <c r="M371" t="s">
-        <v>405</v>
+        <v>229</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B372" t="s">
         <v>24</v>
       </c>
       <c r="C372" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D372" t="s">
         <v>19</v>
       </c>
       <c r="E372" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="F372" t="n">
-        <v>0.652173913043478</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G372" t="n">
-        <v>0.976164707491762</v>
+        <v>0.993201272707718</v>
       </c>
       <c r="H372" t="n">
-        <v>2.56583862053524</v>
+        <v>2.86276649009902</v>
       </c>
       <c r="I372" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J372" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L372" t="s">
-        <v>420</v>
+        <v>17</v>
       </c>
       <c r="M372" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B373" t="s">
         <v>24</v>
       </c>
       <c r="C373" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D373" t="s">
         <v>20</v>
       </c>
       <c r="E373" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F373" t="n">
-        <v>0.695652173913043</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G373" t="n">
-        <v>0.977253537901482</v>
+        <v>0.993087666116515</v>
       </c>
       <c r="H373" t="n">
-        <v>2.61408218240276</v>
+        <v>2.86265288350782</v>
       </c>
       <c r="I373" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J373" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L373" t="s">
-        <v>420</v>
+        <v>17</v>
       </c>
       <c r="M373" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B374" t="s">
         <v>24</v>
       </c>
       <c r="C374" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D374" t="s">
         <v>21</v>
       </c>
       <c r="E374" t="n">
-        <v>0.894736842105263</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="F374" t="n">
-        <v>0.739130434782609</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G374" t="n">
-        <v>0.976471104714099</v>
+        <v>0.99308143289372</v>
       </c>
       <c r="H374" t="n">
-        <v>2.61033838160197</v>
+        <v>2.81502760266598</v>
       </c>
       <c r="I374" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J374" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L374" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="M374" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B375" t="s">
         <v>24</v>
       </c>
       <c r="C375" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D375" t="s">
         <v>16</v>
       </c>
       <c r="E375" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F375" t="n">
-        <v>0.826086956521739</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G375" t="n">
-        <v>0.992742397844905</v>
+        <v>0.981401992201469</v>
       </c>
       <c r="H375" t="n">
-        <v>2.81882935436664</v>
+        <v>2.51592884642142</v>
       </c>
       <c r="I375" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J375" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L375" t="s">
-        <v>17</v>
+        <v>425</v>
       </c>
       <c r="M375" t="s">
-        <v>301</v>
+        <v>411</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B376" t="s">
         <v>24</v>
       </c>
       <c r="C376" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D376" t="s">
         <v>18</v>
       </c>
       <c r="E376" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="F376" t="n">
-        <v>0.91304347826087</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G376" t="n">
-        <v>0.991839600464385</v>
+        <v>0.97771723458661</v>
       </c>
       <c r="H376" t="n">
-        <v>2.90488307872525</v>
+        <v>2.56739114763009</v>
       </c>
       <c r="I376" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J376" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L376" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
       <c r="M376" t="s">
-        <v>213</v>
+        <v>411</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B377" t="s">
         <v>24</v>
       </c>
       <c r="C377" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D377" t="s">
         <v>19</v>
       </c>
       <c r="E377" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="F377" t="n">
-        <v>0.869565217391304</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G377" t="n">
-        <v>0.99110061118696</v>
+        <v>0.976164707491762</v>
       </c>
       <c r="H377" t="n">
-        <v>2.86066582857826</v>
+        <v>2.56583862053524</v>
       </c>
       <c r="I377" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J377" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L377" t="s">
-        <v>17</v>
+        <v>426</v>
       </c>
       <c r="M377" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B378" t="s">
         <v>24</v>
       </c>
       <c r="C378" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D378" t="s">
         <v>20</v>
       </c>
       <c r="E378" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F378" t="n">
-        <v>0.869565217391304</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G378" t="n">
-        <v>0.992546768095352</v>
+        <v>0.977253537901482</v>
       </c>
       <c r="H378" t="n">
-        <v>2.86211198548666</v>
+        <v>2.61408218240276</v>
       </c>
       <c r="I378" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J378" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L378" t="s">
-        <v>17</v>
+        <v>426</v>
       </c>
       <c r="M378" t="s">
-        <v>303</v>
+        <v>418</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B379" t="s">
         <v>24</v>
       </c>
       <c r="C379" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D379" t="s">
         <v>21</v>
       </c>
       <c r="E379" t="n">
-        <v>1</v>
+        <v>0.894736842105263</v>
       </c>
       <c r="F379" t="n">
-        <v>0.826086956521739</v>
+        <v>0.739130434782609</v>
       </c>
       <c r="G379" t="n">
-        <v>0.992585477145439</v>
+        <v>0.976471104714099</v>
       </c>
       <c r="H379" t="n">
-        <v>2.81867243366718</v>
+        <v>2.61033838160197</v>
       </c>
       <c r="I379" t="n">
         <v>19</v>
       </c>
       <c r="J379" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L379" t="s">
-        <v>17</v>
+        <v>427</v>
       </c>
       <c r="M379" t="s">
-        <v>301</v>
+        <v>428</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B380" t="s">
         <v>24</v>
       </c>
       <c r="C380" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D380" t="s">
         <v>16</v>
       </c>
       <c r="E380" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="F380" t="n">
-        <v>0.652173913043478</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="G380" t="n">
-        <v>0.973801747856345</v>
+        <v>0.992742397844905</v>
       </c>
       <c r="H380" t="n">
-        <v>2.56347566089982</v>
+        <v>2.81882935436664</v>
       </c>
       <c r="I380" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J380" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L380" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="M380" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B381" t="s">
         <v>24</v>
       </c>
       <c r="C381" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D381" t="s">
         <v>18</v>
       </c>
       <c r="E381" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="F381" t="n">
-        <v>0.652173913043478</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G381" t="n">
-        <v>0.976192100104706</v>
+        <v>0.991839600464385</v>
       </c>
       <c r="H381" t="n">
-        <v>2.56586601314818</v>
+        <v>2.90488307872525</v>
       </c>
       <c r="I381" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J381" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L381" t="s">
-        <v>425</v>
+        <v>17</v>
       </c>
       <c r="M381" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B382" t="s">
         <v>24</v>
       </c>
       <c r="C382" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D382" t="s">
         <v>19</v>
       </c>
       <c r="E382" t="n">
-        <v>0.888888888888889</v>
+        <v>1</v>
       </c>
       <c r="F382" t="n">
-        <v>0.695652173913043</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G382" t="n">
-        <v>0.977766562995692</v>
+        <v>0.99110061118696</v>
       </c>
       <c r="H382" t="n">
-        <v>2.56230762579762</v>
+        <v>2.86066582857826</v>
       </c>
       <c r="I382" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J382" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L382" t="s">
-        <v>426</v>
+        <v>17</v>
       </c>
       <c r="M382" t="s">
-        <v>270</v>
+        <v>430</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B383" t="s">
         <v>24</v>
       </c>
       <c r="C383" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D383" t="s">
         <v>20</v>
       </c>
       <c r="E383" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="F383" t="n">
-        <v>0.652173913043478</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G383" t="n">
-        <v>0.975207764381852</v>
+        <v>0.992546768095352</v>
       </c>
       <c r="H383" t="n">
-        <v>2.56488167742533</v>
+        <v>2.86211198548666</v>
       </c>
       <c r="I383" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J383" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L383" t="s">
-        <v>427</v>
+        <v>17</v>
       </c>
       <c r="M383" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B384" t="s">
         <v>24</v>
       </c>
       <c r="C384" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D384" t="s">
         <v>21</v>
       </c>
       <c r="E384" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="F384" t="n">
-        <v>0.652173913043478</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="G384" t="n">
-        <v>0.973492228280152</v>
+        <v>0.992585477145439</v>
       </c>
       <c r="H384" t="n">
-        <v>2.56316614132363</v>
+        <v>2.81867243366718</v>
       </c>
       <c r="I384" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J384" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L384" t="s">
-        <v>350</v>
+        <v>17</v>
       </c>
       <c r="M384" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B385" t="s">
         <v>24</v>
       </c>
       <c r="C385" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D385" t="s">
         <v>16</v>
       </c>
       <c r="E385" t="n">
-        <v>0.954545454545455</v>
+        <v>0.9375</v>
       </c>
       <c r="F385" t="n">
-        <v>0.91304347826087</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G385" t="n">
-        <v>0.989712271605722</v>
+        <v>0.973801747856345</v>
       </c>
       <c r="H385" t="n">
-        <v>2.85730120441205</v>
+        <v>2.56347566089982</v>
       </c>
       <c r="I385" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J385" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K385" t="n">
         <v>1</v>
       </c>
       <c r="L385" t="s">
-        <v>429</v>
+        <v>290</v>
       </c>
       <c r="M385" t="s">
-        <v>388</v>
+        <v>271</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B386" t="s">
         <v>24</v>
       </c>
       <c r="C386" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D386" t="s">
         <v>18</v>
       </c>
       <c r="E386" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="F386" t="n">
-        <v>0.91304347826087</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G386" t="n">
-        <v>0.9921090625084</v>
+        <v>0.976192100104706</v>
       </c>
       <c r="H386" t="n">
-        <v>2.90515254076927</v>
+        <v>2.56586601314818</v>
       </c>
       <c r="I386" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J386" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L386" t="s">
-        <v>17</v>
+        <v>431</v>
       </c>
       <c r="M386" t="s">
-        <v>380</v>
+        <v>271</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B387" t="s">
         <v>24</v>
       </c>
       <c r="C387" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D387" t="s">
         <v>19</v>
       </c>
       <c r="E387" t="n">
-        <v>1</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="F387" t="n">
-        <v>0.956521739130435</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G387" t="n">
-        <v>0.991243675301412</v>
+        <v>0.977766562995692</v>
       </c>
       <c r="H387" t="n">
-        <v>2.94776541443185</v>
+        <v>2.56230762579762</v>
       </c>
       <c r="I387" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J387" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L387" t="s">
-        <v>17</v>
+        <v>432</v>
       </c>
       <c r="M387" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B388" t="s">
         <v>24</v>
       </c>
       <c r="C388" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D388" t="s">
         <v>20</v>
       </c>
       <c r="E388" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="F388" t="n">
-        <v>0.91304347826087</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G388" t="n">
-        <v>0.991714239057082</v>
+        <v>0.975207764381852</v>
       </c>
       <c r="H388" t="n">
-        <v>2.90475771731795</v>
+        <v>2.56488167742533</v>
       </c>
       <c r="I388" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J388" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L388" t="s">
-        <v>17</v>
+        <v>433</v>
       </c>
       <c r="M388" t="s">
-        <v>380</v>
+        <v>271</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B389" t="s">
         <v>24</v>
       </c>
       <c r="C389" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D389" t="s">
         <v>21</v>
       </c>
       <c r="E389" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="F389" t="n">
-        <v>0.869565217391304</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G389" t="n">
-        <v>0.992224767330115</v>
+        <v>0.973492228280152</v>
       </c>
       <c r="H389" t="n">
-        <v>2.86178998472142</v>
+        <v>2.56316614132363</v>
       </c>
       <c r="I389" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J389" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L389" t="s">
-        <v>17</v>
+        <v>350</v>
       </c>
       <c r="M389" t="s">
-        <v>387</v>
+        <v>271</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B390" t="s">
         <v>24</v>
       </c>
       <c r="C390" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D390" t="s">
         <v>16</v>
       </c>
       <c r="E390" t="n">
-        <v>0.941176470588235</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="F390" t="n">
-        <v>0.695652173913043</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G390" t="n">
-        <v>0.974575049675258</v>
+        <v>0.989712271605722</v>
       </c>
       <c r="H390" t="n">
-        <v>2.61140369417654</v>
+        <v>2.85730120441205</v>
       </c>
       <c r="I390" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J390" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K390" t="n">
         <v>1</v>
       </c>
       <c r="L390" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="M390" t="s">
-        <v>270</v>
+        <v>394</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B391" t="s">
         <v>24</v>
       </c>
       <c r="C391" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D391" t="s">
         <v>18</v>
       </c>
       <c r="E391" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F391" t="n">
-        <v>0.695652173913043</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G391" t="n">
-        <v>0.974895526808934</v>
+        <v>0.9921090625084</v>
       </c>
       <c r="H391" t="n">
-        <v>2.61172417131021</v>
+        <v>2.90515254076927</v>
       </c>
       <c r="I391" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J391" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L391" t="s">
-        <v>288</v>
+        <v>17</v>
       </c>
       <c r="M391" t="s">
-        <v>270</v>
+        <v>386</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B392" t="s">
         <v>24</v>
       </c>
       <c r="C392" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D392" t="s">
         <v>19</v>
       </c>
       <c r="E392" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="F392" t="n">
-        <v>0.608695652173913</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G392" t="n">
-        <v>0.975693686281206</v>
+        <v>0.991243675301412</v>
       </c>
       <c r="H392" t="n">
-        <v>2.45938933845512</v>
+        <v>2.94776541443185</v>
       </c>
       <c r="I392" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J392" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L392" t="s">
-        <v>431</v>
+        <v>17</v>
       </c>
       <c r="M392" t="s">
-        <v>394</v>
+        <v>197</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B393" t="s">
         <v>24</v>
       </c>
       <c r="C393" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D393" t="s">
         <v>20</v>
       </c>
       <c r="E393" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F393" t="n">
-        <v>0.695652173913043</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G393" t="n">
-        <v>0.973040799397876</v>
+        <v>0.991714239057082</v>
       </c>
       <c r="H393" t="n">
-        <v>2.60986944389915</v>
+        <v>2.90475771731795</v>
       </c>
       <c r="I393" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J393" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L393" t="s">
-        <v>385</v>
+        <v>17</v>
       </c>
       <c r="M393" t="s">
-        <v>270</v>
+        <v>386</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B394" t="s">
         <v>24</v>
       </c>
       <c r="C394" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D394" t="s">
         <v>21</v>
       </c>
       <c r="E394" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="F394" t="n">
-        <v>0.608695652173913</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G394" t="n">
-        <v>0.973098819962078</v>
+        <v>0.992224767330115</v>
       </c>
       <c r="H394" t="n">
-        <v>2.45679447213599</v>
+        <v>2.86178998472142</v>
       </c>
       <c r="I394" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J394" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L394" t="s">
-        <v>432</v>
+        <v>17</v>
       </c>
       <c r="M394" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B395" t="s">
         <v>24</v>
       </c>
       <c r="C395" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D395" t="s">
         <v>16</v>
       </c>
       <c r="E395" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F395" t="n">
-        <v>0.869565217391304</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G395" t="n">
-        <v>0.992762970073201</v>
+        <v>0.974575049675258</v>
       </c>
       <c r="H395" t="n">
-        <v>2.86232818746451</v>
+        <v>2.61140369417654</v>
       </c>
       <c r="I395" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J395" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L395" t="s">
-        <v>17</v>
+        <v>436</v>
       </c>
       <c r="M395" t="s">
-        <v>387</v>
+        <v>270</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B396" t="s">
         <v>24</v>
       </c>
       <c r="C396" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D396" t="s">
         <v>18</v>
       </c>
       <c r="E396" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F396" t="n">
-        <v>0.91304347826087</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G396" t="n">
-        <v>0.990799635833281</v>
+        <v>0.974895526808934</v>
       </c>
       <c r="H396" t="n">
-        <v>2.90384311409415</v>
+        <v>2.61172417131021</v>
       </c>
       <c r="I396" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J396" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L396" t="s">
-        <v>17</v>
+        <v>288</v>
       </c>
       <c r="M396" t="s">
-        <v>388</v>
+        <v>270</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B397" t="s">
         <v>24</v>
       </c>
       <c r="C397" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D397" t="s">
         <v>19</v>
       </c>
       <c r="E397" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="F397" t="n">
-        <v>0.91304347826087</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="G397" t="n">
-        <v>0.990599326802663</v>
+        <v>0.975693686281206</v>
       </c>
       <c r="H397" t="n">
-        <v>2.90364280506353</v>
+        <v>2.45938933845512</v>
       </c>
       <c r="I397" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J397" t="n">
+        <v>9</v>
+      </c>
+      <c r="K397" t="n">
         <v>2</v>
       </c>
-      <c r="K397" t="n">
-        <v>0</v>
-      </c>
       <c r="L397" t="s">
-        <v>17</v>
+        <v>437</v>
       </c>
       <c r="M397" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B398" t="s">
         <v>24</v>
       </c>
       <c r="C398" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D398" t="s">
         <v>20</v>
       </c>
       <c r="E398" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F398" t="n">
-        <v>0.91304347826087</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G398" t="n">
-        <v>0.991061187225022</v>
+        <v>0.973040799397876</v>
       </c>
       <c r="H398" t="n">
-        <v>2.90410466548589</v>
+        <v>2.60986944389915</v>
       </c>
       <c r="I398" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J398" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L398" t="s">
-        <v>17</v>
+        <v>391</v>
       </c>
       <c r="M398" t="s">
-        <v>388</v>
+        <v>270</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B399" t="s">
         <v>24</v>
       </c>
       <c r="C399" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D399" t="s">
         <v>21</v>
       </c>
       <c r="E399" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="F399" t="n">
-        <v>0.956521739130435</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="G399" t="n">
-        <v>0.990381361388397</v>
+        <v>0.973098819962078</v>
       </c>
       <c r="H399" t="n">
-        <v>2.94690310051883</v>
+        <v>2.45679447213599</v>
       </c>
       <c r="I399" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J399" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L399" t="s">
-        <v>17</v>
+        <v>438</v>
       </c>
       <c r="M399" t="s">
-        <v>197</v>
+        <v>400</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B400" t="s">
         <v>24</v>
       </c>
       <c r="C400" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D400" t="s">
         <v>16</v>
       </c>
       <c r="E400" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F400" t="n">
-        <v>0.652173913043478</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G400" t="n">
-        <v>0.975101456004009</v>
+        <v>0.992762970073201</v>
       </c>
       <c r="H400" t="n">
-        <v>2.50962831022396</v>
+        <v>2.86232818746451</v>
       </c>
       <c r="I400" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J400" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L400" t="s">
-        <v>434</v>
+        <v>17</v>
       </c>
       <c r="M400" t="s">
-        <v>271</v>
+        <v>393</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B401" t="s">
         <v>24</v>
       </c>
       <c r="C401" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D401" t="s">
         <v>18</v>
       </c>
       <c r="E401" t="n">
-        <v>0.8125</v>
+        <v>1</v>
       </c>
       <c r="F401" t="n">
-        <v>0.565217391304348</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G401" t="n">
-        <v>0.983567309707861</v>
+        <v>0.990799635833281</v>
       </c>
       <c r="H401" t="n">
-        <v>2.36128470101221</v>
+        <v>2.90384311409415</v>
       </c>
       <c r="I401" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J401" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L401" t="s">
-        <v>435</v>
+        <v>17</v>
       </c>
       <c r="M401" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B402" t="s">
         <v>24</v>
       </c>
       <c r="C402" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D402" t="s">
         <v>19</v>
       </c>
       <c r="E402" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F402" t="n">
-        <v>0.652173913043478</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G402" t="n">
-        <v>0.974552868569169</v>
+        <v>0.990599326802663</v>
       </c>
       <c r="H402" t="n">
-        <v>2.50907972278912</v>
+        <v>2.90364280506353</v>
       </c>
       <c r="I402" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J402" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L402" t="s">
-        <v>436</v>
+        <v>17</v>
       </c>
       <c r="M402" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B403" t="s">
         <v>24</v>
       </c>
       <c r="C403" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D403" t="s">
         <v>20</v>
       </c>
       <c r="E403" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F403" t="n">
-        <v>0.695652173913043</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G403" t="n">
-        <v>0.972477245883045</v>
+        <v>0.991061187225022</v>
       </c>
       <c r="H403" t="n">
-        <v>2.60930589038432</v>
+        <v>2.90410466548589</v>
       </c>
       <c r="I403" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J403" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L403" t="s">
-        <v>437</v>
+        <v>17</v>
       </c>
       <c r="M403" t="s">
-        <v>270</v>
+        <v>394</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B404" t="s">
         <v>24</v>
       </c>
       <c r="C404" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D404" t="s">
         <v>21</v>
       </c>
       <c r="E404" t="n">
-        <v>0.8125</v>
+        <v>1</v>
       </c>
       <c r="F404" t="n">
-        <v>0.565217391304348</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G404" t="n">
-        <v>0.978448046030543</v>
+        <v>0.990381361388397</v>
       </c>
       <c r="H404" t="n">
-        <v>2.35616543733489</v>
+        <v>2.94690310051883</v>
       </c>
       <c r="I404" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J404" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L404" t="s">
-        <v>438</v>
+        <v>17</v>
       </c>
       <c r="M404" t="s">
-        <v>384</v>
+        <v>197</v>
       </c>
     </row>
     <row r="405">
@@ -18283,37 +18301,37 @@
         <v>24</v>
       </c>
       <c r="C405" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D405" t="s">
         <v>16</v>
       </c>
       <c r="E405" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F405" t="n">
-        <v>0.91304347826087</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G405" t="n">
-        <v>0.989827856335905</v>
+        <v>0.975101456004009</v>
       </c>
       <c r="H405" t="n">
-        <v>2.90287133459677</v>
+        <v>2.50962831022396</v>
       </c>
       <c r="I405" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J405" t="n">
+        <v>8</v>
+      </c>
+      <c r="K405" t="n">
         <v>2</v>
       </c>
-      <c r="K405" t="n">
-        <v>0</v>
-      </c>
       <c r="L405" t="s">
-        <v>17</v>
+        <v>440</v>
       </c>
       <c r="M405" t="s">
-        <v>388</v>
+        <v>271</v>
       </c>
     </row>
     <row r="406">
@@ -18324,37 +18342,37 @@
         <v>24</v>
       </c>
       <c r="C406" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D406" t="s">
         <v>18</v>
       </c>
       <c r="E406" t="n">
-        <v>1</v>
+        <v>0.8125</v>
       </c>
       <c r="F406" t="n">
-        <v>0.869565217391304</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="G406" t="n">
-        <v>0.992476582657805</v>
+        <v>0.983567309707861</v>
       </c>
       <c r="H406" t="n">
-        <v>2.86204180004911</v>
+        <v>2.36128470101221</v>
       </c>
       <c r="I406" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J406" t="n">
+        <v>10</v>
+      </c>
+      <c r="K406" t="n">
         <v>3</v>
       </c>
-      <c r="K406" t="n">
-        <v>0</v>
-      </c>
       <c r="L406" t="s">
-        <v>17</v>
+        <v>441</v>
       </c>
       <c r="M406" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="407">
@@ -18365,37 +18383,37 @@
         <v>24</v>
       </c>
       <c r="C407" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D407" t="s">
         <v>19</v>
       </c>
       <c r="E407" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F407" t="n">
-        <v>0.91304347826087</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G407" t="n">
-        <v>0.992254890690891</v>
+        <v>0.974552868569169</v>
       </c>
       <c r="H407" t="n">
-        <v>2.90529836895176</v>
+        <v>2.50907972278912</v>
       </c>
       <c r="I407" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J407" t="n">
+        <v>8</v>
+      </c>
+      <c r="K407" t="n">
         <v>2</v>
       </c>
-      <c r="K407" t="n">
-        <v>0</v>
-      </c>
       <c r="L407" t="s">
-        <v>17</v>
+        <v>442</v>
       </c>
       <c r="M407" t="s">
-        <v>380</v>
+        <v>271</v>
       </c>
     </row>
     <row r="408">
@@ -18406,37 +18424,37 @@
         <v>24</v>
       </c>
       <c r="C408" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D408" t="s">
         <v>20</v>
       </c>
       <c r="E408" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F408" t="n">
-        <v>0.91304347826087</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G408" t="n">
-        <v>0.992387753655739</v>
+        <v>0.972477245883045</v>
       </c>
       <c r="H408" t="n">
-        <v>2.90543123191661</v>
+        <v>2.60930589038432</v>
       </c>
       <c r="I408" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J408" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L408" t="s">
-        <v>17</v>
+        <v>443</v>
       </c>
       <c r="M408" t="s">
-        <v>380</v>
+        <v>270</v>
       </c>
     </row>
     <row r="409">
@@ -18447,652 +18465,652 @@
         <v>24</v>
       </c>
       <c r="C409" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D409" t="s">
         <v>21</v>
       </c>
       <c r="E409" t="n">
-        <v>1</v>
+        <v>0.8125</v>
       </c>
       <c r="F409" t="n">
-        <v>0.869565217391304</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="G409" t="n">
-        <v>0.994277498162384</v>
+        <v>0.978448046030543</v>
       </c>
       <c r="H409" t="n">
-        <v>2.86384271555369</v>
+        <v>2.35616543733489</v>
       </c>
       <c r="I409" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J409" t="n">
+        <v>10</v>
+      </c>
+      <c r="K409" t="n">
         <v>3</v>
       </c>
-      <c r="K409" t="n">
-        <v>0</v>
-      </c>
       <c r="L409" t="s">
-        <v>17</v>
+        <v>444</v>
       </c>
       <c r="M409" t="s">
-        <v>440</v>
+        <v>390</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B410" t="s">
         <v>24</v>
       </c>
       <c r="C410" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D410" t="s">
         <v>16</v>
       </c>
       <c r="E410" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F410" t="n">
-        <v>0.652173913043478</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G410" t="n">
-        <v>0.976060819795989</v>
+        <v>0.989827856335905</v>
       </c>
       <c r="H410" t="n">
-        <v>2.51058767401594</v>
+        <v>2.90287133459677</v>
       </c>
       <c r="I410" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J410" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L410" t="s">
-        <v>441</v>
+        <v>17</v>
       </c>
       <c r="M410" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B411" t="s">
         <v>24</v>
       </c>
       <c r="C411" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D411" t="s">
         <v>18</v>
       </c>
       <c r="E411" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F411" t="n">
-        <v>0.652173913043478</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G411" t="n">
-        <v>0.976983468545181</v>
+        <v>0.992476582657805</v>
       </c>
       <c r="H411" t="n">
-        <v>2.51151032276513</v>
+        <v>2.86204180004911</v>
       </c>
       <c r="I411" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J411" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L411" t="s">
-        <v>442</v>
+        <v>17</v>
       </c>
       <c r="M411" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B412" t="s">
         <v>24</v>
       </c>
       <c r="C412" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D412" t="s">
         <v>19</v>
       </c>
       <c r="E412" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F412" t="n">
-        <v>0.652173913043478</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G412" t="n">
-        <v>0.976450200887312</v>
+        <v>0.992254890690891</v>
       </c>
       <c r="H412" t="n">
-        <v>2.51097705510726</v>
+        <v>2.90529836895176</v>
       </c>
       <c r="I412" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J412" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L412" t="s">
-        <v>443</v>
+        <v>17</v>
       </c>
       <c r="M412" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B413" t="s">
         <v>24</v>
       </c>
       <c r="C413" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D413" t="s">
         <v>20</v>
       </c>
       <c r="E413" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F413" t="n">
-        <v>0.652173913043478</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G413" t="n">
-        <v>0.976952063004422</v>
+        <v>0.992387753655739</v>
       </c>
       <c r="H413" t="n">
-        <v>2.51147891722437</v>
+        <v>2.90543123191661</v>
       </c>
       <c r="I413" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J413" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L413" t="s">
-        <v>444</v>
+        <v>17</v>
       </c>
       <c r="M413" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B414" t="s">
         <v>24</v>
       </c>
       <c r="C414" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D414" t="s">
         <v>21</v>
       </c>
       <c r="E414" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="F414" t="n">
-        <v>0.608695652173913</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G414" t="n">
-        <v>0.976684011639814</v>
+        <v>0.994277498162384</v>
       </c>
       <c r="H414" t="n">
-        <v>2.46037966381373</v>
+        <v>2.86384271555369</v>
       </c>
       <c r="I414" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J414" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L414" t="s">
-        <v>445</v>
+        <v>17</v>
       </c>
       <c r="M414" t="s">
-        <v>266</v>
+        <v>446</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B415" t="s">
         <v>24</v>
       </c>
       <c r="C415" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D415" t="s">
         <v>16</v>
       </c>
       <c r="E415" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F415" t="n">
-        <v>0.869565217391304</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G415" t="n">
-        <v>0.992908162677956</v>
+        <v>0.976060819795989</v>
       </c>
       <c r="H415" t="n">
-        <v>2.86247338006926</v>
+        <v>2.51058767401594</v>
       </c>
       <c r="I415" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J415" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L415" t="s">
-        <v>17</v>
+        <v>447</v>
       </c>
       <c r="M415" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B416" t="s">
         <v>24</v>
       </c>
       <c r="C416" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D416" t="s">
         <v>18</v>
       </c>
       <c r="E416" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F416" t="n">
-        <v>0.869565217391304</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G416" t="n">
-        <v>0.992772721200033</v>
+        <v>0.976983468545181</v>
       </c>
       <c r="H416" t="n">
-        <v>2.86233793859134</v>
+        <v>2.51151032276513</v>
       </c>
       <c r="I416" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J416" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L416" t="s">
-        <v>17</v>
+        <v>448</v>
       </c>
       <c r="M416" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B417" t="s">
         <v>24</v>
       </c>
       <c r="C417" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D417" t="s">
         <v>19</v>
       </c>
       <c r="E417" t="n">
-        <v>0.952380952380952</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F417" t="n">
-        <v>0.869565217391304</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G417" t="n">
-        <v>0.992946354161036</v>
+        <v>0.976450200887312</v>
       </c>
       <c r="H417" t="n">
-        <v>2.81489252393329</v>
+        <v>2.51097705510726</v>
       </c>
       <c r="I417" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J417" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K417" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L417" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M417" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B418" t="s">
         <v>24</v>
       </c>
       <c r="C418" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D418" t="s">
         <v>20</v>
       </c>
       <c r="E418" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F418" t="n">
-        <v>0.956521739130435</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G418" t="n">
-        <v>0.991673576254434</v>
+        <v>0.976952063004422</v>
       </c>
       <c r="H418" t="n">
-        <v>2.94819531538487</v>
+        <v>2.51147891722437</v>
       </c>
       <c r="I418" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J418" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L418" t="s">
-        <v>17</v>
+        <v>450</v>
       </c>
       <c r="M418" t="s">
-        <v>197</v>
+        <v>411</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B419" t="s">
         <v>24</v>
       </c>
       <c r="C419" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D419" t="s">
         <v>21</v>
       </c>
       <c r="E419" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="F419" t="n">
-        <v>0.869565217391304</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="G419" t="n">
-        <v>0.992757775238853</v>
+        <v>0.976684011639814</v>
       </c>
       <c r="H419" t="n">
-        <v>2.86232299263016</v>
+        <v>2.46037966381373</v>
       </c>
       <c r="I419" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J419" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L419" t="s">
-        <v>17</v>
+        <v>451</v>
       </c>
       <c r="M419" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B420" t="s">
         <v>24</v>
       </c>
       <c r="C420" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D420" t="s">
         <v>16</v>
       </c>
       <c r="E420" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F420" t="n">
-        <v>0.652173913043478</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G420" t="n">
-        <v>0.980198477684578</v>
+        <v>0.992908162677956</v>
       </c>
       <c r="H420" t="n">
-        <v>2.51472533190453</v>
+        <v>2.86247338006926</v>
       </c>
       <c r="I420" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J420" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L420" t="s">
-        <v>448</v>
+        <v>17</v>
       </c>
       <c r="M420" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B421" t="s">
         <v>24</v>
       </c>
       <c r="C421" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D421" t="s">
         <v>18</v>
       </c>
       <c r="E421" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F421" t="n">
-        <v>0.652173913043478</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G421" t="n">
-        <v>0.980241125608527</v>
+        <v>0.992772721200033</v>
       </c>
       <c r="H421" t="n">
-        <v>2.51476797982848</v>
+        <v>2.86233793859134</v>
       </c>
       <c r="I421" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J421" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L421" t="s">
-        <v>449</v>
+        <v>17</v>
       </c>
       <c r="M421" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B422" t="s">
         <v>24</v>
       </c>
       <c r="C422" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D422" t="s">
         <v>19</v>
       </c>
       <c r="E422" t="n">
-        <v>0.882352941176471</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="F422" t="n">
-        <v>0.652173913043478</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G422" t="n">
-        <v>0.979971962773372</v>
+        <v>0.992946354161036</v>
       </c>
       <c r="H422" t="n">
-        <v>2.51449881699332</v>
+        <v>2.81489252393329</v>
       </c>
       <c r="I422" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J422" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L422" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M422" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B423" t="s">
         <v>24</v>
       </c>
       <c r="C423" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D423" t="s">
         <v>20</v>
       </c>
       <c r="E423" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F423" t="n">
-        <v>0.652173913043478</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G423" t="n">
-        <v>0.980613717319845</v>
+        <v>0.991673576254434</v>
       </c>
       <c r="H423" t="n">
-        <v>2.51514057153979</v>
+        <v>2.94819531538487</v>
       </c>
       <c r="I423" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J423" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L423" t="s">
-        <v>451</v>
+        <v>17</v>
       </c>
       <c r="M423" t="s">
-        <v>405</v>
+        <v>197</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B424" t="s">
         <v>24</v>
       </c>
       <c r="C424" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D424" t="s">
         <v>21</v>
       </c>
       <c r="E424" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="F424" t="n">
-        <v>0.652173913043478</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G424" t="n">
-        <v>0.973985091333978</v>
+        <v>0.992757775238853</v>
       </c>
       <c r="H424" t="n">
-        <v>2.56365900437746</v>
+        <v>2.86232299263016</v>
       </c>
       <c r="I424" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J424" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L424" t="s">
-        <v>350</v>
+        <v>17</v>
       </c>
       <c r="M424" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="425">
@@ -19103,37 +19121,37 @@
         <v>24</v>
       </c>
       <c r="C425" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D425" t="s">
         <v>16</v>
       </c>
       <c r="E425" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F425" t="n">
-        <v>0.956521739130435</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G425" t="n">
-        <v>0.99099485982201</v>
+        <v>0.980198477684578</v>
       </c>
       <c r="H425" t="n">
-        <v>2.94751659895244</v>
+        <v>2.51472533190453</v>
       </c>
       <c r="I425" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J425" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L425" t="s">
-        <v>17</v>
+        <v>454</v>
       </c>
       <c r="M425" t="s">
-        <v>197</v>
+        <v>411</v>
       </c>
     </row>
     <row r="426">
@@ -19144,37 +19162,37 @@
         <v>24</v>
       </c>
       <c r="C426" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D426" t="s">
         <v>18</v>
       </c>
       <c r="E426" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F426" t="n">
-        <v>0.956521739130435</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G426" t="n">
-        <v>0.991938147959048</v>
+        <v>0.980241125608527</v>
       </c>
       <c r="H426" t="n">
-        <v>2.94845988708948</v>
+        <v>2.51476797982848</v>
       </c>
       <c r="I426" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J426" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L426" t="s">
-        <v>17</v>
+        <v>455</v>
       </c>
       <c r="M426" t="s">
-        <v>197</v>
+        <v>411</v>
       </c>
     </row>
     <row r="427">
@@ -19185,37 +19203,37 @@
         <v>24</v>
       </c>
       <c r="C427" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D427" t="s">
         <v>19</v>
       </c>
       <c r="E427" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F427" t="n">
-        <v>0.91304347826087</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G427" t="n">
-        <v>0.992567167650313</v>
+        <v>0.979971962773372</v>
       </c>
       <c r="H427" t="n">
-        <v>2.90561064591118</v>
+        <v>2.51449881699332</v>
       </c>
       <c r="I427" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J427" t="n">
+        <v>8</v>
+      </c>
+      <c r="K427" t="n">
         <v>2</v>
       </c>
-      <c r="K427" t="n">
-        <v>0</v>
-      </c>
       <c r="L427" t="s">
-        <v>17</v>
+        <v>456</v>
       </c>
       <c r="M427" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
     </row>
     <row r="428">
@@ -19226,37 +19244,37 @@
         <v>24</v>
       </c>
       <c r="C428" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D428" t="s">
         <v>20</v>
       </c>
       <c r="E428" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F428" t="n">
-        <v>0.869565217391304</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G428" t="n">
-        <v>0.992745123999817</v>
+        <v>0.980613717319845</v>
       </c>
       <c r="H428" t="n">
-        <v>2.86231034139112</v>
+        <v>2.51514057153979</v>
       </c>
       <c r="I428" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J428" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L428" t="s">
-        <v>17</v>
+        <v>457</v>
       </c>
       <c r="M428" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
     </row>
     <row r="429">
@@ -19267,242 +19285,447 @@
         <v>24</v>
       </c>
       <c r="C429" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D429" t="s">
         <v>21</v>
       </c>
       <c r="E429" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="F429" t="n">
-        <v>0.956521739130435</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G429" t="n">
-        <v>0.991452216580784</v>
+        <v>0.973985091333978</v>
       </c>
       <c r="H429" t="n">
-        <v>2.94797395571122</v>
+        <v>2.56365900437746</v>
       </c>
       <c r="I429" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J429" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L429" t="s">
-        <v>17</v>
+        <v>350</v>
       </c>
       <c r="M429" t="s">
-        <v>197</v>
+        <v>411</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B430" t="s">
         <v>24</v>
       </c>
       <c r="C430" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D430" t="s">
         <v>16</v>
       </c>
       <c r="E430" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F430" t="n">
-        <v>0.652173913043478</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G430" t="n">
-        <v>0.980500497144674</v>
+        <v>0.99099485982201</v>
       </c>
       <c r="H430" t="n">
-        <v>2.51502735136462</v>
+        <v>2.94751659895244</v>
       </c>
       <c r="I430" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J430" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L430" t="s">
-        <v>453</v>
+        <v>17</v>
       </c>
       <c r="M430" t="s">
-        <v>405</v>
+        <v>197</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B431" t="s">
         <v>24</v>
       </c>
       <c r="C431" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D431" t="s">
         <v>18</v>
       </c>
       <c r="E431" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="F431" t="n">
-        <v>0.652173913043478</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G431" t="n">
-        <v>0.977954644864924</v>
+        <v>0.991938147959048</v>
       </c>
       <c r="H431" t="n">
-        <v>2.5676285579084</v>
+        <v>2.94845988708948</v>
       </c>
       <c r="I431" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J431" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L431" t="s">
-        <v>350</v>
+        <v>17</v>
       </c>
       <c r="M431" t="s">
-        <v>405</v>
+        <v>197</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B432" t="s">
         <v>24</v>
       </c>
       <c r="C432" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D432" t="s">
         <v>19</v>
       </c>
       <c r="E432" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F432" t="n">
-        <v>0.652173913043478</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G432" t="n">
-        <v>0.980247374064941</v>
+        <v>0.992567167650313</v>
       </c>
       <c r="H432" t="n">
-        <v>2.51477422828489</v>
+        <v>2.90561064591118</v>
       </c>
       <c r="I432" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J432" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L432" t="s">
-        <v>454</v>
+        <v>17</v>
       </c>
       <c r="M432" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B433" t="s">
         <v>24</v>
       </c>
       <c r="C433" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D433" t="s">
         <v>20</v>
       </c>
       <c r="E433" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F433" t="n">
-        <v>0.695652173913043</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G433" t="n">
-        <v>0.977770957063671</v>
+        <v>0.992745123999817</v>
       </c>
       <c r="H433" t="n">
-        <v>2.61459960156495</v>
+        <v>2.86231034139112</v>
       </c>
       <c r="I433" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J433" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L433" t="s">
-        <v>420</v>
+        <v>17</v>
       </c>
       <c r="M433" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B434" t="s">
         <v>24</v>
       </c>
       <c r="C434" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D434" t="s">
         <v>21</v>
       </c>
       <c r="E434" t="n">
+        <v>1</v>
+      </c>
+      <c r="F434" t="n">
+        <v>0.956521739130435</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.991452216580784</v>
+      </c>
+      <c r="H434" t="n">
+        <v>2.94797395571122</v>
+      </c>
+      <c r="I434" t="n">
+        <v>22</v>
+      </c>
+      <c r="J434" t="n">
+        <v>1</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0</v>
+      </c>
+      <c r="L434" t="s">
+        <v>17</v>
+      </c>
+      <c r="M434" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>458</v>
+      </c>
+      <c r="B435" t="s">
+        <v>24</v>
+      </c>
+      <c r="C435" t="s">
+        <v>82</v>
+      </c>
+      <c r="D435" t="s">
+        <v>16</v>
+      </c>
+      <c r="E435" t="n">
+        <v>0.882352941176471</v>
+      </c>
+      <c r="F435" t="n">
+        <v>0.652173913043478</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.980500497144674</v>
+      </c>
+      <c r="H435" t="n">
+        <v>2.51502735136462</v>
+      </c>
+      <c r="I435" t="n">
+        <v>17</v>
+      </c>
+      <c r="J435" t="n">
+        <v>8</v>
+      </c>
+      <c r="K435" t="n">
+        <v>2</v>
+      </c>
+      <c r="L435" t="s">
+        <v>459</v>
+      </c>
+      <c r="M435" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>458</v>
+      </c>
+      <c r="B436" t="s">
+        <v>24</v>
+      </c>
+      <c r="C436" t="s">
+        <v>82</v>
+      </c>
+      <c r="D436" t="s">
+        <v>18</v>
+      </c>
+      <c r="E436" t="n">
         <v>0.9375</v>
       </c>
-      <c r="F434" t="n">
+      <c r="F436" t="n">
         <v>0.652173913043478</v>
       </c>
-      <c r="G434" t="n">
+      <c r="G436" t="n">
+        <v>0.977954644864924</v>
+      </c>
+      <c r="H436" t="n">
+        <v>2.5676285579084</v>
+      </c>
+      <c r="I436" t="n">
+        <v>16</v>
+      </c>
+      <c r="J436" t="n">
+        <v>8</v>
+      </c>
+      <c r="K436" t="n">
+        <v>1</v>
+      </c>
+      <c r="L436" t="s">
+        <v>350</v>
+      </c>
+      <c r="M436" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>458</v>
+      </c>
+      <c r="B437" t="s">
+        <v>24</v>
+      </c>
+      <c r="C437" t="s">
+        <v>82</v>
+      </c>
+      <c r="D437" t="s">
+        <v>19</v>
+      </c>
+      <c r="E437" t="n">
+        <v>0.882352941176471</v>
+      </c>
+      <c r="F437" t="n">
+        <v>0.652173913043478</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.980247374064941</v>
+      </c>
+      <c r="H437" t="n">
+        <v>2.51477422828489</v>
+      </c>
+      <c r="I437" t="n">
+        <v>17</v>
+      </c>
+      <c r="J437" t="n">
+        <v>8</v>
+      </c>
+      <c r="K437" t="n">
+        <v>2</v>
+      </c>
+      <c r="L437" t="s">
+        <v>460</v>
+      </c>
+      <c r="M437" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>458</v>
+      </c>
+      <c r="B438" t="s">
+        <v>24</v>
+      </c>
+      <c r="C438" t="s">
+        <v>82</v>
+      </c>
+      <c r="D438" t="s">
+        <v>20</v>
+      </c>
+      <c r="E438" t="n">
+        <v>0.941176470588235</v>
+      </c>
+      <c r="F438" t="n">
+        <v>0.695652173913043</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.977770957063671</v>
+      </c>
+      <c r="H438" t="n">
+        <v>2.61459960156495</v>
+      </c>
+      <c r="I438" t="n">
+        <v>17</v>
+      </c>
+      <c r="J438" t="n">
+        <v>7</v>
+      </c>
+      <c r="K438" t="n">
+        <v>1</v>
+      </c>
+      <c r="L438" t="s">
+        <v>426</v>
+      </c>
+      <c r="M438" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>458</v>
+      </c>
+      <c r="B439" t="s">
+        <v>24</v>
+      </c>
+      <c r="C439" t="s">
+        <v>82</v>
+      </c>
+      <c r="D439" t="s">
+        <v>21</v>
+      </c>
+      <c r="E439" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="F439" t="n">
+        <v>0.652173913043478</v>
+      </c>
+      <c r="G439" t="n">
         <v>0.973894954980926</v>
       </c>
-      <c r="H434" t="n">
+      <c r="H439" t="n">
         <v>2.5635688680244</v>
       </c>
-      <c r="I434" t="n">
+      <c r="I439" t="n">
         <v>16</v>
       </c>
-      <c r="J434" t="n">
+      <c r="J439" t="n">
         <v>8</v>
       </c>
-      <c r="K434" t="n">
-        <v>1</v>
-      </c>
-      <c r="L434" t="s">
-        <v>455</v>
-      </c>
-      <c r="M434" t="s">
-        <v>405</v>
+      <c r="K439" t="n">
+        <v>1</v>
+      </c>
+      <c r="L439" t="s">
+        <v>461</v>
+      </c>
+      <c r="M439" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>

--- a/output_for_paper/supplementary_table_s4.xlsx
+++ b/output_for_paper/supplementary_table_s4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="484">
   <si>
     <t xml:space="preserve">Data_set</t>
   </si>
@@ -996,6 +996,33 @@
   </si>
   <si>
     <t xml:space="preserve">SBS6, SBS7a, SBS7b, SBS30, SBS35, SBS39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdp.0 (False Positive) (SBS5 0.941), hdp.3 (False Positive) (SBS7a 0.885), hdp.5 (False Positive) (SBS2 0.901), hdp.12 (False Positive) (SBS7b 0.634), hdp.16 (False Positive) (SBS7b 0.63), hdp.20 (False Positive) (SBS1 0.23), hdp.21 (False Positive) (SBS7b 0.49), hdp.23 (False Positive) (SBS6 0.738), hdp.24 (False Positive) (SBS30 0.579), hdp.25 (False Positive) (SBS5 0.772), hdp.27 (False Positive) (SBS5 0.728), hdp.28 (False Positive) (SBS44 0.797), hdp.29 (False Positive) (SBS38 0.787), hdp.31 (False Positive) (SBS6 0.468), hdp.32 (False Positive) (SBS44 0.667), hdp.34 (False Positive) (SBS4 0.735), hdp.35 (False Positive) (SBS28 0.597), hdp.36 (False Positive) (SBS44 0.362), hdp.37 (False Positive) (SBS44 0.791), hdp.38 (False Positive) (SBS4 0.764), hdp.39 (False Positive) (SBS5 0.497), hdp.40 (False Positive) (SBS4 0.687), hdp.41 (False Positive) (SBS17b 0.646), hdp.42 (False Positive) (SBS37 0.501), hdp.43 (False Positive) (SBS30 0.532), hdp.44 (False Positive) (SBS4 0.751), hdp.47 (False Positive) (SBS17a 0.432), hdp.48 (False Positive) (SBS29 0.772), hdp.49 (False Positive) (SBS22 0.642), hdp.51 (False Positive) (SBS12 0.559), hdp.52 (False Positive) (SBS36 0.767), hdp.53 (False Positive) (SBS40 0.846), hdp.54 (False Positive) (SBS36 0.548), hdp.55 (False Positive) (SBS22 0.593), hdp.57 (False Positive) (SBS6 0.489), hdp.59 (False Positive) (SBS4 0.754), hdp.60 (False Positive) (SBS3 0.657), hdp.61 (False Positive) (SBS26 0.455), hdp.63 (False Positive) (SBS5 0.789), hdp.64 (False Positive) (SBS40 0.335), hdp.65 (False Positive) (SBS3 0.648), hdp.66 (False Positive) (SBS8 0.717), hdp.67 (False Positive) (SBS26 0.802), hdp.68 (False Positive) (SBS37 0.551), hdp.69 (False Positive) (SBS5 0.779), hdp.70 (False Positive) (SBS3 0.766), hdp.71 (False Positive) (SBS5 0.706), hdp.72 (False Positive) (SBS18 0.606), hdp.73 (False Positive) (SBS3 0.795), hdp.75 (False Positive) (SBS40 0.82), hdp.76 (False Positive) (SBS3 0.59), hdp.77 (False Positive) (SBS40 0.68), hdp.78 (False Positive) (SBS3 0.742), hdp.79 (False Positive) (SBS40 0.586), hdp.80 (False Positive) (SBS3 0.775), hdp.81 (False Positive) (SBS3 0.843), hdp.82 (False Positive) (SBS3 0.838), hdp.83 (False Positive) (SBS3 0.708), hdp.84 (False Positive) (SBS3 0.684), hdp.85 (False Positive) (SBS40 0.575), hdp.86 (False Positive) (SBS3 0.796), hdp.87 (False Positive) (SBS3 0.64), hdp.89 (False Positive) (SBS3 0.807), hdp.90 (False Positive) (SBS40 0.684), hdp.91 (False Positive) (SBS40 0.723), hdp.92 (False Positive) (SBS3 0.764), hdp.93 (False Positive) (SBS3 0.603), hdp.94 (False Positive) (SBS3 0.808), hdp.95 (False Positive) (SBS8 0.54), hdp.97 (False Positive) (SBS41 0.62), hdp.98 (False Positive) (SBS40 0.422)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS6, SBS7b, SBS16, SBS30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdp.0 (False Positive) (SBS40 0.927), hdp.6 (False Positive) (SBS7a 0.855), hdp.14 (False Positive) (SBS7b 0.631), hdp.17 (False Positive) (SBS30 0.576), hdp.18 (False Positive) (SBS7b 0.366), hdp.20 (False Positive) (SBS13 0.911), hdp.21 (False Positive) (SBS7b 0.526), hdp.22 (False Positive) (SBS1 0.806), hdp.25 (False Positive) (SBS30 0.678), hdp.28 (False Positive) (SBS28 0.686), hdp.29 (False Positive) (SBS38 0.796), hdp.31 (False Positive) (SBS5 0.651), hdp.32 (False Positive) (SBS30 0.539), hdp.34 (False Positive) (SBS4 0.811), hdp.35 (False Positive) (SBS4 0.762), hdp.36 (False Positive) (SBS44 0.848), hdp.37 (False Positive) (SBS5 0.744), hdp.38 (False Positive) (SBS44 0.365), hdp.39 (False Positive) (SBS44 0.562), hdp.40 (False Positive) (SBS7c 0.649), hdp.41 (False Positive) (SBS5 0.55), hdp.42 (False Positive) (SBS5 0.466), hdp.45 (False Positive) (SBS22 0.635), hdp.47 (False Positive) (SBS5 0.814), hdp.48 (False Positive) (SBS17a 0.431), hdp.49 (False Positive) (SBS4 0.767), hdp.50 (False Positive) (SBS12 0.475), hdp.51 (False Positive) (SBS29 0.787), hdp.52 (False Positive) (SBS40 0.605), hdp.54 (False Positive) (SBS5 0.825), hdp.55 (False Positive) (SBS28 0.414), hdp.56 (False Positive) (SBS34 0.624), hdp.58 (False Positive) (SBS36 0.573), hdp.59 (False Positive) (SBS26 0.463), hdp.61 (False Positive) (SBS40 0.873), hdp.62 (False Positive) (SBS8 0.729), hdp.63 (False Positive) (SBS8 0.75), hdp.64 (False Positive) (SBS3 0.864), hdp.65 (False Positive) (SBS40 0.854), hdp.66 (False Positive) (SBS3 0.574), hdp.67 (False Positive) (SBS4 0.733), hdp.68 (False Positive) (SBS3 0.732), hdp.69 (False Positive) (SBS3 0.766), hdp.70 (False Positive) (SBS3 0.594), hdp.71 (False Positive) (SBS39 0.504), hdp.72 (False Positive) (SBS40 0.813), hdp.74 (False Positive) (SBS3 0.739), hdp.75 (False Positive) (SBS40 0.777), hdp.76 (False Positive) (SBS3 0.681), hdp.77 (False Positive) (SBS3 0.834), hdp.78 (False Positive) (SBS3 0.716), hdp.79 (False Positive) (SBS41 0.544), hdp.80 (False Positive) (SBS3 0.806), hdp.81 (False Positive) (SBS9 0.717), hdp.83 (False Positive) (SBS3 0.784), hdp.84 (False Positive) (SBS41 0.632), hdp.86 (False Positive) (SBS8 0.542)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS6, SBS30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdp.0 (False Positive) (SBS40 0.935), hdp.4 (False Positive) (SBS7a 0.817), hdp.16 (False Positive) (SBS7b 0.63), hdp.18 (False Positive) (SBS7b 0.555), hdp.20 (False Positive) (SBS30 0.479), hdp.21 (False Positive) (SBS1 0.23), hdp.22 (False Positive) (SBS30 0.69), hdp.24 (False Positive) (SBS6 0.723), hdp.26 (False Positive) (SBS5 0.766), hdp.27 (False Positive) (SBS38 0.784), hdp.28 (False Positive) (SBS6 0.488), hdp.30 (False Positive) (SBS44 0.652), hdp.31 (False Positive) (SBS4 0.729), hdp.32 (False Positive) (SBS44 0.843), hdp.34 (False Positive) (SBS28 0.679), hdp.35 (False Positive) (SBS17a 0.45), hdp.36 (False Positive) (SBS5 0.809), hdp.37 (False Positive) (SBS4 0.769), hdp.38 (False Positive) (SBS4 0.901), hdp.39 (False Positive) (SBS44 0.347), hdp.40 (False Positive) (SBS7c 0.791), hdp.41 (False Positive) (SBS4 0.742), hdp.42 (False Positive) (SBS6 0.536), hdp.44 (False Positive) (SBS5 0.816), hdp.46 (False Positive) (SBS22 0.63), hdp.49 (False Positive) (SBS36 0.788), hdp.50 (False Positive) (SBS5 0.415), hdp.51 (False Positive) (SBS12 0.574), hdp.52 (False Positive) (SBS4 0.697), hdp.53 (False Positive) (SBS36 0.596), hdp.55 (False Positive) (SBS40 0.852), hdp.56 (False Positive) (SBS5 0.808), hdp.57 (False Positive) (SBS28 0.343), hdp.58 (False Positive) (SBS40 0.77), hdp.59 (False Positive) (SBS26 0.437), hdp.60 (False Positive) (SBS4 0.641), hdp.61 (False Positive) (SBS3 0.292), hdp.62 (False Positive) (SBS3 0.893), hdp.64 (False Positive) (SBS34 0.719), hdp.65 (False Positive) (SBS26 0.759), hdp.66 (False Positive) (SBS37 0.565), hdp.67 (False Positive) (SBS8 0.672), hdp.68 (False Positive) (SBS4 0.719), hdp.69 (False Positive) (SBS13 0.5), hdp.70 (False Positive) (SBS40 0.823), hdp.71 (False Positive) (SBS3 0.787), hdp.72 (False Positive) (SBS5 0.821), hdp.73 (False Positive) (SBS5 0.719), hdp.74 (False Positive) (SBS3 0.829), hdp.75 (False Positive) (SBS3 0.518), hdp.76 (False Positive) (SBS3 0.558), hdp.77 (False Positive) (SBS18 0.589), hdp.78 (False Positive) (SBS3 0.725), hdp.79 (False Positive) (SBS40 0.775), hdp.80 (False Positive) (SBS3 0.699), hdp.81 (False Positive) (SBS3 0.872), hdp.82 (False Positive) (SBS3 0.726), hdp.84 (False Positive) (SBS3 0.589), hdp.85 (False Positive) (SBS9 0.596), hdp.86 (False Positive) (SBS3 0.653), hdp.87 (False Positive) (SBS41 0.554), hdp.88 (False Positive) (SBS3 0.874), hdp.89 (False Positive) (SBS3 0.739), hdp.90 (False Positive) (SBS3 0.762), hdp.91 (False Positive) (SBS3 0.63), hdp.92 (False Positive) (SBS3 0.778), hdp.93 (False Positive) (SBS3 0.761), hdp.94 (False Positive) (SBS3 0.736), hdp.95 (False Positive) (SBS40 0.65), hdp.96 (False Positive) (SBS3 0.801), hdp.97 (False Positive) (SBS3 0.811), hdp.99 (False Positive) (SBS3 0.823), hdp.100 (False Positive) (SBS3 0.806), hdp.101 (False Positive) (SBS40 0.733), hdp.102 (False Positive) (SBS3 0.702), hdp.103 (False Positive) (SBS41 0.631), hdp.104 (False Positive) (SBS3 0.782), hdp.105 (False Positive) (SBS3 0.745), hdp.107 (False Positive) (SBS40 0.449)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS6, SBS26, SBS30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdp.0 (False Positive) (SBS5 0.927), hdp.11 (False Positive) (SBS7b 0.691), hdp.13 (False Positive) (SBS7b 0.732), hdp.17 (False Positive) (SBS7b 0.612), hdp.18 (False Positive) (SBS7a 0.306), hdp.20 (False Positive) (SBS5 0.839), hdp.21 (False Positive) (SBS30 0.538), hdp.23 (False Positive) (SBS30 0.554), hdp.26 (False Positive) (SBS44 0.344), hdp.27 (False Positive) (SBS38 0.73), hdp.28 (False Positive) (SBS44 0.619), hdp.29 (False Positive) (SBS6 0.482), hdp.30 (False Positive) (SBS17a 0.648), hdp.31 (False Positive) (SBS4 0.769), hdp.32 (False Positive) (SBS44 0.846), hdp.33 (False Positive) (SBS4 0.668), hdp.36 (False Positive) (SBS37 0.499), hdp.37 (False Positive) (SBS22 0.65), hdp.38 (False Positive) (SBS4 0.764), hdp.40 (False Positive) (SBS29 0.772), hdp.41 (False Positive) (SBS40 0.604), hdp.42 (False Positive) (SBS36 0.781), hdp.43 (False Positive) (SBS12 0.583), hdp.45 (False Positive) (SBS5 0.416), hdp.47 (False Positive) (SBS40 0.767), hdp.48 (False Positive) (SBS26 0.453), hdp.49 (False Positive) (SBS40 0.761), hdp.50 (False Positive) (SBS36 0.542), hdp.51 (False Positive) (SBS26 0.787), hdp.53 (False Positive) (SBS26 0.733), hdp.54 (False Positive) (SBS40 0.354), hdp.55 (False Positive) (SBS8 0.69), hdp.56 (False Positive) (SBS37 0.554), hdp.57 (False Positive) (SBS4 0.735), hdp.58 (False Positive) (SBS8 0.814), hdp.59 (False Positive) (SBS5 0.712), hdp.60 (False Positive) (SBS3 0.61), hdp.61 (False Positive) (SBS3 0.762), hdp.62 (False Positive) (SBS18 0.599), hdp.63 (False Positive) (SBS3 0.584), hdp.64 (False Positive) (SBS3 0.763), hdp.65 (False Positive) (SBS3 0.716), hdp.66 (False Positive) (SBS3 0.793), hdp.67 (False Positive) (SBS3 0.684), hdp.69 (False Positive) (SBS39 0.449), hdp.70 (False Positive) (SBS3 0.795), hdp.71 (False Positive) (SBS3 0.773), hdp.72 (False Positive) (SBS3 0.789), hdp.73 (False Positive) (SBS3 0.744), hdp.74 (False Positive) (SBS3 0.771), hdp.75 (False Positive) (SBS3 0.679), hdp.76 (False Positive) (SBS3 0.836), hdp.77 (False Positive) (SBS40 0.555), hdp.78 (False Positive) (SBS3 0.802), hdp.79 (False Positive) (SBS3 0.787), hdp.81 (False Positive) (SBS3 0.689), hdp.82 (False Positive) (SBS3 0.784), hdp.83 (False Positive) (SBS3 0.781), hdp.84 (False Positive) (SBS40 0.72), hdp.85 (False Positive) (SBS40 0.786), hdp.86 (False Positive) (SBS9 0.713), hdp.87 (False Positive) (SBS3 0.755), hdp.89 (False Positive) (SBS41 0.628), hdp.90 (False Positive) (SBS40 0.461)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS6, SBS7b, SBS16, SBS26, SBS30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdp.0 (False Positive) (SBS5 0.925), hdp.4 (False Positive) (SBS7a 0.811), hdp.16 (False Positive) (SBS7b 0.655), hdp.18 (False Positive) (SBS30 0.591), hdp.19 (False Positive) (SBS7b 0.344), hdp.22 (False Positive) (SBS7b 0.55), hdp.23 (False Positive) (SBS13 0.882), hdp.24 (False Positive) (SBS5 0.771), hdp.26 (False Positive) (SBS44 0.795), hdp.27 (False Positive) (SBS4 0.87), hdp.28 (False Positive) (SBS44 0.36), hdp.29 (False Positive) (SBS1 0.544), hdp.30 (False Positive) (SBS5 0.866), hdp.31 (False Positive) (SBS28 0.602), hdp.34 (False Positive) (SBS38 0.732), hdp.35 (False Positive) (SBS44 0.58), hdp.36 (False Positive) (SBS4 0.802), hdp.37 (False Positive) (SBS4 0.76), hdp.38 (False Positive) (SBS4 0.632), hdp.41 (False Positive) (SBS17a 0.433), hdp.42 (False Positive) (SBS6 0.475), hdp.44 (False Positive) (SBS28 0.424), hdp.46 (False Positive) (SBS36 0.561), hdp.48 (False Positive) (SBS8 0.657), hdp.49 (False Positive) (SBS26 0.463), hdp.50 (False Positive) (SBS8 0.743), hdp.52 (False Positive) (SBS26 0.743), hdp.53 (False Positive) (SBS5 0.748), hdp.54 (False Positive) (SBS18 0.599), hdp.55 (False Positive) (SBS39 0.486), hdp.56 (False Positive) (SBS3 0.801), hdp.57 (False Positive) (SBS3 0.601), hdp.58 (False Positive) (SBS3 0.705), hdp.59 (False Positive) (SBS3 0.844), hdp.61 (False Positive) (SBS40 0.612), hdp.62 (False Positive) (SBS41 0.558), hdp.63 (False Positive) (SBS3 0.754), hdp.64 (False Positive) (SBS3 0.784), hdp.65 (False Positive) (SBS3 0.816), hdp.67 (False Positive) (SBS3 0.608), hdp.68 (False Positive) (SBS3 0.744), hdp.70 (False Positive) (SBS41 0.629), hdp.71 (False Positive) (SBS40 0.439)</t>
   </si>
   <si>
     <t xml:space="preserve">hdp.0 (False Positive) (SBS5 0.919), hdp.9 (False Positive) (SBS7b 0.729), hdp.11 (False Positive) (SBS7b 0.686), hdp.13 (False Positive) (SBS7b 0.872), hdp.18 (False Positive) (SBS7a 0.246), hdp.19 (False Positive) (SBS13 0.943), hdp.24 (False Positive) (SBS44 0.805), hdp.26 (False Positive) (SBS4 0.782), hdp.28 (False Positive) (SBS28 0.583), hdp.29 (False Positive) (SBS8 0.7), hdp.30 (False Positive) (SBS44 0.593), hdp.31 (False Positive) (SBS6 0.474), hdp.33 (False Positive) (SBS44 0.351), hdp.34 (False Positive) (SBS4 0.788), hdp.35 (False Positive) (SBS4 0.744), hdp.36 (False Positive) (SBS7c 0.596), hdp.39 (False Positive) (SBS36 0.783), hdp.40 (False Positive) (SBS12 0.605), hdp.42 (False Positive) (SBS40 0.86), hdp.44 (False Positive) (SBS26 0.46), hdp.45 (False Positive) (SBS8 0.737), hdp.46 (False Positive) (SBS28 0.348), hdp.48 (False Positive) (SBS3 0.563), hdp.49 (False Positive) (SBS3 0.575)</t>
@@ -13420,31 +13447,31 @@
         <v>24</v>
       </c>
       <c r="C285" t="s">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="D285" t="s">
         <v>16</v>
       </c>
       <c r="E285" t="n">
-        <v>0.547169811320755</v>
+        <v>0.282828282828283</v>
       </c>
       <c r="F285" t="n">
-        <v>0.90625</v>
+        <v>0.875</v>
       </c>
       <c r="G285" t="n">
-        <v>0.985399230167574</v>
+        <v>0.984239003754034</v>
       </c>
       <c r="H285" t="n">
-        <v>2.43881904148833</v>
+        <v>2.14206728658232</v>
       </c>
       <c r="I285" t="n">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="J285" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K285" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="L285" t="s">
         <v>328</v>
@@ -13461,31 +13488,31 @@
         <v>24</v>
       </c>
       <c r="C286" t="s">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="D286" t="s">
         <v>18</v>
       </c>
       <c r="E286" t="n">
-        <v>0.54</v>
+        <v>0.344827586206897</v>
       </c>
       <c r="F286" t="n">
-        <v>0.84375</v>
+        <v>0.9375</v>
       </c>
       <c r="G286" t="n">
-        <v>0.987098707081415</v>
+        <v>0.985221656814085</v>
       </c>
       <c r="H286" t="n">
-        <v>2.37084870708142</v>
+        <v>2.26754924302098</v>
       </c>
       <c r="I286" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="J286" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K286" t="n">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="L286" t="s">
         <v>330</v>
@@ -13502,31 +13529,31 @@
         <v>24</v>
       </c>
       <c r="C287" t="s">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="D287" t="s">
         <v>19</v>
       </c>
       <c r="E287" t="n">
-        <v>0.509433962264151</v>
+        <v>0.268518518518519</v>
       </c>
       <c r="F287" t="n">
-        <v>0.84375</v>
+        <v>0.90625</v>
       </c>
       <c r="G287" t="n">
-        <v>0.987724163873814</v>
+        <v>0.983846728200296</v>
       </c>
       <c r="H287" t="n">
-        <v>2.34090812613797</v>
+        <v>2.15861524671881</v>
       </c>
       <c r="I287" t="n">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="J287" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K287" t="n">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="L287" t="s">
         <v>332</v>
@@ -13543,31 +13570,31 @@
         <v>24</v>
       </c>
       <c r="C288" t="s">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="D288" t="s">
         <v>20</v>
       </c>
       <c r="E288" t="n">
-        <v>0.54</v>
+        <v>0.296703296703297</v>
       </c>
       <c r="F288" t="n">
         <v>0.84375</v>
       </c>
       <c r="G288" t="n">
-        <v>0.985664888016811</v>
+        <v>0.983939426197549</v>
       </c>
       <c r="H288" t="n">
-        <v>2.36941488801681</v>
+        <v>2.12439272290085</v>
       </c>
       <c r="I288" t="n">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="J288" t="n">
         <v>5</v>
       </c>
       <c r="K288" t="n">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="L288" t="s">
         <v>334</v>
@@ -13584,37 +13611,37 @@
         <v>24</v>
       </c>
       <c r="C289" t="s">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="D289" t="s">
         <v>21</v>
       </c>
       <c r="E289" t="n">
-        <v>0.52</v>
+        <v>0.402777777777778</v>
       </c>
       <c r="F289" t="n">
-        <v>0.8125</v>
+        <v>0.90625</v>
       </c>
       <c r="G289" t="n">
-        <v>0.986016146361529</v>
+        <v>0.983745502158973</v>
       </c>
       <c r="H289" t="n">
-        <v>2.31851614636153</v>
+        <v>2.29277327993675</v>
       </c>
       <c r="I289" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="J289" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K289" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="L289" t="s">
         <v>336</v>
       </c>
       <c r="M289" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="290">
@@ -13625,37 +13652,37 @@
         <v>24</v>
       </c>
       <c r="C290" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="D290" t="s">
         <v>16</v>
       </c>
       <c r="E290" t="n">
-        <v>0.19047619047619</v>
+        <v>0.547169811320755</v>
       </c>
       <c r="F290" t="n">
-        <v>0.375</v>
+        <v>0.90625</v>
       </c>
       <c r="G290" t="n">
-        <v>0.968395248534633</v>
+        <v>0.985399230167574</v>
       </c>
       <c r="H290" t="n">
-        <v>1.53387143901082</v>
+        <v>2.43881904148833</v>
       </c>
       <c r="I290" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J290" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="K290" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="L290" t="s">
+        <v>337</v>
+      </c>
+      <c r="M290" t="s">
         <v>338</v>
-      </c>
-      <c r="M290" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="291">
@@ -13666,37 +13693,37 @@
         <v>24</v>
       </c>
       <c r="C291" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="D291" t="s">
         <v>18</v>
       </c>
       <c r="E291" t="n">
-        <v>0.19047619047619</v>
+        <v>0.54</v>
       </c>
       <c r="F291" t="n">
-        <v>0.375</v>
+        <v>0.84375</v>
       </c>
       <c r="G291" t="n">
-        <v>0.978139791996592</v>
+        <v>0.987098707081415</v>
       </c>
       <c r="H291" t="n">
-        <v>1.54361598247278</v>
+        <v>2.37084870708142</v>
       </c>
       <c r="I291" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="J291" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K291" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="L291" t="s">
+        <v>339</v>
+      </c>
+      <c r="M291" t="s">
         <v>340</v>
-      </c>
-      <c r="M291" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="292">
@@ -13707,37 +13734,37 @@
         <v>24</v>
       </c>
       <c r="C292" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="D292" t="s">
         <v>19</v>
       </c>
       <c r="E292" t="n">
-        <v>0.19047619047619</v>
+        <v>0.509433962264151</v>
       </c>
       <c r="F292" t="n">
-        <v>0.375</v>
+        <v>0.84375</v>
       </c>
       <c r="G292" t="n">
-        <v>0.970489316937565</v>
+        <v>0.987724163873814</v>
       </c>
       <c r="H292" t="n">
-        <v>1.53596550741376</v>
+        <v>2.34090812613797</v>
       </c>
       <c r="I292" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J292" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K292" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="L292" t="s">
+        <v>341</v>
+      </c>
+      <c r="M292" t="s">
         <v>342</v>
-      </c>
-      <c r="M292" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="293">
@@ -13748,31 +13775,31 @@
         <v>24</v>
       </c>
       <c r="C293" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="D293" t="s">
         <v>20</v>
       </c>
       <c r="E293" t="n">
-        <v>0.17741935483871</v>
+        <v>0.54</v>
       </c>
       <c r="F293" t="n">
-        <v>0.34375</v>
+        <v>0.84375</v>
       </c>
       <c r="G293" t="n">
-        <v>0.969148332098816</v>
+        <v>0.985664888016811</v>
       </c>
       <c r="H293" t="n">
-        <v>1.49031768693753</v>
+        <v>2.36941488801681</v>
       </c>
       <c r="I293" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="J293" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="K293" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="L293" t="s">
         <v>343</v>
@@ -13789,31 +13816,31 @@
         <v>24</v>
       </c>
       <c r="C294" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="D294" t="s">
         <v>21</v>
       </c>
       <c r="E294" t="n">
-        <v>0.209677419354839</v>
+        <v>0.52</v>
       </c>
       <c r="F294" t="n">
-        <v>0.40625</v>
+        <v>0.8125</v>
       </c>
       <c r="G294" t="n">
-        <v>0.965288666679937</v>
+        <v>0.986016146361529</v>
       </c>
       <c r="H294" t="n">
-        <v>1.58121608603478</v>
+        <v>2.31851614636153</v>
       </c>
       <c r="I294" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="J294" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="K294" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="L294" t="s">
         <v>345</v>
@@ -13830,31 +13857,31 @@
         <v>24</v>
       </c>
       <c r="C295" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D295" t="s">
         <v>16</v>
       </c>
       <c r="E295" t="n">
-        <v>0.551724137931034</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="F295" t="n">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="G295" t="n">
-        <v>0.982810996506863</v>
+        <v>0.968395248534633</v>
       </c>
       <c r="H295" t="n">
-        <v>2.0345351344379</v>
+        <v>1.53387143901082</v>
       </c>
       <c r="I295" t="n">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="J295" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K295" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="L295" t="s">
         <v>347</v>
@@ -13871,31 +13898,31 @@
         <v>24</v>
       </c>
       <c r="C296" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D296" t="s">
         <v>18</v>
       </c>
       <c r="E296" t="n">
-        <v>0.575757575757576</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="F296" t="n">
-        <v>0.59375</v>
+        <v>0.375</v>
       </c>
       <c r="G296" t="n">
-        <v>0.980743886548871</v>
+        <v>0.978139791996592</v>
       </c>
       <c r="H296" t="n">
-        <v>2.15025146230645</v>
+        <v>1.54361598247278</v>
       </c>
       <c r="I296" t="n">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="J296" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K296" t="n">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="L296" t="s">
         <v>349</v>
@@ -13912,37 +13939,37 @@
         <v>24</v>
       </c>
       <c r="C297" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D297" t="s">
         <v>19</v>
       </c>
       <c r="E297" t="n">
-        <v>0.620689655172414</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="F297" t="n">
-        <v>0.5625</v>
+        <v>0.375</v>
       </c>
       <c r="G297" t="n">
-        <v>0.982473111497071</v>
+        <v>0.970489316937565</v>
       </c>
       <c r="H297" t="n">
-        <v>2.16566276666948</v>
+        <v>1.53596550741376</v>
       </c>
       <c r="I297" t="n">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="J297" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K297" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="L297" t="s">
         <v>351</v>
       </c>
       <c r="M297" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="298">
@@ -13953,37 +13980,37 @@
         <v>24</v>
       </c>
       <c r="C298" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D298" t="s">
         <v>20</v>
       </c>
       <c r="E298" t="n">
-        <v>0.576923076923077</v>
+        <v>0.17741935483871</v>
       </c>
       <c r="F298" t="n">
-        <v>0.46875</v>
+        <v>0.34375</v>
       </c>
       <c r="G298" t="n">
-        <v>0.978820845610858</v>
+        <v>0.969148332098816</v>
       </c>
       <c r="H298" t="n">
-        <v>2.02449392253394</v>
+        <v>1.49031768693753</v>
       </c>
       <c r="I298" t="n">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="J298" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K298" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="L298" t="s">
+        <v>352</v>
+      </c>
+      <c r="M298" t="s">
         <v>353</v>
-      </c>
-      <c r="M298" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="299">
@@ -13994,37 +14021,37 @@
         <v>24</v>
       </c>
       <c r="C299" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D299" t="s">
         <v>21</v>
       </c>
       <c r="E299" t="n">
-        <v>0.56</v>
+        <v>0.209677419354839</v>
       </c>
       <c r="F299" t="n">
-        <v>0.4375</v>
+        <v>0.40625</v>
       </c>
       <c r="G299" t="n">
-        <v>0.981652090343084</v>
+        <v>0.965288666679937</v>
       </c>
       <c r="H299" t="n">
-        <v>1.97915209034308</v>
+        <v>1.58121608603478</v>
       </c>
       <c r="I299" t="n">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="J299" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K299" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="L299" t="s">
+        <v>354</v>
+      </c>
+      <c r="M299" t="s">
         <v>355</v>
-      </c>
-      <c r="M299" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="300">
@@ -14035,37 +14062,37 @@
         <v>24</v>
       </c>
       <c r="C300" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D300" t="s">
         <v>16</v>
       </c>
       <c r="E300" t="n">
-        <v>0.923076923076923</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="F300" t="n">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="G300" t="n">
-        <v>0.958883805051522</v>
+        <v>0.982810996506863</v>
       </c>
       <c r="H300" t="n">
-        <v>2.25696072812844</v>
+        <v>2.0345351344379</v>
       </c>
       <c r="I300" t="n">
+        <v>29</v>
+      </c>
+      <c r="J300" t="n">
+        <v>16</v>
+      </c>
+      <c r="K300" t="n">
         <v>13</v>
       </c>
-      <c r="J300" t="n">
-        <v>20</v>
-      </c>
-      <c r="K300" t="n">
-        <v>1</v>
-      </c>
       <c r="L300" t="s">
+        <v>356</v>
+      </c>
+      <c r="M300" t="s">
         <v>357</v>
-      </c>
-      <c r="M300" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="301">
@@ -14076,37 +14103,37 @@
         <v>24</v>
       </c>
       <c r="C301" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D301" t="s">
         <v>18</v>
       </c>
       <c r="E301" t="n">
-        <v>0.916666666666667</v>
+        <v>0.575757575757576</v>
       </c>
       <c r="F301" t="n">
-        <v>0.34375</v>
+        <v>0.59375</v>
       </c>
       <c r="G301" t="n">
-        <v>0.962918424511739</v>
+        <v>0.980743886548871</v>
       </c>
       <c r="H301" t="n">
-        <v>2.22333509117841</v>
+        <v>2.15025146230645</v>
       </c>
       <c r="I301" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="J301" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K301" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L301" t="s">
+        <v>358</v>
+      </c>
+      <c r="M301" t="s">
         <v>359</v>
-      </c>
-      <c r="M301" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="302">
@@ -14117,37 +14144,37 @@
         <v>24</v>
       </c>
       <c r="C302" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D302" t="s">
         <v>19</v>
       </c>
       <c r="E302" t="n">
-        <v>0.846153846153846</v>
+        <v>0.620689655172414</v>
       </c>
       <c r="F302" t="n">
-        <v>0.34375</v>
+        <v>0.5625</v>
       </c>
       <c r="G302" t="n">
-        <v>0.963640877300637</v>
+        <v>0.982473111497071</v>
       </c>
       <c r="H302" t="n">
-        <v>2.15354472345448</v>
+        <v>2.16566276666948</v>
       </c>
       <c r="I302" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="J302" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K302" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L302" t="s">
+        <v>360</v>
+      </c>
+      <c r="M302" t="s">
         <v>361</v>
-      </c>
-      <c r="M302" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="303">
@@ -14158,37 +14185,37 @@
         <v>24</v>
       </c>
       <c r="C303" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D303" t="s">
         <v>20</v>
       </c>
       <c r="E303" t="n">
-        <v>0.944444444444444</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="F303" t="n">
-        <v>0.53125</v>
+        <v>0.46875</v>
       </c>
       <c r="G303" t="n">
-        <v>0.972835636366253</v>
+        <v>0.978820845610858</v>
       </c>
       <c r="H303" t="n">
-        <v>2.4485300808107</v>
+        <v>2.02449392253394</v>
       </c>
       <c r="I303" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J303" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K303" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L303" t="s">
+        <v>362</v>
+      </c>
+      <c r="M303" t="s">
         <v>363</v>
-      </c>
-      <c r="M303" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="304">
@@ -14199,37 +14226,37 @@
         <v>24</v>
       </c>
       <c r="C304" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D304" t="s">
         <v>21</v>
       </c>
       <c r="E304" t="n">
-        <v>0.846153846153846</v>
+        <v>0.56</v>
       </c>
       <c r="F304" t="n">
-        <v>0.34375</v>
+        <v>0.4375</v>
       </c>
       <c r="G304" t="n">
-        <v>0.964313312168733</v>
+        <v>0.981652090343084</v>
       </c>
       <c r="H304" t="n">
-        <v>2.15421715832258</v>
+        <v>1.97915209034308</v>
       </c>
       <c r="I304" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J304" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K304" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L304" t="s">
+        <v>364</v>
+      </c>
+      <c r="M304" t="s">
         <v>365</v>
-      </c>
-      <c r="M304" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="305">
@@ -14240,7 +14267,7 @@
         <v>24</v>
       </c>
       <c r="C305" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D305" t="s">
         <v>16</v>
@@ -14252,10 +14279,10 @@
         <v>0.375</v>
       </c>
       <c r="G305" t="n">
-        <v>0.960349842106044</v>
+        <v>0.958883805051522</v>
       </c>
       <c r="H305" t="n">
-        <v>2.25842676518297</v>
+        <v>2.25696072812844</v>
       </c>
       <c r="I305" t="n">
         <v>13</v>
@@ -14270,7 +14297,7 @@
         <v>366</v>
       </c>
       <c r="M305" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="306">
@@ -14281,37 +14308,37 @@
         <v>24</v>
       </c>
       <c r="C306" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D306" t="s">
         <v>18</v>
       </c>
       <c r="E306" t="n">
-        <v>0.846153846153846</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="F306" t="n">
         <v>0.34375</v>
       </c>
       <c r="G306" t="n">
-        <v>0.964825511520361</v>
+        <v>0.962918424511739</v>
       </c>
       <c r="H306" t="n">
-        <v>2.15472935767421</v>
+        <v>2.22333509117841</v>
       </c>
       <c r="I306" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J306" t="n">
         <v>21</v>
       </c>
       <c r="K306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L306" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M306" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="307">
@@ -14322,37 +14349,37 @@
         <v>24</v>
       </c>
       <c r="C307" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D307" t="s">
         <v>19</v>
       </c>
       <c r="E307" t="n">
-        <v>0.727272727272727</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="F307" t="n">
-        <v>0.25</v>
+        <v>0.34375</v>
       </c>
       <c r="G307" t="n">
-        <v>0.977224891291958</v>
+        <v>0.963640877300637</v>
       </c>
       <c r="H307" t="n">
-        <v>1.95449761856468</v>
+        <v>2.15354472345448</v>
       </c>
       <c r="I307" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J307" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L307" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M307" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="308">
@@ -14363,37 +14390,37 @@
         <v>24</v>
       </c>
       <c r="C308" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D308" t="s">
         <v>20</v>
       </c>
       <c r="E308" t="n">
-        <v>0.727272727272727</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="F308" t="n">
-        <v>0.25</v>
+        <v>0.53125</v>
       </c>
       <c r="G308" t="n">
-        <v>0.977123555665197</v>
+        <v>0.972835636366253</v>
       </c>
       <c r="H308" t="n">
-        <v>1.95439628293792</v>
+        <v>2.4485300808107</v>
       </c>
       <c r="I308" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J308" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K308" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L308" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M308" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="309">
@@ -14404,37 +14431,37 @@
         <v>24</v>
       </c>
       <c r="C309" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D309" t="s">
         <v>21</v>
       </c>
       <c r="E309" t="n">
-        <v>0.923076923076923</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="F309" t="n">
-        <v>0.375</v>
+        <v>0.34375</v>
       </c>
       <c r="G309" t="n">
-        <v>0.960142428269837</v>
+        <v>0.964313312168733</v>
       </c>
       <c r="H309" t="n">
-        <v>2.25821935134676</v>
+        <v>2.15421715832258</v>
       </c>
       <c r="I309" t="n">
         <v>13</v>
       </c>
       <c r="J309" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L309" t="s">
+        <v>374</v>
+      </c>
+      <c r="M309" t="s">
         <v>371</v>
-      </c>
-      <c r="M309" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="310">
@@ -14445,37 +14472,37 @@
         <v>24</v>
       </c>
       <c r="C310" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D310" t="s">
         <v>16</v>
       </c>
       <c r="E310" t="n">
-        <v>0.892857142857143</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="F310" t="n">
-        <v>0.78125</v>
+        <v>0.375</v>
       </c>
       <c r="G310" t="n">
-        <v>0.993953010259836</v>
+        <v>0.960349842106044</v>
       </c>
       <c r="H310" t="n">
-        <v>2.66806015311698</v>
+        <v>2.25842676518297</v>
       </c>
       <c r="I310" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="J310" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K310" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L310" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M310" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="311">
@@ -14486,37 +14513,37 @@
         <v>24</v>
       </c>
       <c r="C311" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D311" t="s">
         <v>18</v>
       </c>
       <c r="E311" t="n">
-        <v>0.862068965517241</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="F311" t="n">
-        <v>0.78125</v>
+        <v>0.34375</v>
       </c>
       <c r="G311" t="n">
-        <v>0.993202782851473</v>
+        <v>0.964825511520361</v>
       </c>
       <c r="H311" t="n">
-        <v>2.63652174836871</v>
+        <v>2.15472935767421</v>
       </c>
       <c r="I311" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J311" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="K311" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L311" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M311" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="312">
@@ -14527,37 +14554,37 @@
         <v>24</v>
       </c>
       <c r="C312" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D312" t="s">
         <v>19</v>
       </c>
       <c r="E312" t="n">
-        <v>0.8125</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="F312" t="n">
-        <v>0.8125</v>
+        <v>0.25</v>
       </c>
       <c r="G312" t="n">
-        <v>0.991780996037339</v>
+        <v>0.977224891291958</v>
       </c>
       <c r="H312" t="n">
-        <v>2.61678099603734</v>
+        <v>1.95449761856468</v>
       </c>
       <c r="I312" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J312" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="K312" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L312" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M312" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="313">
@@ -14568,37 +14595,37 @@
         <v>24</v>
       </c>
       <c r="C313" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D313" t="s">
         <v>20</v>
       </c>
       <c r="E313" t="n">
-        <v>0.862068965517241</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="F313" t="n">
-        <v>0.78125</v>
+        <v>0.25</v>
       </c>
       <c r="G313" t="n">
-        <v>0.993021971337012</v>
+        <v>0.977123555665197</v>
       </c>
       <c r="H313" t="n">
-        <v>2.63634093685425</v>
+        <v>1.95439628293792</v>
       </c>
       <c r="I313" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J313" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="K313" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L313" t="s">
+        <v>379</v>
+      </c>
+      <c r="M313" t="s">
         <v>378</v>
-      </c>
-      <c r="M313" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="314">
@@ -14609,37 +14636,37 @@
         <v>24</v>
       </c>
       <c r="C314" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D314" t="s">
         <v>21</v>
       </c>
       <c r="E314" t="n">
-        <v>0.862068965517241</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="F314" t="n">
-        <v>0.78125</v>
+        <v>0.375</v>
       </c>
       <c r="G314" t="n">
-        <v>0.993544134943552</v>
+        <v>0.960142428269837</v>
       </c>
       <c r="H314" t="n">
-        <v>2.63686310046079</v>
+        <v>2.25821935134676</v>
       </c>
       <c r="I314" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J314" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K314" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L314" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M314" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="315">
@@ -14650,7 +14677,7 @@
         <v>24</v>
       </c>
       <c r="C315" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D315" t="s">
         <v>16</v>
@@ -14662,10 +14689,10 @@
         <v>0.78125</v>
       </c>
       <c r="G315" t="n">
-        <v>0.993628902482487</v>
+        <v>0.993953010259836</v>
       </c>
       <c r="H315" t="n">
-        <v>2.66773604533963</v>
+        <v>2.66806015311698</v>
       </c>
       <c r="I315" t="n">
         <v>28</v>
@@ -14677,10 +14704,10 @@
         <v>3</v>
       </c>
       <c r="L315" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M315" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="316">
@@ -14691,37 +14718,37 @@
         <v>24</v>
       </c>
       <c r="C316" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D316" t="s">
         <v>18</v>
       </c>
       <c r="E316" t="n">
-        <v>0.888888888888889</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="F316" t="n">
-        <v>0.75</v>
+        <v>0.78125</v>
       </c>
       <c r="G316" t="n">
-        <v>0.994137385498832</v>
+        <v>0.993202782851473</v>
       </c>
       <c r="H316" t="n">
-        <v>2.63302627438772</v>
+        <v>2.63652174836871</v>
       </c>
       <c r="I316" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J316" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K316" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L316" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M316" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="317">
@@ -14732,37 +14759,37 @@
         <v>24</v>
       </c>
       <c r="C317" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D317" t="s">
         <v>19</v>
       </c>
       <c r="E317" t="n">
-        <v>0.892857142857143</v>
+        <v>0.8125</v>
       </c>
       <c r="F317" t="n">
-        <v>0.78125</v>
+        <v>0.8125</v>
       </c>
       <c r="G317" t="n">
-        <v>0.993057289739249</v>
+        <v>0.991780996037339</v>
       </c>
       <c r="H317" t="n">
-        <v>2.66716443259639</v>
+        <v>2.61678099603734</v>
       </c>
       <c r="I317" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J317" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K317" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L317" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M317" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="318">
@@ -14773,37 +14800,37 @@
         <v>24</v>
       </c>
       <c r="C318" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D318" t="s">
         <v>20</v>
       </c>
       <c r="E318" t="n">
-        <v>0.925925925925926</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="F318" t="n">
         <v>0.78125</v>
       </c>
       <c r="G318" t="n">
-        <v>0.99360483642153</v>
+        <v>0.993021971337012</v>
       </c>
       <c r="H318" t="n">
-        <v>2.70078076234746</v>
+        <v>2.63634093685425</v>
       </c>
       <c r="I318" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J318" t="n">
         <v>7</v>
       </c>
       <c r="K318" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L318" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M318" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="319">
@@ -14814,37 +14841,37 @@
         <v>24</v>
       </c>
       <c r="C319" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D319" t="s">
         <v>21</v>
       </c>
       <c r="E319" t="n">
-        <v>0.892857142857143</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="F319" t="n">
         <v>0.78125</v>
       </c>
       <c r="G319" t="n">
-        <v>0.993521283744589</v>
+        <v>0.993544134943552</v>
       </c>
       <c r="H319" t="n">
-        <v>2.66762842660173</v>
+        <v>2.63686310046079</v>
       </c>
       <c r="I319" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J319" t="n">
         <v>7</v>
       </c>
       <c r="K319" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L319" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M319" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="320">
@@ -14855,7 +14882,7 @@
         <v>24</v>
       </c>
       <c r="C320" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D320" t="s">
         <v>16</v>
@@ -14867,10 +14894,10 @@
         <v>0.78125</v>
       </c>
       <c r="G320" t="n">
-        <v>0.991736056332528</v>
+        <v>0.993628902482487</v>
       </c>
       <c r="H320" t="n">
-        <v>2.66584319918967</v>
+        <v>2.66773604533963</v>
       </c>
       <c r="I320" t="n">
         <v>28</v>
@@ -14882,10 +14909,10 @@
         <v>3</v>
       </c>
       <c r="L320" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M320" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="321">
@@ -14896,37 +14923,37 @@
         <v>24</v>
       </c>
       <c r="C321" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D321" t="s">
         <v>18</v>
       </c>
       <c r="E321" t="n">
-        <v>0.925925925925926</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="F321" t="n">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="G321" t="n">
-        <v>0.992657970915991</v>
+        <v>0.994137385498832</v>
       </c>
       <c r="H321" t="n">
-        <v>2.69983389684192</v>
+        <v>2.63302627438772</v>
       </c>
       <c r="I321" t="n">
         <v>27</v>
       </c>
       <c r="J321" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K321" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L321" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M321" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="322">
@@ -14937,37 +14964,37 @@
         <v>24</v>
       </c>
       <c r="C322" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D322" t="s">
         <v>19</v>
       </c>
       <c r="E322" t="n">
-        <v>0.862068965517241</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="F322" t="n">
         <v>0.78125</v>
       </c>
       <c r="G322" t="n">
-        <v>0.992250121615821</v>
+        <v>0.993057289739249</v>
       </c>
       <c r="H322" t="n">
-        <v>2.63556908713306</v>
+        <v>2.66716443259639</v>
       </c>
       <c r="I322" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J322" t="n">
         <v>7</v>
       </c>
       <c r="K322" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L322" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M322" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="323">
@@ -14978,37 +15005,37 @@
         <v>24</v>
       </c>
       <c r="C323" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D323" t="s">
         <v>20</v>
       </c>
       <c r="E323" t="n">
-        <v>0.923076923076923</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="F323" t="n">
-        <v>0.75</v>
+        <v>0.78125</v>
       </c>
       <c r="G323" t="n">
-        <v>0.992382695936197</v>
+        <v>0.99360483642153</v>
       </c>
       <c r="H323" t="n">
-        <v>2.66545961901312</v>
+        <v>2.70078076234746</v>
       </c>
       <c r="I323" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J323" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K323" t="n">
         <v>2</v>
       </c>
       <c r="L323" t="s">
+        <v>394</v>
+      </c>
+      <c r="M323" t="s">
         <v>390</v>
-      </c>
-      <c r="M323" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="324">
@@ -15019,7 +15046,7 @@
         <v>24</v>
       </c>
       <c r="C324" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D324" t="s">
         <v>21</v>
@@ -15031,10 +15058,10 @@
         <v>0.78125</v>
       </c>
       <c r="G324" t="n">
-        <v>0.99170260402899</v>
+        <v>0.993521283744589</v>
       </c>
       <c r="H324" t="n">
-        <v>2.66580974688613</v>
+        <v>2.66762842660173</v>
       </c>
       <c r="I324" t="n">
         <v>28</v>
@@ -15046,10 +15073,10 @@
         <v>3</v>
       </c>
       <c r="L324" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M324" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="325">
@@ -15060,37 +15087,37 @@
         <v>24</v>
       </c>
       <c r="C325" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D325" t="s">
         <v>16</v>
       </c>
       <c r="E325" t="n">
-        <v>0.923076923076923</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="F325" t="n">
-        <v>0.75</v>
+        <v>0.78125</v>
       </c>
       <c r="G325" t="n">
-        <v>0.991799988837732</v>
+        <v>0.991736056332528</v>
       </c>
       <c r="H325" t="n">
-        <v>2.66487691191465</v>
+        <v>2.66584319918967</v>
       </c>
       <c r="I325" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J325" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K325" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L325" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M325" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="326">
@@ -15101,37 +15128,37 @@
         <v>24</v>
       </c>
       <c r="C326" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D326" t="s">
         <v>18</v>
       </c>
       <c r="E326" t="n">
-        <v>0.866666666666667</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="F326" t="n">
-        <v>0.8125</v>
+        <v>0.78125</v>
       </c>
       <c r="G326" t="n">
-        <v>0.993394276711359</v>
+        <v>0.992657970915991</v>
       </c>
       <c r="H326" t="n">
-        <v>2.67256094337803</v>
+        <v>2.69983389684192</v>
       </c>
       <c r="I326" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J326" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K326" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L326" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M326" t="s">
-        <v>327</v>
+        <v>390</v>
       </c>
     </row>
     <row r="327">
@@ -15142,37 +15169,37 @@
         <v>24</v>
       </c>
       <c r="C327" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D327" t="s">
         <v>19</v>
       </c>
       <c r="E327" t="n">
-        <v>0.892857142857143</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="F327" t="n">
         <v>0.78125</v>
       </c>
       <c r="G327" t="n">
-        <v>0.99463625042665</v>
+        <v>0.992250121615821</v>
       </c>
       <c r="H327" t="n">
-        <v>2.66874339328379</v>
+        <v>2.63556908713306</v>
       </c>
       <c r="I327" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J327" t="n">
         <v>7</v>
       </c>
       <c r="K327" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L327" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M327" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
     </row>
     <row r="328">
@@ -15183,37 +15210,37 @@
         <v>24</v>
       </c>
       <c r="C328" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D328" t="s">
         <v>20</v>
       </c>
       <c r="E328" t="n">
-        <v>0.862068965517241</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="F328" t="n">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="G328" t="n">
-        <v>0.994075352660748</v>
+        <v>0.992382695936197</v>
       </c>
       <c r="H328" t="n">
-        <v>2.63739431817799</v>
+        <v>2.66545961901312</v>
       </c>
       <c r="I328" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J328" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K328" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L328" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M328" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="329">
@@ -15224,857 +15251,857 @@
         <v>24</v>
       </c>
       <c r="C329" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D329" t="s">
         <v>21</v>
       </c>
       <c r="E329" t="n">
-        <v>0.862068965517241</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="F329" t="n">
         <v>0.78125</v>
       </c>
       <c r="G329" t="n">
-        <v>0.994890228634678</v>
+        <v>0.99170260402899</v>
       </c>
       <c r="H329" t="n">
-        <v>2.63820919415192</v>
+        <v>2.66580974688613</v>
       </c>
       <c r="I329" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J329" t="n">
         <v>7</v>
       </c>
       <c r="K329" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L329" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="M329" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>398</v>
+        <v>317</v>
       </c>
       <c r="B330" t="s">
         <v>24</v>
       </c>
       <c r="C330" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D330" t="s">
         <v>16</v>
       </c>
       <c r="E330" t="n">
-        <v>1</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="F330" t="n">
-        <v>0.956521739130435</v>
+        <v>0.75</v>
       </c>
       <c r="G330" t="n">
-        <v>0.991694126481954</v>
+        <v>0.991799988837732</v>
       </c>
       <c r="H330" t="n">
-        <v>2.94821586561239</v>
+        <v>2.66487691191465</v>
       </c>
       <c r="I330" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J330" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L330" t="s">
-        <v>17</v>
+        <v>401</v>
       </c>
       <c r="M330" t="s">
-        <v>197</v>
+        <v>392</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>398</v>
+        <v>317</v>
       </c>
       <c r="B331" t="s">
         <v>24</v>
       </c>
       <c r="C331" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D331" t="s">
         <v>18</v>
       </c>
       <c r="E331" t="n">
-        <v>1</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="F331" t="n">
-        <v>0.91304347826087</v>
+        <v>0.8125</v>
       </c>
       <c r="G331" t="n">
-        <v>0.992546888817938</v>
+        <v>0.993394276711359</v>
       </c>
       <c r="H331" t="n">
-        <v>2.90559036707881</v>
+        <v>2.67256094337803</v>
       </c>
       <c r="I331" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J331" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K331" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L331" t="s">
-        <v>17</v>
+        <v>402</v>
       </c>
       <c r="M331" t="s">
-        <v>399</v>
+        <v>327</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>398</v>
+        <v>317</v>
       </c>
       <c r="B332" t="s">
         <v>24</v>
       </c>
       <c r="C332" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D332" t="s">
         <v>19</v>
       </c>
       <c r="E332" t="n">
-        <v>1</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="F332" t="n">
-        <v>0.956521739130435</v>
+        <v>0.78125</v>
       </c>
       <c r="G332" t="n">
-        <v>0.991634820206093</v>
+        <v>0.99463625042665</v>
       </c>
       <c r="H332" t="n">
-        <v>2.94815655933653</v>
+        <v>2.66874339328379</v>
       </c>
       <c r="I332" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J332" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K332" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L332" t="s">
-        <v>17</v>
+        <v>403</v>
       </c>
       <c r="M332" t="s">
-        <v>197</v>
+        <v>384</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>398</v>
+        <v>317</v>
       </c>
       <c r="B333" t="s">
         <v>24</v>
       </c>
       <c r="C333" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D333" t="s">
         <v>20</v>
       </c>
       <c r="E333" t="n">
-        <v>1</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="F333" t="n">
-        <v>0.956521739130435</v>
+        <v>0.78125</v>
       </c>
       <c r="G333" t="n">
-        <v>0.992060885426315</v>
+        <v>0.994075352660748</v>
       </c>
       <c r="H333" t="n">
-        <v>2.94858262455675</v>
+        <v>2.63739431817799</v>
       </c>
       <c r="I333" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J333" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K333" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L333" t="s">
-        <v>17</v>
+        <v>404</v>
       </c>
       <c r="M333" t="s">
-        <v>197</v>
+        <v>405</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>398</v>
+        <v>317</v>
       </c>
       <c r="B334" t="s">
         <v>24</v>
       </c>
       <c r="C334" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D334" t="s">
         <v>21</v>
       </c>
       <c r="E334" t="n">
-        <v>1</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="F334" t="n">
-        <v>0.956521739130435</v>
+        <v>0.78125</v>
       </c>
       <c r="G334" t="n">
-        <v>0.991142588447679</v>
+        <v>0.994890228634678</v>
       </c>
       <c r="H334" t="n">
-        <v>2.94766432757811</v>
+        <v>2.63820919415192</v>
       </c>
       <c r="I334" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J334" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K334" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L334" t="s">
-        <v>17</v>
+        <v>406</v>
       </c>
       <c r="M334" t="s">
-        <v>197</v>
+        <v>382</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B335" t="s">
         <v>24</v>
       </c>
       <c r="C335" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D335" t="s">
         <v>16</v>
       </c>
       <c r="E335" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F335" t="n">
-        <v>0.695652173913043</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G335" t="n">
-        <v>0.974095492207302</v>
+        <v>0.991694126481954</v>
       </c>
       <c r="H335" t="n">
-        <v>2.61092413670858</v>
+        <v>2.94821586561239</v>
       </c>
       <c r="I335" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J335" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L335" t="s">
-        <v>400</v>
+        <v>17</v>
       </c>
       <c r="M335" t="s">
-        <v>283</v>
+        <v>197</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B336" t="s">
         <v>24</v>
       </c>
       <c r="C336" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D336" t="s">
         <v>18</v>
       </c>
       <c r="E336" t="n">
-        <v>0.888888888888889</v>
+        <v>1</v>
       </c>
       <c r="F336" t="n">
-        <v>0.695652173913043</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G336" t="n">
-        <v>0.972295101375642</v>
+        <v>0.992546888817938</v>
       </c>
       <c r="H336" t="n">
-        <v>2.55683616417757</v>
+        <v>2.90559036707881</v>
       </c>
       <c r="I336" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J336" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L336" t="s">
-        <v>401</v>
+        <v>17</v>
       </c>
       <c r="M336" t="s">
-        <v>283</v>
+        <v>408</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B337" t="s">
         <v>24</v>
       </c>
       <c r="C337" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D337" t="s">
         <v>19</v>
       </c>
       <c r="E337" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F337" t="n">
-        <v>0.695652173913043</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G337" t="n">
-        <v>0.974334553113992</v>
+        <v>0.991634820206093</v>
       </c>
       <c r="H337" t="n">
-        <v>2.61116319761527</v>
+        <v>2.94815655933653</v>
       </c>
       <c r="I337" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J337" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L337" t="s">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="M337" t="s">
-        <v>283</v>
+        <v>197</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B338" t="s">
         <v>24</v>
       </c>
       <c r="C338" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D338" t="s">
         <v>20</v>
       </c>
       <c r="E338" t="n">
-        <v>0.8125</v>
+        <v>1</v>
       </c>
       <c r="F338" t="n">
-        <v>0.565217391304348</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G338" t="n">
-        <v>0.982977285217662</v>
+        <v>0.992060885426315</v>
       </c>
       <c r="H338" t="n">
-        <v>2.36069467652201</v>
+        <v>2.94858262455675</v>
       </c>
       <c r="I338" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J338" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L338" t="s">
-        <v>402</v>
+        <v>17</v>
       </c>
       <c r="M338" t="s">
-        <v>403</v>
+        <v>197</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B339" t="s">
         <v>24</v>
       </c>
       <c r="C339" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D339" t="s">
         <v>21</v>
       </c>
       <c r="E339" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F339" t="n">
-        <v>0.695652173913043</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G339" t="n">
-        <v>0.974986350984775</v>
+        <v>0.991142588447679</v>
       </c>
       <c r="H339" t="n">
-        <v>2.61181499548605</v>
+        <v>2.94766432757811</v>
       </c>
       <c r="I339" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J339" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L339" t="s">
-        <v>404</v>
+        <v>17</v>
       </c>
       <c r="M339" t="s">
-        <v>283</v>
+        <v>197</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B340" t="s">
         <v>24</v>
       </c>
       <c r="C340" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D340" t="s">
         <v>16</v>
       </c>
       <c r="E340" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F340" t="n">
-        <v>0.869565217391304</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G340" t="n">
-        <v>0.992618553305693</v>
+        <v>0.974095492207302</v>
       </c>
       <c r="H340" t="n">
-        <v>2.862183770697</v>
+        <v>2.61092413670858</v>
       </c>
       <c r="I340" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J340" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L340" t="s">
-        <v>17</v>
+        <v>409</v>
       </c>
       <c r="M340" t="s">
-        <v>406</v>
+        <v>283</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B341" t="s">
         <v>24</v>
       </c>
       <c r="C341" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D341" t="s">
         <v>18</v>
       </c>
       <c r="E341" t="n">
-        <v>1</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="F341" t="n">
-        <v>0.956521739130435</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G341" t="n">
-        <v>0.992061945920591</v>
+        <v>0.972295101375642</v>
       </c>
       <c r="H341" t="n">
-        <v>2.94858368505103</v>
+        <v>2.55683616417757</v>
       </c>
       <c r="I341" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J341" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L341" t="s">
-        <v>17</v>
+        <v>410</v>
       </c>
       <c r="M341" t="s">
-        <v>197</v>
+        <v>283</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B342" t="s">
         <v>24</v>
       </c>
       <c r="C342" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D342" t="s">
         <v>19</v>
       </c>
       <c r="E342" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F342" t="n">
-        <v>0.91304347826087</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G342" t="n">
-        <v>0.992532800065759</v>
+        <v>0.974334553113992</v>
       </c>
       <c r="H342" t="n">
-        <v>2.90557627832663</v>
+        <v>2.61116319761527</v>
       </c>
       <c r="I342" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J342" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L342" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="M342" t="s">
-        <v>399</v>
+        <v>283</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B343" t="s">
         <v>24</v>
       </c>
       <c r="C343" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D343" t="s">
         <v>20</v>
       </c>
       <c r="E343" t="n">
-        <v>1</v>
+        <v>0.8125</v>
       </c>
       <c r="F343" t="n">
-        <v>0.956521739130435</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="G343" t="n">
-        <v>0.990038038360213</v>
+        <v>0.982977285217662</v>
       </c>
       <c r="H343" t="n">
-        <v>2.94655977749065</v>
+        <v>2.36069467652201</v>
       </c>
       <c r="I343" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J343" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K343" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L343" t="s">
-        <v>17</v>
+        <v>411</v>
       </c>
       <c r="M343" t="s">
-        <v>197</v>
+        <v>412</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B344" t="s">
         <v>24</v>
       </c>
       <c r="C344" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D344" t="s">
         <v>21</v>
       </c>
       <c r="E344" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F344" t="n">
-        <v>0.91304347826087</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G344" t="n">
-        <v>0.991063116244006</v>
+        <v>0.974986350984775</v>
       </c>
       <c r="H344" t="n">
-        <v>2.90410659450488</v>
+        <v>2.61181499548605</v>
       </c>
       <c r="I344" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J344" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L344" t="s">
-        <v>17</v>
+        <v>413</v>
       </c>
       <c r="M344" t="s">
-        <v>407</v>
+        <v>283</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B345" t="s">
         <v>24</v>
       </c>
       <c r="C345" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D345" t="s">
         <v>16</v>
       </c>
       <c r="E345" t="n">
-        <v>0.8125</v>
+        <v>1</v>
       </c>
       <c r="F345" t="n">
-        <v>0.565217391304348</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G345" t="n">
-        <v>0.981582264143665</v>
+        <v>0.992618553305693</v>
       </c>
       <c r="H345" t="n">
-        <v>2.35929965544801</v>
+        <v>2.862183770697</v>
       </c>
       <c r="I345" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J345" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L345" t="s">
-        <v>408</v>
+        <v>17</v>
       </c>
       <c r="M345" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B346" t="s">
         <v>24</v>
       </c>
       <c r="C346" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D346" t="s">
         <v>18</v>
       </c>
       <c r="E346" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F346" t="n">
-        <v>0.652173913043478</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G346" t="n">
-        <v>0.975156001348464</v>
+        <v>0.992061945920591</v>
       </c>
       <c r="H346" t="n">
-        <v>2.50968285556841</v>
+        <v>2.94858368505103</v>
       </c>
       <c r="I346" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J346" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L346" t="s">
-        <v>409</v>
+        <v>17</v>
       </c>
       <c r="M346" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B347" t="s">
         <v>24</v>
       </c>
       <c r="C347" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D347" t="s">
         <v>19</v>
       </c>
       <c r="E347" t="n">
-        <v>0.8125</v>
+        <v>1</v>
       </c>
       <c r="F347" t="n">
-        <v>0.565217391304348</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G347" t="n">
-        <v>0.980540422200839</v>
+        <v>0.992532800065759</v>
       </c>
       <c r="H347" t="n">
-        <v>2.35825781350519</v>
+        <v>2.90557627832663</v>
       </c>
       <c r="I347" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J347" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L347" t="s">
-        <v>410</v>
+        <v>17</v>
       </c>
       <c r="M347" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B348" t="s">
         <v>24</v>
       </c>
       <c r="C348" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D348" t="s">
         <v>20</v>
       </c>
       <c r="E348" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F348" t="n">
-        <v>0.695652173913043</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G348" t="n">
-        <v>0.974272237099035</v>
+        <v>0.990038038360213</v>
       </c>
       <c r="H348" t="n">
-        <v>2.61110088160031</v>
+        <v>2.94655977749065</v>
       </c>
       <c r="I348" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J348" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L348" t="s">
-        <v>411</v>
+        <v>17</v>
       </c>
       <c r="M348" t="s">
-        <v>283</v>
+        <v>197</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B349" t="s">
         <v>24</v>
       </c>
       <c r="C349" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D349" t="s">
         <v>21</v>
       </c>
       <c r="E349" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="F349" t="n">
-        <v>0.608695652173913</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G349" t="n">
-        <v>0.973788614790885</v>
+        <v>0.991063116244006</v>
       </c>
       <c r="H349" t="n">
-        <v>2.4574842669648</v>
+        <v>2.90410659450488</v>
       </c>
       <c r="I349" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J349" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L349" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="M349" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="350">
@@ -16085,37 +16112,37 @@
         <v>24</v>
       </c>
       <c r="C350" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D350" t="s">
         <v>16</v>
       </c>
       <c r="E350" t="n">
-        <v>0.956521739130435</v>
+        <v>0.8125</v>
       </c>
       <c r="F350" t="n">
-        <v>0.956521739130435</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="G350" t="n">
-        <v>0.991110434085147</v>
+        <v>0.981582264143665</v>
       </c>
       <c r="H350" t="n">
-        <v>2.90415391234602</v>
+        <v>2.35929965544801</v>
       </c>
       <c r="I350" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J350" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K350" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L350" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M350" t="s">
-        <v>197</v>
+        <v>412</v>
       </c>
     </row>
     <row r="351">
@@ -16126,37 +16153,37 @@
         <v>24</v>
       </c>
       <c r="C351" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D351" t="s">
         <v>18</v>
       </c>
       <c r="E351" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F351" t="n">
-        <v>0.956521739130435</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G351" t="n">
-        <v>0.991235297350773</v>
+        <v>0.975156001348464</v>
       </c>
       <c r="H351" t="n">
-        <v>2.94775703648121</v>
+        <v>2.50968285556841</v>
       </c>
       <c r="I351" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J351" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L351" t="s">
-        <v>17</v>
+        <v>418</v>
       </c>
       <c r="M351" t="s">
-        <v>197</v>
+        <v>284</v>
       </c>
     </row>
     <row r="352">
@@ -16167,37 +16194,37 @@
         <v>24</v>
       </c>
       <c r="C352" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D352" t="s">
         <v>19</v>
       </c>
       <c r="E352" t="n">
-        <v>1</v>
+        <v>0.8125</v>
       </c>
       <c r="F352" t="n">
-        <v>0.869565217391304</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="G352" t="n">
-        <v>0.992667112422782</v>
+        <v>0.980540422200839</v>
       </c>
       <c r="H352" t="n">
-        <v>2.86223232981409</v>
+        <v>2.35825781350519</v>
       </c>
       <c r="I352" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J352" t="n">
+        <v>10</v>
+      </c>
+      <c r="K352" t="n">
         <v>3</v>
       </c>
-      <c r="K352" t="n">
-        <v>0</v>
-      </c>
       <c r="L352" t="s">
-        <v>17</v>
+        <v>419</v>
       </c>
       <c r="M352" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="353">
@@ -16208,37 +16235,37 @@
         <v>24</v>
       </c>
       <c r="C353" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D353" t="s">
         <v>20</v>
       </c>
       <c r="E353" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F353" t="n">
-        <v>0.956521739130435</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G353" t="n">
-        <v>0.991612160712581</v>
+        <v>0.974272237099035</v>
       </c>
       <c r="H353" t="n">
-        <v>2.94813389984302</v>
+        <v>2.61110088160031</v>
       </c>
       <c r="I353" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J353" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L353" t="s">
-        <v>17</v>
+        <v>420</v>
       </c>
       <c r="M353" t="s">
-        <v>197</v>
+        <v>283</v>
       </c>
     </row>
     <row r="354">
@@ -16249,1428 +16276,1428 @@
         <v>24</v>
       </c>
       <c r="C354" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D354" t="s">
         <v>21</v>
       </c>
       <c r="E354" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="F354" t="n">
-        <v>0.956521739130435</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="G354" t="n">
-        <v>0.990779396373095</v>
+        <v>0.973788614790885</v>
       </c>
       <c r="H354" t="n">
-        <v>2.94730113550353</v>
+        <v>2.4574842669648</v>
       </c>
       <c r="I354" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J354" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L354" t="s">
-        <v>17</v>
+        <v>421</v>
       </c>
       <c r="M354" t="s">
-        <v>197</v>
+        <v>422</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="B355" t="s">
         <v>24</v>
       </c>
       <c r="C355" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D355" t="s">
         <v>16</v>
       </c>
       <c r="E355" t="n">
-        <v>0.8125</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="F355" t="n">
-        <v>0.565217391304348</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G355" t="n">
-        <v>0.982455205730869</v>
+        <v>0.991110434085147</v>
       </c>
       <c r="H355" t="n">
-        <v>2.36017259703522</v>
+        <v>2.90415391234602</v>
       </c>
       <c r="I355" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J355" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K355" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L355" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="M355" t="s">
-        <v>403</v>
+        <v>197</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="B356" t="s">
         <v>24</v>
       </c>
       <c r="C356" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D356" t="s">
         <v>18</v>
       </c>
       <c r="E356" t="n">
-        <v>0.823529411764706</v>
+        <v>1</v>
       </c>
       <c r="F356" t="n">
-        <v>0.608695652173913</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G356" t="n">
-        <v>0.980836158765712</v>
+        <v>0.991235297350773</v>
       </c>
       <c r="H356" t="n">
-        <v>2.41306122270433</v>
+        <v>2.94775703648121</v>
       </c>
       <c r="I356" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J356" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L356" t="s">
-        <v>417</v>
+        <v>17</v>
       </c>
       <c r="M356" t="s">
-        <v>279</v>
+        <v>197</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="B357" t="s">
         <v>24</v>
       </c>
       <c r="C357" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D357" t="s">
         <v>19</v>
       </c>
       <c r="E357" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F357" t="n">
-        <v>0.652173913043478</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G357" t="n">
-        <v>0.975625922882146</v>
+        <v>0.992667112422782</v>
       </c>
       <c r="H357" t="n">
-        <v>2.5101527771021</v>
+        <v>2.86223232981409</v>
       </c>
       <c r="I357" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J357" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L357" t="s">
-        <v>418</v>
+        <v>17</v>
       </c>
       <c r="M357" t="s">
-        <v>284</v>
+        <v>415</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="B358" t="s">
         <v>24</v>
       </c>
       <c r="C358" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D358" t="s">
         <v>20</v>
       </c>
       <c r="E358" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F358" t="n">
-        <v>0.695652173913043</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G358" t="n">
-        <v>0.973389374053376</v>
+        <v>0.991612160712581</v>
       </c>
       <c r="H358" t="n">
-        <v>2.61021801855465</v>
+        <v>2.94813389984302</v>
       </c>
       <c r="I358" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J358" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L358" t="s">
-        <v>419</v>
+        <v>17</v>
       </c>
       <c r="M358" t="s">
-        <v>283</v>
+        <v>197</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="B359" t="s">
         <v>24</v>
       </c>
       <c r="C359" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D359" t="s">
         <v>21</v>
       </c>
       <c r="E359" t="n">
-        <v>0.823529411764706</v>
+        <v>1</v>
       </c>
       <c r="F359" t="n">
-        <v>0.608695652173913</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G359" t="n">
-        <v>0.98052757780659</v>
+        <v>0.990779396373095</v>
       </c>
       <c r="H359" t="n">
-        <v>2.41275264174521</v>
+        <v>2.94730113550353</v>
       </c>
       <c r="I359" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J359" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L359" t="s">
-        <v>420</v>
+        <v>17</v>
       </c>
       <c r="M359" t="s">
-        <v>279</v>
+        <v>197</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B360" t="s">
         <v>24</v>
       </c>
       <c r="C360" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D360" t="s">
         <v>16</v>
       </c>
       <c r="E360" t="n">
-        <v>1</v>
+        <v>0.8125</v>
       </c>
       <c r="F360" t="n">
-        <v>0.956521739130435</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="G360" t="n">
-        <v>0.991393511860473</v>
+        <v>0.982455205730869</v>
       </c>
       <c r="H360" t="n">
-        <v>2.94791525099091</v>
+        <v>2.36017259703522</v>
       </c>
       <c r="I360" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J360" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K360" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L360" t="s">
-        <v>17</v>
+        <v>425</v>
       </c>
       <c r="M360" t="s">
-        <v>197</v>
+        <v>412</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B361" t="s">
         <v>24</v>
       </c>
       <c r="C361" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D361" t="s">
         <v>18</v>
       </c>
       <c r="E361" t="n">
-        <v>1</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="F361" t="n">
-        <v>0.869565217391304</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="G361" t="n">
-        <v>0.993241595299258</v>
+        <v>0.980836158765712</v>
       </c>
       <c r="H361" t="n">
-        <v>2.86280681269056</v>
+        <v>2.41306122270433</v>
       </c>
       <c r="I361" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J361" t="n">
+        <v>9</v>
+      </c>
+      <c r="K361" t="n">
         <v>3</v>
       </c>
-      <c r="K361" t="n">
-        <v>0</v>
-      </c>
       <c r="L361" t="s">
-        <v>17</v>
+        <v>426</v>
       </c>
       <c r="M361" t="s">
-        <v>422</v>
+        <v>279</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B362" t="s">
         <v>24</v>
       </c>
       <c r="C362" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D362" t="s">
         <v>19</v>
       </c>
       <c r="E362" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F362" t="n">
-        <v>0.869565217391304</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G362" t="n">
-        <v>0.992924058046528</v>
+        <v>0.975625922882146</v>
       </c>
       <c r="H362" t="n">
-        <v>2.86248927543783</v>
+        <v>2.5101527771021</v>
       </c>
       <c r="I362" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J362" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L362" t="s">
-        <v>17</v>
+        <v>427</v>
       </c>
       <c r="M362" t="s">
-        <v>406</v>
+        <v>284</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B363" t="s">
         <v>24</v>
       </c>
       <c r="C363" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D363" t="s">
         <v>20</v>
       </c>
       <c r="E363" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F363" t="n">
-        <v>0.956521739130435</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G363" t="n">
-        <v>0.991691797521705</v>
+        <v>0.973389374053376</v>
       </c>
       <c r="H363" t="n">
-        <v>2.94821353665214</v>
+        <v>2.61021801855465</v>
       </c>
       <c r="I363" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J363" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L363" t="s">
-        <v>17</v>
+        <v>428</v>
       </c>
       <c r="M363" t="s">
-        <v>197</v>
+        <v>283</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B364" t="s">
         <v>24</v>
       </c>
       <c r="C364" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D364" t="s">
         <v>21</v>
       </c>
       <c r="E364" t="n">
-        <v>1</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="F364" t="n">
-        <v>0.956521739130435</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="G364" t="n">
-        <v>0.992100441492916</v>
+        <v>0.98052757780659</v>
       </c>
       <c r="H364" t="n">
-        <v>2.94862218062335</v>
+        <v>2.41275264174521</v>
       </c>
       <c r="I364" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J364" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K364" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L364" t="s">
-        <v>17</v>
+        <v>429</v>
       </c>
       <c r="M364" t="s">
-        <v>197</v>
+        <v>279</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B365" t="s">
         <v>24</v>
       </c>
       <c r="C365" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D365" t="s">
         <v>16</v>
       </c>
       <c r="E365" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F365" t="n">
-        <v>0.652173913043478</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G365" t="n">
-        <v>0.976296268907424</v>
+        <v>0.991393511860473</v>
       </c>
       <c r="H365" t="n">
-        <v>2.51082312312737</v>
+        <v>2.94791525099091</v>
       </c>
       <c r="I365" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J365" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L365" t="s">
-        <v>423</v>
+        <v>17</v>
       </c>
       <c r="M365" t="s">
-        <v>424</v>
+        <v>197</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B366" t="s">
         <v>24</v>
       </c>
       <c r="C366" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D366" t="s">
         <v>18</v>
       </c>
       <c r="E366" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F366" t="n">
-        <v>0.652173913043478</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G366" t="n">
-        <v>0.977360398600061</v>
+        <v>0.993241595299258</v>
       </c>
       <c r="H366" t="n">
-        <v>2.51188725282001</v>
+        <v>2.86280681269056</v>
       </c>
       <c r="I366" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J366" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L366" t="s">
-        <v>425</v>
+        <v>17</v>
       </c>
       <c r="M366" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B367" t="s">
         <v>24</v>
       </c>
       <c r="C367" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D367" t="s">
         <v>19</v>
       </c>
       <c r="E367" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F367" t="n">
-        <v>0.652173913043478</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G367" t="n">
-        <v>0.97657398148873</v>
+        <v>0.992924058046528</v>
       </c>
       <c r="H367" t="n">
-        <v>2.51110083570868</v>
+        <v>2.86248927543783</v>
       </c>
       <c r="I367" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J367" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L367" t="s">
-        <v>426</v>
+        <v>17</v>
       </c>
       <c r="M367" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B368" t="s">
         <v>24</v>
       </c>
       <c r="C368" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D368" t="s">
         <v>20</v>
       </c>
       <c r="E368" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F368" t="n">
-        <v>0.652173913043478</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G368" t="n">
-        <v>0.976936325427171</v>
+        <v>0.991691797521705</v>
       </c>
       <c r="H368" t="n">
-        <v>2.51146317964712</v>
+        <v>2.94821353665214</v>
       </c>
       <c r="I368" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J368" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L368" t="s">
-        <v>427</v>
+        <v>17</v>
       </c>
       <c r="M368" t="s">
-        <v>424</v>
+        <v>197</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B369" t="s">
         <v>24</v>
       </c>
       <c r="C369" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D369" t="s">
         <v>21</v>
       </c>
       <c r="E369" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="F369" t="n">
-        <v>0.652173913043478</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G369" t="n">
-        <v>0.968893405053583</v>
+        <v>0.992100441492916</v>
       </c>
       <c r="H369" t="n">
-        <v>2.55856731809706</v>
+        <v>2.94862218062335</v>
       </c>
       <c r="I369" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J369" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L369" t="s">
-        <v>428</v>
+        <v>17</v>
       </c>
       <c r="M369" t="s">
-        <v>424</v>
+        <v>197</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B370" t="s">
         <v>24</v>
       </c>
       <c r="C370" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D370" t="s">
         <v>16</v>
       </c>
       <c r="E370" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F370" t="n">
-        <v>0.956521739130435</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G370" t="n">
-        <v>0.990597277201894</v>
+        <v>0.976296268907424</v>
       </c>
       <c r="H370" t="n">
-        <v>2.94711901633233</v>
+        <v>2.51082312312737</v>
       </c>
       <c r="I370" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J370" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L370" t="s">
-        <v>17</v>
+        <v>432</v>
       </c>
       <c r="M370" t="s">
-        <v>197</v>
+        <v>433</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B371" t="s">
         <v>24</v>
       </c>
       <c r="C371" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D371" t="s">
         <v>18</v>
       </c>
       <c r="E371" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F371" t="n">
-        <v>0.956521739130435</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G371" t="n">
-        <v>0.991046107218368</v>
+        <v>0.977360398600061</v>
       </c>
       <c r="H371" t="n">
-        <v>2.9475678463488</v>
+        <v>2.51188725282001</v>
       </c>
       <c r="I371" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J371" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L371" t="s">
-        <v>17</v>
+        <v>434</v>
       </c>
       <c r="M371" t="s">
-        <v>197</v>
+        <v>433</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B372" t="s">
         <v>24</v>
       </c>
       <c r="C372" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D372" t="s">
         <v>19</v>
       </c>
       <c r="E372" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F372" t="n">
-        <v>0.91304347826087</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G372" t="n">
-        <v>0.991403655417583</v>
+        <v>0.97657398148873</v>
       </c>
       <c r="H372" t="n">
-        <v>2.90444713367845</v>
+        <v>2.51110083570868</v>
       </c>
       <c r="I372" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J372" t="n">
+        <v>8</v>
+      </c>
+      <c r="K372" t="n">
         <v>2</v>
       </c>
-      <c r="K372" t="n">
-        <v>0</v>
-      </c>
       <c r="L372" t="s">
-        <v>17</v>
+        <v>435</v>
       </c>
       <c r="M372" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B373" t="s">
         <v>24</v>
       </c>
       <c r="C373" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D373" t="s">
         <v>20</v>
       </c>
       <c r="E373" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F373" t="n">
-        <v>0.91304347826087</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G373" t="n">
-        <v>0.99099454526807</v>
+        <v>0.976936325427171</v>
       </c>
       <c r="H373" t="n">
-        <v>2.90403802352894</v>
+        <v>2.51146317964712</v>
       </c>
       <c r="I373" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J373" t="n">
+        <v>8</v>
+      </c>
+      <c r="K373" t="n">
         <v>2</v>
       </c>
-      <c r="K373" t="n">
-        <v>0</v>
-      </c>
       <c r="L373" t="s">
-        <v>17</v>
+        <v>436</v>
       </c>
       <c r="M373" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B374" t="s">
         <v>24</v>
       </c>
       <c r="C374" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D374" t="s">
         <v>21</v>
       </c>
       <c r="E374" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="F374" t="n">
-        <v>0.956521739130435</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G374" t="n">
-        <v>0.991133602097193</v>
+        <v>0.968893405053583</v>
       </c>
       <c r="H374" t="n">
-        <v>2.94765534122763</v>
+        <v>2.55856731809706</v>
       </c>
       <c r="I374" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J374" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L374" t="s">
-        <v>17</v>
+        <v>437</v>
       </c>
       <c r="M374" t="s">
-        <v>197</v>
+        <v>433</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B375" t="s">
         <v>24</v>
       </c>
       <c r="C375" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D375" t="s">
         <v>16</v>
       </c>
       <c r="E375" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F375" t="n">
-        <v>0.695652173913043</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G375" t="n">
-        <v>0.976487109891372</v>
+        <v>0.990597277201894</v>
       </c>
       <c r="H375" t="n">
-        <v>2.61331575439265</v>
+        <v>2.94711901633233</v>
       </c>
       <c r="I375" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J375" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L375" t="s">
-        <v>430</v>
+        <v>17</v>
       </c>
       <c r="M375" t="s">
-        <v>431</v>
+        <v>197</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B376" t="s">
         <v>24</v>
       </c>
       <c r="C376" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D376" t="s">
         <v>18</v>
       </c>
       <c r="E376" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="F376" t="n">
-        <v>0.652173913043478</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G376" t="n">
-        <v>0.9779183688069</v>
+        <v>0.991046107218368</v>
       </c>
       <c r="H376" t="n">
-        <v>2.56759228185038</v>
+        <v>2.9475678463488</v>
       </c>
       <c r="I376" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J376" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L376" t="s">
-        <v>432</v>
+        <v>17</v>
       </c>
       <c r="M376" t="s">
-        <v>424</v>
+        <v>197</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B377" t="s">
         <v>24</v>
       </c>
       <c r="C377" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D377" t="s">
         <v>19</v>
       </c>
       <c r="E377" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F377" t="n">
-        <v>0.695652173913043</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G377" t="n">
-        <v>0.975483357083556</v>
+        <v>0.991403655417583</v>
       </c>
       <c r="H377" t="n">
-        <v>2.61231200158483</v>
+        <v>2.90444713367845</v>
       </c>
       <c r="I377" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J377" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L377" t="s">
-        <v>433</v>
+        <v>17</v>
       </c>
       <c r="M377" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B378" t="s">
         <v>24</v>
       </c>
       <c r="C378" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D378" t="s">
         <v>20</v>
       </c>
       <c r="E378" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F378" t="n">
-        <v>0.695652173913043</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G378" t="n">
-        <v>0.976351562118241</v>
+        <v>0.99099454526807</v>
       </c>
       <c r="H378" t="n">
-        <v>2.61318020661952</v>
+        <v>2.90403802352894</v>
       </c>
       <c r="I378" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J378" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L378" t="s">
-        <v>428</v>
+        <v>17</v>
       </c>
       <c r="M378" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B379" t="s">
         <v>24</v>
       </c>
       <c r="C379" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D379" t="s">
         <v>21</v>
       </c>
       <c r="E379" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="F379" t="n">
-        <v>0.652173913043478</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G379" t="n">
-        <v>0.973421610883566</v>
+        <v>0.991133602097193</v>
       </c>
       <c r="H379" t="n">
-        <v>2.56309552392704</v>
+        <v>2.94765534122763</v>
       </c>
       <c r="I379" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J379" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L379" t="s">
-        <v>434</v>
+        <v>17</v>
       </c>
       <c r="M379" t="s">
-        <v>424</v>
+        <v>197</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B380" t="s">
         <v>24</v>
       </c>
       <c r="C380" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D380" t="s">
         <v>16</v>
       </c>
       <c r="E380" t="n">
-        <v>0.954545454545455</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F380" t="n">
-        <v>0.91304347826087</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G380" t="n">
-        <v>0.993845091788137</v>
+        <v>0.976487109891372</v>
       </c>
       <c r="H380" t="n">
-        <v>2.86143402459446</v>
+        <v>2.61331575439265</v>
       </c>
       <c r="I380" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J380" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K380" t="n">
         <v>1</v>
       </c>
       <c r="L380" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="M380" t="s">
-        <v>229</v>
+        <v>440</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B381" t="s">
         <v>24</v>
       </c>
       <c r="C381" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D381" t="s">
         <v>18</v>
       </c>
       <c r="E381" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="F381" t="n">
-        <v>0.91304347826087</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G381" t="n">
-        <v>0.993879546234839</v>
+        <v>0.9779183688069</v>
       </c>
       <c r="H381" t="n">
-        <v>2.90692302449571</v>
+        <v>2.56759228185038</v>
       </c>
       <c r="I381" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J381" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L381" t="s">
-        <v>17</v>
+        <v>441</v>
       </c>
       <c r="M381" t="s">
-        <v>229</v>
+        <v>433</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B382" t="s">
         <v>24</v>
       </c>
       <c r="C382" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D382" t="s">
         <v>19</v>
       </c>
       <c r="E382" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F382" t="n">
-        <v>0.869565217391304</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G382" t="n">
-        <v>0.993201272707718</v>
+        <v>0.975483357083556</v>
       </c>
       <c r="H382" t="n">
-        <v>2.86276649009902</v>
+        <v>2.61231200158483</v>
       </c>
       <c r="I382" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J382" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L382" t="s">
-        <v>17</v>
+        <v>442</v>
       </c>
       <c r="M382" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B383" t="s">
         <v>24</v>
       </c>
       <c r="C383" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D383" t="s">
         <v>20</v>
       </c>
       <c r="E383" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F383" t="n">
-        <v>0.869565217391304</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G383" t="n">
-        <v>0.993087666116515</v>
+        <v>0.976351562118241</v>
       </c>
       <c r="H383" t="n">
-        <v>2.86265288350782</v>
+        <v>2.61318020661952</v>
       </c>
       <c r="I383" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J383" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L383" t="s">
-        <v>17</v>
+        <v>437</v>
       </c>
       <c r="M383" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B384" t="s">
         <v>24</v>
       </c>
       <c r="C384" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D384" t="s">
         <v>21</v>
       </c>
       <c r="E384" t="n">
-        <v>0.952380952380952</v>
+        <v>0.9375</v>
       </c>
       <c r="F384" t="n">
-        <v>0.869565217391304</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G384" t="n">
-        <v>0.99308143289372</v>
+        <v>0.973421610883566</v>
       </c>
       <c r="H384" t="n">
-        <v>2.81502760266598</v>
+        <v>2.56309552392704</v>
       </c>
       <c r="I384" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J384" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K384" t="n">
         <v>1</v>
       </c>
       <c r="L384" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="M384" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B385" t="s">
         <v>24</v>
       </c>
       <c r="C385" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D385" t="s">
         <v>16</v>
       </c>
       <c r="E385" t="n">
-        <v>0.882352941176471</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="F385" t="n">
-        <v>0.652173913043478</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G385" t="n">
-        <v>0.981401992201469</v>
+        <v>0.993845091788137</v>
       </c>
       <c r="H385" t="n">
-        <v>2.51592884642142</v>
+        <v>2.86143402459446</v>
       </c>
       <c r="I385" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J385" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L385" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="M385" t="s">
-        <v>424</v>
+        <v>229</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B386" t="s">
         <v>24</v>
       </c>
       <c r="C386" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D386" t="s">
         <v>18</v>
       </c>
       <c r="E386" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="F386" t="n">
-        <v>0.652173913043478</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G386" t="n">
-        <v>0.97771723458661</v>
+        <v>0.993879546234839</v>
       </c>
       <c r="H386" t="n">
-        <v>2.56739114763009</v>
+        <v>2.90692302449571</v>
       </c>
       <c r="I386" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J386" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L386" t="s">
-        <v>428</v>
+        <v>17</v>
       </c>
       <c r="M386" t="s">
-        <v>424</v>
+        <v>229</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B387" t="s">
         <v>24</v>
       </c>
       <c r="C387" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D387" t="s">
         <v>19</v>
       </c>
       <c r="E387" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="F387" t="n">
-        <v>0.652173913043478</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G387" t="n">
-        <v>0.976164707491762</v>
+        <v>0.993201272707718</v>
       </c>
       <c r="H387" t="n">
-        <v>2.56583862053524</v>
+        <v>2.86276649009902</v>
       </c>
       <c r="I387" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J387" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L387" t="s">
-        <v>439</v>
+        <v>17</v>
       </c>
       <c r="M387" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B388" t="s">
         <v>24</v>
       </c>
       <c r="C388" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D388" t="s">
         <v>20</v>
       </c>
       <c r="E388" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F388" t="n">
-        <v>0.695652173913043</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G388" t="n">
-        <v>0.977253537901482</v>
+        <v>0.993087666116515</v>
       </c>
       <c r="H388" t="n">
-        <v>2.61408218240276</v>
+        <v>2.86265288350782</v>
       </c>
       <c r="I388" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J388" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L388" t="s">
-        <v>439</v>
+        <v>17</v>
       </c>
       <c r="M388" t="s">
         <v>431</v>
@@ -17678,2503 +17705,2708 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B389" t="s">
         <v>24</v>
       </c>
       <c r="C389" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D389" t="s">
         <v>21</v>
       </c>
       <c r="E389" t="n">
-        <v>0.894736842105263</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="F389" t="n">
-        <v>0.739130434782609</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G389" t="n">
-        <v>0.976471104714099</v>
+        <v>0.99308143289372</v>
       </c>
       <c r="H389" t="n">
-        <v>2.61033838160197</v>
+        <v>2.81502760266598</v>
       </c>
       <c r="I389" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J389" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L389" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="M389" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B390" t="s">
         <v>24</v>
       </c>
       <c r="C390" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D390" t="s">
         <v>16</v>
       </c>
       <c r="E390" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F390" t="n">
-        <v>0.826086956521739</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G390" t="n">
-        <v>0.992742397844905</v>
+        <v>0.981401992201469</v>
       </c>
       <c r="H390" t="n">
-        <v>2.81882935436664</v>
+        <v>2.51592884642142</v>
       </c>
       <c r="I390" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J390" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L390" t="s">
-        <v>17</v>
+        <v>447</v>
       </c>
       <c r="M390" t="s">
-        <v>314</v>
+        <v>433</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B391" t="s">
         <v>24</v>
       </c>
       <c r="C391" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D391" t="s">
         <v>18</v>
       </c>
       <c r="E391" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="F391" t="n">
-        <v>0.91304347826087</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G391" t="n">
-        <v>0.991839600464385</v>
+        <v>0.97771723458661</v>
       </c>
       <c r="H391" t="n">
-        <v>2.90488307872525</v>
+        <v>2.56739114763009</v>
       </c>
       <c r="I391" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J391" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L391" t="s">
-        <v>17</v>
+        <v>437</v>
       </c>
       <c r="M391" t="s">
-        <v>213</v>
+        <v>433</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B392" t="s">
         <v>24</v>
       </c>
       <c r="C392" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D392" t="s">
         <v>19</v>
       </c>
       <c r="E392" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="F392" t="n">
-        <v>0.869565217391304</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G392" t="n">
-        <v>0.99110061118696</v>
+        <v>0.976164707491762</v>
       </c>
       <c r="H392" t="n">
-        <v>2.86066582857826</v>
+        <v>2.56583862053524</v>
       </c>
       <c r="I392" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J392" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L392" t="s">
-        <v>17</v>
+        <v>448</v>
       </c>
       <c r="M392" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B393" t="s">
         <v>24</v>
       </c>
       <c r="C393" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D393" t="s">
         <v>20</v>
       </c>
       <c r="E393" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F393" t="n">
-        <v>0.869565217391304</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G393" t="n">
-        <v>0.992546768095352</v>
+        <v>0.977253537901482</v>
       </c>
       <c r="H393" t="n">
-        <v>2.86211198548666</v>
+        <v>2.61408218240276</v>
       </c>
       <c r="I393" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J393" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L393" t="s">
-        <v>17</v>
+        <v>448</v>
       </c>
       <c r="M393" t="s">
-        <v>316</v>
+        <v>440</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B394" t="s">
         <v>24</v>
       </c>
       <c r="C394" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D394" t="s">
         <v>21</v>
       </c>
       <c r="E394" t="n">
-        <v>1</v>
+        <v>0.894736842105263</v>
       </c>
       <c r="F394" t="n">
-        <v>0.826086956521739</v>
+        <v>0.739130434782609</v>
       </c>
       <c r="G394" t="n">
-        <v>0.992585477145439</v>
+        <v>0.976471104714099</v>
       </c>
       <c r="H394" t="n">
-        <v>2.81867243366718</v>
+        <v>2.61033838160197</v>
       </c>
       <c r="I394" t="n">
         <v>19</v>
       </c>
       <c r="J394" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L394" t="s">
-        <v>17</v>
+        <v>449</v>
       </c>
       <c r="M394" t="s">
-        <v>314</v>
+        <v>450</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B395" t="s">
         <v>24</v>
       </c>
       <c r="C395" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D395" t="s">
         <v>16</v>
       </c>
       <c r="E395" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="F395" t="n">
-        <v>0.652173913043478</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="G395" t="n">
-        <v>0.973801747856345</v>
+        <v>0.992742397844905</v>
       </c>
       <c r="H395" t="n">
-        <v>2.56347566089982</v>
+        <v>2.81882935436664</v>
       </c>
       <c r="I395" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J395" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L395" t="s">
-        <v>303</v>
+        <v>17</v>
       </c>
       <c r="M395" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B396" t="s">
         <v>24</v>
       </c>
       <c r="C396" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D396" t="s">
         <v>18</v>
       </c>
       <c r="E396" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="F396" t="n">
-        <v>0.652173913043478</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G396" t="n">
-        <v>0.976192100104706</v>
+        <v>0.991839600464385</v>
       </c>
       <c r="H396" t="n">
-        <v>2.56586601314818</v>
+        <v>2.90488307872525</v>
       </c>
       <c r="I396" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J396" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L396" t="s">
-        <v>444</v>
+        <v>17</v>
       </c>
       <c r="M396" t="s">
-        <v>284</v>
+        <v>213</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B397" t="s">
         <v>24</v>
       </c>
       <c r="C397" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D397" t="s">
         <v>19</v>
       </c>
       <c r="E397" t="n">
-        <v>0.888888888888889</v>
+        <v>1</v>
       </c>
       <c r="F397" t="n">
-        <v>0.695652173913043</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G397" t="n">
-        <v>0.977766562995692</v>
+        <v>0.99110061118696</v>
       </c>
       <c r="H397" t="n">
-        <v>2.56230762579762</v>
+        <v>2.86066582857826</v>
       </c>
       <c r="I397" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J397" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L397" t="s">
-        <v>445</v>
+        <v>17</v>
       </c>
       <c r="M397" t="s">
-        <v>283</v>
+        <v>452</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B398" t="s">
         <v>24</v>
       </c>
       <c r="C398" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D398" t="s">
         <v>20</v>
       </c>
       <c r="E398" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="F398" t="n">
-        <v>0.652173913043478</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G398" t="n">
-        <v>0.975207764381852</v>
+        <v>0.992546768095352</v>
       </c>
       <c r="H398" t="n">
-        <v>2.56488167742533</v>
+        <v>2.86211198548666</v>
       </c>
       <c r="I398" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J398" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L398" t="s">
-        <v>446</v>
+        <v>17</v>
       </c>
       <c r="M398" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B399" t="s">
         <v>24</v>
       </c>
       <c r="C399" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D399" t="s">
         <v>21</v>
       </c>
       <c r="E399" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="F399" t="n">
-        <v>0.652173913043478</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="G399" t="n">
-        <v>0.973492228280152</v>
+        <v>0.992585477145439</v>
       </c>
       <c r="H399" t="n">
-        <v>2.56316614132363</v>
+        <v>2.81867243366718</v>
       </c>
       <c r="I399" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J399" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L399" t="s">
-        <v>363</v>
+        <v>17</v>
       </c>
       <c r="M399" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B400" t="s">
         <v>24</v>
       </c>
       <c r="C400" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D400" t="s">
         <v>16</v>
       </c>
       <c r="E400" t="n">
-        <v>0.954545454545455</v>
+        <v>0.9375</v>
       </c>
       <c r="F400" t="n">
-        <v>0.91304347826087</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G400" t="n">
-        <v>0.989712271605722</v>
+        <v>0.973801747856345</v>
       </c>
       <c r="H400" t="n">
-        <v>2.85730120441205</v>
+        <v>2.56347566089982</v>
       </c>
       <c r="I400" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J400" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K400" t="n">
         <v>1</v>
       </c>
       <c r="L400" t="s">
-        <v>448</v>
+        <v>303</v>
       </c>
       <c r="M400" t="s">
-        <v>407</v>
+        <v>284</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B401" t="s">
         <v>24</v>
       </c>
       <c r="C401" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D401" t="s">
         <v>18</v>
       </c>
       <c r="E401" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="F401" t="n">
-        <v>0.91304347826087</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G401" t="n">
-        <v>0.9921090625084</v>
+        <v>0.976192100104706</v>
       </c>
       <c r="H401" t="n">
-        <v>2.90515254076927</v>
+        <v>2.56586601314818</v>
       </c>
       <c r="I401" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J401" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L401" t="s">
-        <v>17</v>
+        <v>453</v>
       </c>
       <c r="M401" t="s">
-        <v>399</v>
+        <v>284</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B402" t="s">
         <v>24</v>
       </c>
       <c r="C402" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D402" t="s">
         <v>19</v>
       </c>
       <c r="E402" t="n">
-        <v>1</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="F402" t="n">
-        <v>0.956521739130435</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G402" t="n">
-        <v>0.991243675301412</v>
+        <v>0.977766562995692</v>
       </c>
       <c r="H402" t="n">
-        <v>2.94776541443185</v>
+        <v>2.56230762579762</v>
       </c>
       <c r="I402" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J402" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L402" t="s">
-        <v>17</v>
+        <v>454</v>
       </c>
       <c r="M402" t="s">
-        <v>197</v>
+        <v>283</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B403" t="s">
         <v>24</v>
       </c>
       <c r="C403" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D403" t="s">
         <v>20</v>
       </c>
       <c r="E403" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="F403" t="n">
-        <v>0.91304347826087</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G403" t="n">
-        <v>0.991714239057082</v>
+        <v>0.975207764381852</v>
       </c>
       <c r="H403" t="n">
-        <v>2.90475771731795</v>
+        <v>2.56488167742533</v>
       </c>
       <c r="I403" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J403" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L403" t="s">
-        <v>17</v>
+        <v>455</v>
       </c>
       <c r="M403" t="s">
-        <v>399</v>
+        <v>284</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B404" t="s">
         <v>24</v>
       </c>
       <c r="C404" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D404" t="s">
         <v>21</v>
       </c>
       <c r="E404" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="F404" t="n">
-        <v>0.869565217391304</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G404" t="n">
-        <v>0.992224767330115</v>
+        <v>0.973492228280152</v>
       </c>
       <c r="H404" t="n">
-        <v>2.86178998472142</v>
+        <v>2.56316614132363</v>
       </c>
       <c r="I404" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J404" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L404" t="s">
-        <v>17</v>
+        <v>372</v>
       </c>
       <c r="M404" t="s">
-        <v>406</v>
+        <v>284</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="B405" t="s">
         <v>24</v>
       </c>
       <c r="C405" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D405" t="s">
         <v>16</v>
       </c>
       <c r="E405" t="n">
-        <v>0.941176470588235</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="F405" t="n">
-        <v>0.695652173913043</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G405" t="n">
-        <v>0.974575049675258</v>
+        <v>0.989712271605722</v>
       </c>
       <c r="H405" t="n">
-        <v>2.61140369417654</v>
+        <v>2.85730120441205</v>
       </c>
       <c r="I405" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J405" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K405" t="n">
         <v>1</v>
       </c>
       <c r="L405" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="M405" t="s">
-        <v>283</v>
+        <v>416</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="B406" t="s">
         <v>24</v>
       </c>
       <c r="C406" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D406" t="s">
         <v>18</v>
       </c>
       <c r="E406" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F406" t="n">
-        <v>0.695652173913043</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G406" t="n">
-        <v>0.974895526808934</v>
+        <v>0.9921090625084</v>
       </c>
       <c r="H406" t="n">
-        <v>2.61172417131021</v>
+        <v>2.90515254076927</v>
       </c>
       <c r="I406" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J406" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L406" t="s">
-        <v>301</v>
+        <v>17</v>
       </c>
       <c r="M406" t="s">
-        <v>283</v>
+        <v>408</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="B407" t="s">
         <v>24</v>
       </c>
       <c r="C407" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D407" t="s">
         <v>19</v>
       </c>
       <c r="E407" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="F407" t="n">
-        <v>0.608695652173913</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G407" t="n">
-        <v>0.975693686281206</v>
+        <v>0.991243675301412</v>
       </c>
       <c r="H407" t="n">
-        <v>2.45938933845512</v>
+        <v>2.94776541443185</v>
       </c>
       <c r="I407" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J407" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L407" t="s">
-        <v>450</v>
+        <v>17</v>
       </c>
       <c r="M407" t="s">
-        <v>413</v>
+        <v>197</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="B408" t="s">
         <v>24</v>
       </c>
       <c r="C408" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D408" t="s">
         <v>20</v>
       </c>
       <c r="E408" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F408" t="n">
-        <v>0.695652173913043</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G408" t="n">
-        <v>0.973040799397876</v>
+        <v>0.991714239057082</v>
       </c>
       <c r="H408" t="n">
-        <v>2.60986944389915</v>
+        <v>2.90475771731795</v>
       </c>
       <c r="I408" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J408" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L408" t="s">
-        <v>404</v>
+        <v>17</v>
       </c>
       <c r="M408" t="s">
-        <v>283</v>
+        <v>408</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="B409" t="s">
         <v>24</v>
       </c>
       <c r="C409" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D409" t="s">
         <v>21</v>
       </c>
       <c r="E409" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="F409" t="n">
-        <v>0.608695652173913</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G409" t="n">
-        <v>0.973098819962078</v>
+        <v>0.992224767330115</v>
       </c>
       <c r="H409" t="n">
-        <v>2.45679447213599</v>
+        <v>2.86178998472142</v>
       </c>
       <c r="I409" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J409" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L409" t="s">
-        <v>451</v>
+        <v>17</v>
       </c>
       <c r="M409" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B410" t="s">
         <v>24</v>
       </c>
       <c r="C410" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D410" t="s">
         <v>16</v>
       </c>
       <c r="E410" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F410" t="n">
-        <v>0.869565217391304</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G410" t="n">
-        <v>0.992762970073201</v>
+        <v>0.974575049675258</v>
       </c>
       <c r="H410" t="n">
-        <v>2.86232818746451</v>
+        <v>2.61140369417654</v>
       </c>
       <c r="I410" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J410" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L410" t="s">
-        <v>17</v>
+        <v>458</v>
       </c>
       <c r="M410" t="s">
-        <v>406</v>
+        <v>283</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B411" t="s">
         <v>24</v>
       </c>
       <c r="C411" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D411" t="s">
         <v>18</v>
       </c>
       <c r="E411" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F411" t="n">
-        <v>0.91304347826087</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G411" t="n">
-        <v>0.990799635833281</v>
+        <v>0.974895526808934</v>
       </c>
       <c r="H411" t="n">
-        <v>2.90384311409415</v>
+        <v>2.61172417131021</v>
       </c>
       <c r="I411" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J411" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L411" t="s">
-        <v>17</v>
+        <v>301</v>
       </c>
       <c r="M411" t="s">
-        <v>407</v>
+        <v>283</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B412" t="s">
         <v>24</v>
       </c>
       <c r="C412" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D412" t="s">
         <v>19</v>
       </c>
       <c r="E412" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="F412" t="n">
-        <v>0.91304347826087</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="G412" t="n">
-        <v>0.990599326802663</v>
+        <v>0.975693686281206</v>
       </c>
       <c r="H412" t="n">
-        <v>2.90364280506353</v>
+        <v>2.45938933845512</v>
       </c>
       <c r="I412" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J412" t="n">
+        <v>9</v>
+      </c>
+      <c r="K412" t="n">
         <v>2</v>
       </c>
-      <c r="K412" t="n">
-        <v>0</v>
-      </c>
       <c r="L412" t="s">
-        <v>17</v>
+        <v>459</v>
       </c>
       <c r="M412" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B413" t="s">
         <v>24</v>
       </c>
       <c r="C413" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D413" t="s">
         <v>20</v>
       </c>
       <c r="E413" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F413" t="n">
-        <v>0.91304347826087</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G413" t="n">
-        <v>0.991061187225022</v>
+        <v>0.973040799397876</v>
       </c>
       <c r="H413" t="n">
-        <v>2.90410466548589</v>
+        <v>2.60986944389915</v>
       </c>
       <c r="I413" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J413" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L413" t="s">
-        <v>17</v>
+        <v>413</v>
       </c>
       <c r="M413" t="s">
-        <v>407</v>
+        <v>283</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B414" t="s">
         <v>24</v>
       </c>
       <c r="C414" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D414" t="s">
         <v>21</v>
       </c>
       <c r="E414" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="F414" t="n">
-        <v>0.956521739130435</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="G414" t="n">
-        <v>0.990381361388397</v>
+        <v>0.973098819962078</v>
       </c>
       <c r="H414" t="n">
-        <v>2.94690310051883</v>
+        <v>2.45679447213599</v>
       </c>
       <c r="I414" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J414" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L414" t="s">
-        <v>17</v>
+        <v>460</v>
       </c>
       <c r="M414" t="s">
-        <v>197</v>
+        <v>422</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B415" t="s">
         <v>24</v>
       </c>
       <c r="C415" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D415" t="s">
         <v>16</v>
       </c>
       <c r="E415" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F415" t="n">
-        <v>0.652173913043478</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G415" t="n">
-        <v>0.975101456004009</v>
+        <v>0.992762970073201</v>
       </c>
       <c r="H415" t="n">
-        <v>2.50962831022396</v>
+        <v>2.86232818746451</v>
       </c>
       <c r="I415" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J415" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L415" t="s">
-        <v>453</v>
+        <v>17</v>
       </c>
       <c r="M415" t="s">
-        <v>284</v>
+        <v>415</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B416" t="s">
         <v>24</v>
       </c>
       <c r="C416" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D416" t="s">
         <v>18</v>
       </c>
       <c r="E416" t="n">
-        <v>0.8125</v>
+        <v>1</v>
       </c>
       <c r="F416" t="n">
-        <v>0.565217391304348</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G416" t="n">
-        <v>0.983567309707861</v>
+        <v>0.990799635833281</v>
       </c>
       <c r="H416" t="n">
-        <v>2.36128470101221</v>
+        <v>2.90384311409415</v>
       </c>
       <c r="I416" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J416" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K416" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L416" t="s">
-        <v>454</v>
+        <v>17</v>
       </c>
       <c r="M416" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B417" t="s">
         <v>24</v>
       </c>
       <c r="C417" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D417" t="s">
         <v>19</v>
       </c>
       <c r="E417" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F417" t="n">
-        <v>0.652173913043478</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G417" t="n">
-        <v>0.974552868569169</v>
+        <v>0.990599326802663</v>
       </c>
       <c r="H417" t="n">
-        <v>2.50907972278912</v>
+        <v>2.90364280506353</v>
       </c>
       <c r="I417" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J417" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L417" t="s">
-        <v>455</v>
+        <v>17</v>
       </c>
       <c r="M417" t="s">
-        <v>284</v>
+        <v>416</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B418" t="s">
         <v>24</v>
       </c>
       <c r="C418" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D418" t="s">
         <v>20</v>
       </c>
       <c r="E418" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F418" t="n">
-        <v>0.695652173913043</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G418" t="n">
-        <v>0.972477245883045</v>
+        <v>0.991061187225022</v>
       </c>
       <c r="H418" t="n">
-        <v>2.60930589038432</v>
+        <v>2.90410466548589</v>
       </c>
       <c r="I418" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J418" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L418" t="s">
-        <v>456</v>
+        <v>17</v>
       </c>
       <c r="M418" t="s">
-        <v>283</v>
+        <v>416</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B419" t="s">
         <v>24</v>
       </c>
       <c r="C419" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D419" t="s">
         <v>21</v>
       </c>
       <c r="E419" t="n">
-        <v>0.8125</v>
+        <v>1</v>
       </c>
       <c r="F419" t="n">
-        <v>0.565217391304348</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G419" t="n">
-        <v>0.978448046030543</v>
+        <v>0.990381361388397</v>
       </c>
       <c r="H419" t="n">
-        <v>2.35616543733489</v>
+        <v>2.94690310051883</v>
       </c>
       <c r="I419" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J419" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K419" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L419" t="s">
-        <v>457</v>
+        <v>17</v>
       </c>
       <c r="M419" t="s">
-        <v>403</v>
+        <v>197</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B420" t="s">
         <v>24</v>
       </c>
       <c r="C420" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D420" t="s">
         <v>16</v>
       </c>
       <c r="E420" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F420" t="n">
-        <v>0.91304347826087</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G420" t="n">
-        <v>0.989827856335905</v>
+        <v>0.975101456004009</v>
       </c>
       <c r="H420" t="n">
-        <v>2.90287133459677</v>
+        <v>2.50962831022396</v>
       </c>
       <c r="I420" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J420" t="n">
+        <v>8</v>
+      </c>
+      <c r="K420" t="n">
         <v>2</v>
       </c>
-      <c r="K420" t="n">
-        <v>0</v>
-      </c>
       <c r="L420" t="s">
-        <v>17</v>
+        <v>462</v>
       </c>
       <c r="M420" t="s">
-        <v>407</v>
+        <v>284</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B421" t="s">
         <v>24</v>
       </c>
       <c r="C421" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D421" t="s">
         <v>18</v>
       </c>
       <c r="E421" t="n">
-        <v>1</v>
+        <v>0.8125</v>
       </c>
       <c r="F421" t="n">
-        <v>0.869565217391304</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="G421" t="n">
-        <v>0.992476582657805</v>
+        <v>0.983567309707861</v>
       </c>
       <c r="H421" t="n">
-        <v>2.86204180004911</v>
+        <v>2.36128470101221</v>
       </c>
       <c r="I421" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J421" t="n">
+        <v>10</v>
+      </c>
+      <c r="K421" t="n">
         <v>3</v>
       </c>
-      <c r="K421" t="n">
-        <v>0</v>
-      </c>
       <c r="L421" t="s">
-        <v>17</v>
+        <v>463</v>
       </c>
       <c r="M421" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B422" t="s">
         <v>24</v>
       </c>
       <c r="C422" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D422" t="s">
         <v>19</v>
       </c>
       <c r="E422" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F422" t="n">
-        <v>0.91304347826087</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G422" t="n">
-        <v>0.992254890690891</v>
+        <v>0.974552868569169</v>
       </c>
       <c r="H422" t="n">
-        <v>2.90529836895176</v>
+        <v>2.50907972278912</v>
       </c>
       <c r="I422" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J422" t="n">
+        <v>8</v>
+      </c>
+      <c r="K422" t="n">
         <v>2</v>
       </c>
-      <c r="K422" t="n">
-        <v>0</v>
-      </c>
       <c r="L422" t="s">
-        <v>17</v>
+        <v>464</v>
       </c>
       <c r="M422" t="s">
-        <v>399</v>
+        <v>284</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B423" t="s">
         <v>24</v>
       </c>
       <c r="C423" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D423" t="s">
         <v>20</v>
       </c>
       <c r="E423" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="F423" t="n">
-        <v>0.91304347826087</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="G423" t="n">
-        <v>0.992387753655739</v>
+        <v>0.972477245883045</v>
       </c>
       <c r="H423" t="n">
-        <v>2.90543123191661</v>
+        <v>2.60930589038432</v>
       </c>
       <c r="I423" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J423" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L423" t="s">
-        <v>17</v>
+        <v>465</v>
       </c>
       <c r="M423" t="s">
-        <v>399</v>
+        <v>283</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B424" t="s">
         <v>24</v>
       </c>
       <c r="C424" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D424" t="s">
         <v>21</v>
       </c>
       <c r="E424" t="n">
-        <v>1</v>
+        <v>0.8125</v>
       </c>
       <c r="F424" t="n">
-        <v>0.869565217391304</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="G424" t="n">
-        <v>0.994277498162384</v>
+        <v>0.978448046030543</v>
       </c>
       <c r="H424" t="n">
-        <v>2.86384271555369</v>
+        <v>2.35616543733489</v>
       </c>
       <c r="I424" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J424" t="n">
+        <v>10</v>
+      </c>
+      <c r="K424" t="n">
         <v>3</v>
       </c>
-      <c r="K424" t="n">
-        <v>0</v>
-      </c>
       <c r="L424" t="s">
-        <v>17</v>
+        <v>466</v>
       </c>
       <c r="M424" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="B425" t="s">
         <v>24</v>
       </c>
       <c r="C425" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D425" t="s">
         <v>16</v>
       </c>
       <c r="E425" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F425" t="n">
-        <v>0.652173913043478</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G425" t="n">
-        <v>0.976060819795989</v>
+        <v>0.989827856335905</v>
       </c>
       <c r="H425" t="n">
-        <v>2.51058767401594</v>
+        <v>2.90287133459677</v>
       </c>
       <c r="I425" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J425" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L425" t="s">
-        <v>460</v>
+        <v>17</v>
       </c>
       <c r="M425" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="B426" t="s">
         <v>24</v>
       </c>
       <c r="C426" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D426" t="s">
         <v>18</v>
       </c>
       <c r="E426" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F426" t="n">
-        <v>0.652173913043478</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G426" t="n">
-        <v>0.976983468545181</v>
+        <v>0.992476582657805</v>
       </c>
       <c r="H426" t="n">
-        <v>2.51151032276513</v>
+        <v>2.86204180004911</v>
       </c>
       <c r="I426" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J426" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L426" t="s">
-        <v>461</v>
+        <v>17</v>
       </c>
       <c r="M426" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="B427" t="s">
         <v>24</v>
       </c>
       <c r="C427" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D427" t="s">
         <v>19</v>
       </c>
       <c r="E427" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F427" t="n">
-        <v>0.652173913043478</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G427" t="n">
-        <v>0.976450200887312</v>
+        <v>0.992254890690891</v>
       </c>
       <c r="H427" t="n">
-        <v>2.51097705510726</v>
+        <v>2.90529836895176</v>
       </c>
       <c r="I427" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J427" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L427" t="s">
-        <v>462</v>
+        <v>17</v>
       </c>
       <c r="M427" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="B428" t="s">
         <v>24</v>
       </c>
       <c r="C428" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D428" t="s">
         <v>20</v>
       </c>
       <c r="E428" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F428" t="n">
-        <v>0.652173913043478</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G428" t="n">
-        <v>0.976952063004422</v>
+        <v>0.992387753655739</v>
       </c>
       <c r="H428" t="n">
-        <v>2.51147891722437</v>
+        <v>2.90543123191661</v>
       </c>
       <c r="I428" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J428" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L428" t="s">
-        <v>463</v>
+        <v>17</v>
       </c>
       <c r="M428" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="B429" t="s">
         <v>24</v>
       </c>
       <c r="C429" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D429" t="s">
         <v>21</v>
       </c>
       <c r="E429" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="F429" t="n">
-        <v>0.608695652173913</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G429" t="n">
-        <v>0.976684011639814</v>
+        <v>0.994277498162384</v>
       </c>
       <c r="H429" t="n">
-        <v>2.46037966381373</v>
+        <v>2.86384271555369</v>
       </c>
       <c r="I429" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J429" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L429" t="s">
-        <v>464</v>
+        <v>17</v>
       </c>
       <c r="M429" t="s">
-        <v>279</v>
+        <v>468</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B430" t="s">
         <v>24</v>
       </c>
       <c r="C430" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D430" t="s">
         <v>16</v>
       </c>
       <c r="E430" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F430" t="n">
-        <v>0.869565217391304</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G430" t="n">
-        <v>0.992908162677956</v>
+        <v>0.976060819795989</v>
       </c>
       <c r="H430" t="n">
-        <v>2.86247338006926</v>
+        <v>2.51058767401594</v>
       </c>
       <c r="I430" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J430" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L430" t="s">
-        <v>17</v>
+        <v>469</v>
       </c>
       <c r="M430" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B431" t="s">
         <v>24</v>
       </c>
       <c r="C431" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D431" t="s">
         <v>18</v>
       </c>
       <c r="E431" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F431" t="n">
-        <v>0.869565217391304</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G431" t="n">
-        <v>0.992772721200033</v>
+        <v>0.976983468545181</v>
       </c>
       <c r="H431" t="n">
-        <v>2.86233793859134</v>
+        <v>2.51151032276513</v>
       </c>
       <c r="I431" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J431" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L431" t="s">
-        <v>17</v>
+        <v>470</v>
       </c>
       <c r="M431" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B432" t="s">
         <v>24</v>
       </c>
       <c r="C432" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D432" t="s">
         <v>19</v>
       </c>
       <c r="E432" t="n">
-        <v>0.952380952380952</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F432" t="n">
-        <v>0.869565217391304</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G432" t="n">
-        <v>0.992946354161036</v>
+        <v>0.976450200887312</v>
       </c>
       <c r="H432" t="n">
-        <v>2.81489252393329</v>
+        <v>2.51097705510726</v>
       </c>
       <c r="I432" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J432" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L432" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="M432" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B433" t="s">
         <v>24</v>
       </c>
       <c r="C433" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D433" t="s">
         <v>20</v>
       </c>
       <c r="E433" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F433" t="n">
-        <v>0.956521739130435</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G433" t="n">
-        <v>0.991673576254434</v>
+        <v>0.976952063004422</v>
       </c>
       <c r="H433" t="n">
-        <v>2.94819531538487</v>
+        <v>2.51147891722437</v>
       </c>
       <c r="I433" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J433" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L433" t="s">
-        <v>17</v>
+        <v>472</v>
       </c>
       <c r="M433" t="s">
-        <v>197</v>
+        <v>433</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B434" t="s">
         <v>24</v>
       </c>
       <c r="C434" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D434" t="s">
         <v>21</v>
       </c>
       <c r="E434" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="F434" t="n">
-        <v>0.869565217391304</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="G434" t="n">
-        <v>0.992757775238853</v>
+        <v>0.976684011639814</v>
       </c>
       <c r="H434" t="n">
-        <v>2.86232299263016</v>
+        <v>2.46037966381373</v>
       </c>
       <c r="I434" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J434" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L434" t="s">
-        <v>17</v>
+        <v>473</v>
       </c>
       <c r="M434" t="s">
-        <v>406</v>
+        <v>279</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B435" t="s">
         <v>24</v>
       </c>
       <c r="C435" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D435" t="s">
         <v>16</v>
       </c>
       <c r="E435" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F435" t="n">
-        <v>0.652173913043478</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G435" t="n">
-        <v>0.980198477684578</v>
+        <v>0.992908162677956</v>
       </c>
       <c r="H435" t="n">
-        <v>2.51472533190453</v>
+        <v>2.86247338006926</v>
       </c>
       <c r="I435" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J435" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L435" t="s">
-        <v>467</v>
+        <v>17</v>
       </c>
       <c r="M435" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B436" t="s">
         <v>24</v>
       </c>
       <c r="C436" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D436" t="s">
         <v>18</v>
       </c>
       <c r="E436" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F436" t="n">
-        <v>0.652173913043478</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G436" t="n">
-        <v>0.980241125608527</v>
+        <v>0.992772721200033</v>
       </c>
       <c r="H436" t="n">
-        <v>2.51476797982848</v>
+        <v>2.86233793859134</v>
       </c>
       <c r="I436" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J436" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L436" t="s">
-        <v>468</v>
+        <v>17</v>
       </c>
       <c r="M436" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B437" t="s">
         <v>24</v>
       </c>
       <c r="C437" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D437" t="s">
         <v>19</v>
       </c>
       <c r="E437" t="n">
-        <v>0.882352941176471</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="F437" t="n">
-        <v>0.652173913043478</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G437" t="n">
-        <v>0.979971962773372</v>
+        <v>0.992946354161036</v>
       </c>
       <c r="H437" t="n">
-        <v>2.51449881699332</v>
+        <v>2.81489252393329</v>
       </c>
       <c r="I437" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J437" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L437" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="M437" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B438" t="s">
         <v>24</v>
       </c>
       <c r="C438" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D438" t="s">
         <v>20</v>
       </c>
       <c r="E438" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F438" t="n">
-        <v>0.652173913043478</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G438" t="n">
-        <v>0.980613717319845</v>
+        <v>0.991673576254434</v>
       </c>
       <c r="H438" t="n">
-        <v>2.51514057153979</v>
+        <v>2.94819531538487</v>
       </c>
       <c r="I438" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J438" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L438" t="s">
-        <v>470</v>
+        <v>17</v>
       </c>
       <c r="M438" t="s">
-        <v>424</v>
+        <v>197</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B439" t="s">
         <v>24</v>
       </c>
       <c r="C439" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D439" t="s">
         <v>21</v>
       </c>
       <c r="E439" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="F439" t="n">
-        <v>0.652173913043478</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G439" t="n">
-        <v>0.973985091333978</v>
+        <v>0.992757775238853</v>
       </c>
       <c r="H439" t="n">
-        <v>2.56365900437746</v>
+        <v>2.86232299263016</v>
       </c>
       <c r="I439" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J439" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L439" t="s">
-        <v>363</v>
+        <v>17</v>
       </c>
       <c r="M439" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B440" t="s">
         <v>24</v>
       </c>
       <c r="C440" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D440" t="s">
         <v>16</v>
       </c>
       <c r="E440" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F440" t="n">
-        <v>0.956521739130435</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G440" t="n">
-        <v>0.99099485982201</v>
+        <v>0.980198477684578</v>
       </c>
       <c r="H440" t="n">
-        <v>2.94751659895244</v>
+        <v>2.51472533190453</v>
       </c>
       <c r="I440" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J440" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L440" t="s">
-        <v>17</v>
+        <v>476</v>
       </c>
       <c r="M440" t="s">
-        <v>197</v>
+        <v>433</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B441" t="s">
         <v>24</v>
       </c>
       <c r="C441" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D441" t="s">
         <v>18</v>
       </c>
       <c r="E441" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F441" t="n">
-        <v>0.956521739130435</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G441" t="n">
-        <v>0.991938147959048</v>
+        <v>0.980241125608527</v>
       </c>
       <c r="H441" t="n">
-        <v>2.94845988708948</v>
+        <v>2.51476797982848</v>
       </c>
       <c r="I441" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J441" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L441" t="s">
-        <v>17</v>
+        <v>477</v>
       </c>
       <c r="M441" t="s">
-        <v>197</v>
+        <v>433</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B442" t="s">
         <v>24</v>
       </c>
       <c r="C442" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D442" t="s">
         <v>19</v>
       </c>
       <c r="E442" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F442" t="n">
-        <v>0.91304347826087</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G442" t="n">
-        <v>0.992567167650313</v>
+        <v>0.979971962773372</v>
       </c>
       <c r="H442" t="n">
-        <v>2.90561064591118</v>
+        <v>2.51449881699332</v>
       </c>
       <c r="I442" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J442" t="n">
+        <v>8</v>
+      </c>
+      <c r="K442" t="n">
         <v>2</v>
       </c>
-      <c r="K442" t="n">
-        <v>0</v>
-      </c>
       <c r="L442" t="s">
-        <v>17</v>
+        <v>478</v>
       </c>
       <c r="M442" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B443" t="s">
         <v>24</v>
       </c>
       <c r="C443" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D443" t="s">
         <v>20</v>
       </c>
       <c r="E443" t="n">
-        <v>1</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F443" t="n">
-        <v>0.869565217391304</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G443" t="n">
-        <v>0.992745123999817</v>
+        <v>0.980613717319845</v>
       </c>
       <c r="H443" t="n">
-        <v>2.86231034139112</v>
+        <v>2.51514057153979</v>
       </c>
       <c r="I443" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J443" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L443" t="s">
-        <v>17</v>
+        <v>479</v>
       </c>
       <c r="M443" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B444" t="s">
         <v>24</v>
       </c>
       <c r="C444" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D444" t="s">
         <v>21</v>
       </c>
       <c r="E444" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="F444" t="n">
-        <v>0.956521739130435</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="G444" t="n">
-        <v>0.991452216580784</v>
+        <v>0.973985091333978</v>
       </c>
       <c r="H444" t="n">
-        <v>2.94797395571122</v>
+        <v>2.56365900437746</v>
       </c>
       <c r="I444" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J444" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L444" t="s">
-        <v>17</v>
+        <v>372</v>
       </c>
       <c r="M444" t="s">
-        <v>197</v>
+        <v>433</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="B445" t="s">
         <v>24</v>
       </c>
       <c r="C445" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D445" t="s">
         <v>16</v>
       </c>
       <c r="E445" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F445" t="n">
-        <v>0.652173913043478</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G445" t="n">
-        <v>0.980500497144674</v>
+        <v>0.99099485982201</v>
       </c>
       <c r="H445" t="n">
-        <v>2.51502735136462</v>
+        <v>2.94751659895244</v>
       </c>
       <c r="I445" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J445" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L445" t="s">
-        <v>472</v>
+        <v>17</v>
       </c>
       <c r="M445" t="s">
-        <v>424</v>
+        <v>197</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="B446" t="s">
         <v>24</v>
       </c>
       <c r="C446" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D446" t="s">
         <v>18</v>
       </c>
       <c r="E446" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="F446" t="n">
-        <v>0.652173913043478</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="G446" t="n">
-        <v>0.977954644864924</v>
+        <v>0.991938147959048</v>
       </c>
       <c r="H446" t="n">
-        <v>2.5676285579084</v>
+        <v>2.94845988708948</v>
       </c>
       <c r="I446" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J446" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L446" t="s">
-        <v>363</v>
+        <v>17</v>
       </c>
       <c r="M446" t="s">
-        <v>424</v>
+        <v>197</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="B447" t="s">
         <v>24</v>
       </c>
       <c r="C447" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D447" t="s">
         <v>19</v>
       </c>
       <c r="E447" t="n">
-        <v>0.882352941176471</v>
+        <v>1</v>
       </c>
       <c r="F447" t="n">
-        <v>0.652173913043478</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="G447" t="n">
-        <v>0.980247374064941</v>
+        <v>0.992567167650313</v>
       </c>
       <c r="H447" t="n">
-        <v>2.51477422828489</v>
+        <v>2.90561064591118</v>
       </c>
       <c r="I447" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J447" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L447" t="s">
-        <v>473</v>
+        <v>17</v>
       </c>
       <c r="M447" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="B448" t="s">
         <v>24</v>
       </c>
       <c r="C448" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D448" t="s">
         <v>20</v>
       </c>
       <c r="E448" t="n">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="F448" t="n">
-        <v>0.695652173913043</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="G448" t="n">
-        <v>0.977770957063671</v>
+        <v>0.992745123999817</v>
       </c>
       <c r="H448" t="n">
-        <v>2.61459960156495</v>
+        <v>2.86231034139112</v>
       </c>
       <c r="I448" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J448" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L448" t="s">
-        <v>439</v>
+        <v>17</v>
       </c>
       <c r="M448" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="B449" t="s">
         <v>24</v>
       </c>
       <c r="C449" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D449" t="s">
         <v>21</v>
       </c>
       <c r="E449" t="n">
+        <v>1</v>
+      </c>
+      <c r="F449" t="n">
+        <v>0.956521739130435</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.991452216580784</v>
+      </c>
+      <c r="H449" t="n">
+        <v>2.94797395571122</v>
+      </c>
+      <c r="I449" t="n">
+        <v>22</v>
+      </c>
+      <c r="J449" t="n">
+        <v>1</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0</v>
+      </c>
+      <c r="L449" t="s">
+        <v>17</v>
+      </c>
+      <c r="M449" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>480</v>
+      </c>
+      <c r="B450" t="s">
+        <v>24</v>
+      </c>
+      <c r="C450" t="s">
+        <v>82</v>
+      </c>
+      <c r="D450" t="s">
+        <v>16</v>
+      </c>
+      <c r="E450" t="n">
+        <v>0.882352941176471</v>
+      </c>
+      <c r="F450" t="n">
+        <v>0.652173913043478</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.980500497144674</v>
+      </c>
+      <c r="H450" t="n">
+        <v>2.51502735136462</v>
+      </c>
+      <c r="I450" t="n">
+        <v>17</v>
+      </c>
+      <c r="J450" t="n">
+        <v>8</v>
+      </c>
+      <c r="K450" t="n">
+        <v>2</v>
+      </c>
+      <c r="L450" t="s">
+        <v>481</v>
+      </c>
+      <c r="M450" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>480</v>
+      </c>
+      <c r="B451" t="s">
+        <v>24</v>
+      </c>
+      <c r="C451" t="s">
+        <v>82</v>
+      </c>
+      <c r="D451" t="s">
+        <v>18</v>
+      </c>
+      <c r="E451" t="n">
         <v>0.9375</v>
       </c>
-      <c r="F449" t="n">
+      <c r="F451" t="n">
         <v>0.652173913043478</v>
       </c>
-      <c r="G449" t="n">
+      <c r="G451" t="n">
+        <v>0.977954644864924</v>
+      </c>
+      <c r="H451" t="n">
+        <v>2.5676285579084</v>
+      </c>
+      <c r="I451" t="n">
+        <v>16</v>
+      </c>
+      <c r="J451" t="n">
+        <v>8</v>
+      </c>
+      <c r="K451" t="n">
+        <v>1</v>
+      </c>
+      <c r="L451" t="s">
+        <v>372</v>
+      </c>
+      <c r="M451" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>480</v>
+      </c>
+      <c r="B452" t="s">
+        <v>24</v>
+      </c>
+      <c r="C452" t="s">
+        <v>82</v>
+      </c>
+      <c r="D452" t="s">
+        <v>19</v>
+      </c>
+      <c r="E452" t="n">
+        <v>0.882352941176471</v>
+      </c>
+      <c r="F452" t="n">
+        <v>0.652173913043478</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.980247374064941</v>
+      </c>
+      <c r="H452" t="n">
+        <v>2.51477422828489</v>
+      </c>
+      <c r="I452" t="n">
+        <v>17</v>
+      </c>
+      <c r="J452" t="n">
+        <v>8</v>
+      </c>
+      <c r="K452" t="n">
+        <v>2</v>
+      </c>
+      <c r="L452" t="s">
+        <v>482</v>
+      </c>
+      <c r="M452" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>480</v>
+      </c>
+      <c r="B453" t="s">
+        <v>24</v>
+      </c>
+      <c r="C453" t="s">
+        <v>82</v>
+      </c>
+      <c r="D453" t="s">
+        <v>20</v>
+      </c>
+      <c r="E453" t="n">
+        <v>0.941176470588235</v>
+      </c>
+      <c r="F453" t="n">
+        <v>0.695652173913043</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.977770957063671</v>
+      </c>
+      <c r="H453" t="n">
+        <v>2.61459960156495</v>
+      </c>
+      <c r="I453" t="n">
+        <v>17</v>
+      </c>
+      <c r="J453" t="n">
+        <v>7</v>
+      </c>
+      <c r="K453" t="n">
+        <v>1</v>
+      </c>
+      <c r="L453" t="s">
+        <v>448</v>
+      </c>
+      <c r="M453" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>480</v>
+      </c>
+      <c r="B454" t="s">
+        <v>24</v>
+      </c>
+      <c r="C454" t="s">
+        <v>82</v>
+      </c>
+      <c r="D454" t="s">
+        <v>21</v>
+      </c>
+      <c r="E454" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="F454" t="n">
+        <v>0.652173913043478</v>
+      </c>
+      <c r="G454" t="n">
         <v>0.973894954980926</v>
       </c>
-      <c r="H449" t="n">
+      <c r="H454" t="n">
         <v>2.5635688680244</v>
       </c>
-      <c r="I449" t="n">
+      <c r="I454" t="n">
         <v>16</v>
       </c>
-      <c r="J449" t="n">
+      <c r="J454" t="n">
         <v>8</v>
       </c>
-      <c r="K449" t="n">
-        <v>1</v>
-      </c>
-      <c r="L449" t="s">
-        <v>474</v>
-      </c>
-      <c r="M449" t="s">
-        <v>424</v>
+      <c r="K454" t="n">
+        <v>1</v>
+      </c>
+      <c r="L454" t="s">
+        <v>483</v>
+      </c>
+      <c r="M454" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
